--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10806"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{834124BC-6ADF-A340-B092-5C7CE9AD51ED}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
+  <xr:revisionPtr documentId="13_ncr:1_{1ED97D23-0911-474E-AE68-17530763FAFC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="20560" windowWidth="33600" xWindow="9140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-20560"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="31560" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -19,33 +19,36 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$31</definedName>
+    <definedName name="base">'#system'!$C$2:$C$33</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$91</definedName>
+    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$21</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$11</definedName>
+    <definedName name="json">'#system'!$K$2:$K$12</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$14</definedName>
+    <definedName name="number">'#system'!$M$2:$M$15</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
+    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="ssh">'#system'!$Q$2:$Q$9</definedName>
-    <definedName name="step">'#system'!$R$2:$R$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$23</definedName>
-    <definedName name="web">'#system'!$S$2:$S$108</definedName>
-    <definedName name="webalert">'#system'!$T$2:$T$6</definedName>
-    <definedName name="webcookie">'#system'!$U$2:$U$8</definedName>
-    <definedName name="ws">'#system'!$V$2:$V$16</definedName>
-    <definedName name="xml">'#system'!$W$2:$W$11</definedName>
+    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
+    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
+    <definedName name="step">'#system'!$T$2:$T$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$26</definedName>
+    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
   </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -60,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3812" uniqueCount="513">
   <si>
     <t>description</t>
   </si>
@@ -512,9 +515,6 @@
     <t>saveLocation(var)</t>
   </si>
   <si>
-    <t>savePageAsFile(sessionIdName,url,fileName)</t>
-  </si>
-  <si>
     <t>scrollLeft(locator,pixel)</t>
   </si>
   <si>
@@ -659,9 +659,6 @@
     <t>mail</t>
   </si>
   <si>
-    <t>send(to,subject,body)</t>
-  </si>
-  <si>
     <t>open(url)</t>
   </si>
   <si>
@@ -1169,12 +1166,6 @@
     <t>getRowCount(var)</t>
   </si>
   <si>
-    <t>getTableRows(var,beginRow,endRow)</t>
-  </si>
-  <si>
-    <t>getTableRowsAll(var)</t>
-  </si>
-  <si>
     <t>ssh</t>
   </si>
   <si>
@@ -1437,9 +1428,6 @@
   </si>
   <si>
     <t>assertTextNotPresent(text)</t>
-  </si>
-  <si>
-    <t>assertBetween(num,lower,upper)</t>
   </si>
   <si>
     <t>story / feature</t>
@@ -1542,7 +1530,88 @@
     <t>saveTableRowsRange(var,beginRow,endRow)</t>
   </si>
   <si>
-    <t>assertBetween(num,min,max)</t>
+    <t>sms</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>ws.async</t>
+  </si>
+  <si>
+    <t>clear(vars)</t>
+  </si>
+  <si>
+    <t>section(steps)</t>
+  </si>
+  <si>
+    <t>sendKeysToTextBox(name,text1,text2,text3,text4)</t>
+  </si>
+  <si>
+    <t>addOrReplace(json,jsonpath,input,var)</t>
+  </si>
+  <si>
+    <t>send(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,minNum,maxNum)</t>
+  </si>
+  <si>
+    <t>assertEqual(num1,num2)</t>
+  </si>
+  <si>
+    <t>decrement(var,amount)</t>
+  </si>
+  <si>
+    <t>saveResults(db,sqls,outputDir)</t>
+  </si>
+  <si>
+    <t>sendText(phones,text)</t>
+  </si>
+  <si>
+    <t>laser(repeats)</t>
+  </si>
+  <si>
+    <t>play(audio)</t>
+  </si>
+  <si>
+    <t>speak(text)</t>
+  </si>
+  <si>
+    <t>speakNoWait(text)</t>
+  </si>
+  <si>
+    <t>assertTextMatches(text,minMatch,scrollTo)</t>
+  </si>
+  <si>
+    <t>jsSelect(locator,text)</t>
+  </si>
+  <si>
+    <t>savePageAsFile(sessionIdName,url,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,file)</t>
+  </si>
+  <si>
+    <t>delete(url,body,output)</t>
+  </si>
+  <si>
+    <t>get(url,queryString,output)</t>
+  </si>
+  <si>
+    <t>head(url,output)</t>
+  </si>
+  <si>
+    <t>patch(url,body,output)</t>
+  </si>
+  <si>
+    <t>post(url,body,output)</t>
+  </si>
+  <si>
+    <t>put(url,body,output)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
 </sst>
 </file>
@@ -1550,7 +1619,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="116" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1641,6 +1710,24 @@
       <u val="none"/>
     </font>
     <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
       <name val="Consolas"/>
       <sz val="10.0"/>
       <color rgb="5A5A32"/>
@@ -1717,6 +1804,494 @@
       <u val="none"/>
     </font>
     <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
       <name val="Consolas"/>
       <sz val="10.0"/>
       <color rgb="5A5A32"/>
@@ -1780,7 +2355,7 @@
       <u val="none"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1814,6 +2389,40 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6EFD7"/>
         <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
       </patternFill>
     </fill>
     <fill>
@@ -1937,6 +2546,805 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <bgColor rgb="ECECE8"/>
       </patternFill>
     </fill>
@@ -2038,7 +3446,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -2136,6 +3544,94 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -2336,6 +3832,1504 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
         <color rgb="DCDCDC"/>
       </top>
       <bottom style="thin"/>
@@ -2471,7 +5465,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="143">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2610,70 +5604,313 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="12" fontId="15" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="16" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="16" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="17" numFmtId="0" xfId="0">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="19" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="20" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="21" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="28" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="29" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="31" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="45" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="48" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="43" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="44" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="46" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="72" fontId="48" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="75" fontId="49" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="58" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="59" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="61" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="99" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="102" fontId="64" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="65" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="73" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="74" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="76" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="126" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="129" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="81" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="88" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="89" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="91" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="153" fontId="93" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="156" fontId="94" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="97" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3028,7 +6265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X108"/>
+  <dimension ref="A1:AA111"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -3044,7 +6281,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -3062,60 +6299,69 @@
         <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I1" t="s">
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K1" t="s">
         <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M1" t="s">
         <v>53</v>
       </c>
       <c r="N1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O1" t="s">
         <v>54</v>
       </c>
       <c r="P1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="Q1" t="s">
-        <v>371</v>
+        <v>485</v>
       </c>
       <c r="R1" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="S1" t="s">
+        <v>367</v>
+      </c>
+      <c r="T1" t="s">
+        <v>457</v>
+      </c>
+      <c r="U1" t="s">
         <v>55</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>56</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>57</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>58</v>
       </c>
-      <c r="W1" t="s">
-        <v>230</v>
+      <c r="Y1" t="s">
+        <v>487</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -3133,52 +6379,61 @@
         <v>80</v>
       </c>
       <c r="H2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>491</v>
       </c>
       <c r="L2" t="s">
-        <v>199</v>
+        <v>492</v>
       </c>
       <c r="M2" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="N2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="Q2" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="R2" t="s">
-        <v>463</v>
+        <v>498</v>
       </c>
       <c r="S2" t="s">
+        <v>442</v>
+      </c>
+      <c r="T2" t="s">
+        <v>458</v>
+      </c>
+      <c r="U2" t="s">
         <v>98</v>
       </c>
-      <c r="T2" t="s">
-        <v>173</v>
-      </c>
-      <c r="U2" t="s">
-        <v>178</v>
-      </c>
       <c r="V2" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="W2" t="s">
-        <v>231</v>
+        <v>177</v>
+      </c>
+      <c r="X2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>506</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="3">
@@ -3186,67 +6441,73 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E3" t="s">
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s">
-        <v>318</v>
+        <v>494</v>
       </c>
       <c r="N3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P3" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="R3" t="s">
-        <v>464</v>
+        <v>499</v>
       </c>
       <c r="S3" t="s">
+        <v>443</v>
+      </c>
+      <c r="T3" t="s">
+        <v>459</v>
+      </c>
+      <c r="U3" t="s">
         <v>99</v>
       </c>
-      <c r="T3" t="s">
-        <v>174</v>
-      </c>
-      <c r="U3" t="s">
-        <v>179</v>
-      </c>
       <c r="V3" t="s">
-        <v>378</v>
+        <v>173</v>
       </c>
       <c r="W3" t="s">
-        <v>232</v>
+        <v>178</v>
+      </c>
+      <c r="X3" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="4">
@@ -3254,7 +6515,7 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -3263,55 +6524,61 @@
         <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="M4" t="s">
         <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P4" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>372</v>
+        <v>464</v>
       </c>
       <c r="R4" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="S4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="T4" t="s">
-        <v>175</v>
+        <v>460</v>
       </c>
       <c r="U4" t="s">
-        <v>180</v>
+        <v>364</v>
       </c>
       <c r="V4" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="W4" t="s">
-        <v>233</v>
+        <v>179</v>
+      </c>
+      <c r="X4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>507</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="5">
@@ -3319,55 +6586,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I5" t="s">
         <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s">
         <v>30</v>
       </c>
       <c r="N5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P5" t="s">
-        <v>470</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>373</v>
+        <v>465</v>
+      </c>
+      <c r="R5" t="s">
+        <v>501</v>
       </c>
       <c r="S5" t="s">
-        <v>367</v>
-      </c>
-      <c r="T5" t="s">
-        <v>176</v>
+        <v>369</v>
       </c>
       <c r="U5" t="s">
-        <v>181</v>
+        <v>365</v>
       </c>
       <c r="V5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="W5" t="s">
-        <v>234</v>
+        <v>180</v>
+      </c>
+      <c r="X5" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>508</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="6">
@@ -3375,52 +6648,55 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E6" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
         <v>31</v>
       </c>
       <c r="N6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O6" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="P6" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>375</v>
+        <v>466</v>
       </c>
       <c r="S6" t="s">
+        <v>371</v>
+      </c>
+      <c r="U6" t="s">
         <v>100</v>
       </c>
-      <c r="T6" t="s">
-        <v>177</v>
-      </c>
-      <c r="U6" t="s">
-        <v>182</v>
-      </c>
       <c r="V6" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="W6" t="s">
-        <v>235</v>
+        <v>181</v>
+      </c>
+      <c r="X6" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>509</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="7">
@@ -3428,93 +6704,102 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
       </c>
       <c r="N7" t="s">
-        <v>247</v>
+        <v>245</v>
+      </c>
+      <c r="O7" t="s">
+        <v>496</v>
       </c>
       <c r="P7" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>374</v>
+        <v>467</v>
       </c>
       <c r="S7" t="s">
+        <v>370</v>
+      </c>
+      <c r="U7" t="s">
         <v>101</v>
       </c>
-      <c r="U7" t="s">
-        <v>183</v>
-      </c>
-      <c r="V7" t="s">
-        <v>189</v>
-      </c>
       <c r="W7" t="s">
-        <v>236</v>
+        <v>182</v>
+      </c>
+      <c r="X7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>510</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B8" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E8" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
         <v>92</v>
       </c>
       <c r="N8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P8" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>376</v>
+        <v>468</v>
       </c>
       <c r="S8" t="s">
+        <v>372</v>
+      </c>
+      <c r="U8" t="s">
         <v>102</v>
       </c>
-      <c r="U8" t="s">
-        <v>184</v>
-      </c>
-      <c r="V8" t="s">
-        <v>190</v>
-      </c>
       <c r="W8" t="s">
-        <v>237</v>
+        <v>183</v>
+      </c>
+      <c r="X8" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>511</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="9">
@@ -3522,75 +6807,75 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I9" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
         <v>93</v>
       </c>
       <c r="N9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P9" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>377</v>
+        <v>469</v>
       </c>
       <c r="S9" t="s">
-        <v>212</v>
-      </c>
-      <c r="V9" t="s">
-        <v>191</v>
-      </c>
-      <c r="W9" t="s">
-        <v>238</v>
+        <v>373</v>
+      </c>
+      <c r="U9" t="s">
+        <v>210</v>
+      </c>
+      <c r="X9" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>94</v>
+        <v>495</v>
       </c>
       <c r="N10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P10" t="s">
-        <v>475</v>
-      </c>
-      <c r="S10" t="s">
-        <v>260</v>
-      </c>
-      <c r="V10" t="s">
-        <v>192</v>
-      </c>
-      <c r="W10" t="s">
-        <v>239</v>
+        <v>470</v>
+      </c>
+      <c r="U10" t="s">
+        <v>258</v>
+      </c>
+      <c r="X10" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="11">
@@ -3598,57 +6883,60 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I11" t="s">
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="N11" t="s">
-        <v>251</v>
-      </c>
-      <c r="S11" t="s">
-        <v>261</v>
-      </c>
-      <c r="V11" t="s">
-        <v>262</v>
-      </c>
-      <c r="W11" t="s">
-        <v>240</v>
+        <v>249</v>
+      </c>
+      <c r="U11" t="s">
+        <v>259</v>
+      </c>
+      <c r="X11" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I12" t="s">
         <v>82</v>
       </c>
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
       <c r="M12" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="N12" t="s">
-        <v>252</v>
-      </c>
-      <c r="S12" t="s">
+        <v>250</v>
+      </c>
+      <c r="U12" t="s">
         <v>103</v>
       </c>
-      <c r="V12" t="s">
-        <v>193</v>
+      <c r="X12" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="13">
@@ -3659,48 +6947,48 @@
         <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I13" t="s">
         <v>83</v>
       </c>
       <c r="M13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N13" t="s">
-        <v>257</v>
-      </c>
-      <c r="S13" t="s">
-        <v>329</v>
-      </c>
-      <c r="V13" t="s">
-        <v>194</v>
+        <v>255</v>
+      </c>
+      <c r="U13" t="s">
+        <v>327</v>
+      </c>
+      <c r="X13" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C14" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I14" t="s">
         <v>84</v>
       </c>
       <c r="M14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N14" t="s">
-        <v>253</v>
-      </c>
-      <c r="S14" t="s">
+        <v>251</v>
+      </c>
+      <c r="U14" t="s">
         <v>104</v>
       </c>
-      <c r="V14" t="s">
-        <v>195</v>
+      <c r="X14" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="15">
@@ -3708,53 +6996,56 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E15" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I15" t="s">
         <v>85</v>
       </c>
+      <c r="M15" t="s">
+        <v>97</v>
+      </c>
       <c r="N15" t="s">
-        <v>254</v>
-      </c>
-      <c r="S15" t="s">
+        <v>252</v>
+      </c>
+      <c r="U15" t="s">
         <v>105</v>
       </c>
-      <c r="V15" t="s">
-        <v>196</v>
+      <c r="X15" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>488</v>
       </c>
       <c r="E16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I16" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="N16" t="s">
-        <v>255</v>
-      </c>
-      <c r="S16" t="s">
+        <v>253</v>
+      </c>
+      <c r="U16" t="s">
         <v>76</v>
       </c>
-      <c r="V16" t="s">
-        <v>197</v>
+      <c r="X16" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>371</v>
+        <v>485</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
         <v>90</v>
@@ -3762,757 +7053,790 @@
       <c r="I17" t="s">
         <v>44</v>
       </c>
-      <c r="S17" t="s">
+      <c r="U17" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="C18" t="s">
-        <v>259</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
         <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>457</v>
-      </c>
-      <c r="S18" t="s">
+        <v>453</v>
+      </c>
+      <c r="U18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>367</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>257</v>
       </c>
       <c r="E19" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I19" t="s">
         <v>86</v>
       </c>
-      <c r="S19" t="s">
+      <c r="U19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>457</v>
       </c>
       <c r="C20" t="s">
-        <v>324</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I20" t="s">
         <v>45</v>
       </c>
-      <c r="S20" t="s">
+      <c r="U20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>322</v>
       </c>
       <c r="E21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I21" t="s">
         <v>46</v>
       </c>
-      <c r="S21" t="s">
+      <c r="U21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>302</v>
-      </c>
-      <c r="S22" t="s">
+        <v>300</v>
+      </c>
+      <c r="U22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>230</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E23" t="s">
-        <v>293</v>
-      </c>
-      <c r="S23" t="s">
+        <v>291</v>
+      </c>
+      <c r="U23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>227</v>
       </c>
       <c r="E24" t="s">
-        <v>282</v>
-      </c>
-      <c r="S24" t="s">
+        <v>280</v>
+      </c>
+      <c r="U24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="s">
+        <v>487</v>
+      </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>489</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
       </c>
-      <c r="S25" t="s">
+      <c r="U25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="s">
+        <v>228</v>
+      </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>285</v>
-      </c>
-      <c r="S26" t="s">
+        <v>283</v>
+      </c>
+      <c r="U26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>269</v>
-      </c>
-      <c r="S27" t="s">
-        <v>330</v>
+        <v>267</v>
+      </c>
+      <c r="U27" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>286</v>
-      </c>
-      <c r="S28" t="s">
+        <v>284</v>
+      </c>
+      <c r="U28" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>287</v>
-      </c>
-      <c r="S29" t="s">
+        <v>285</v>
+      </c>
+      <c r="U29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>219</v>
-      </c>
-      <c r="S30" t="s">
+        <v>217</v>
+      </c>
+      <c r="U30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" t="s">
+        <v>276</v>
+      </c>
+      <c r="U31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" t="s">
+        <v>286</v>
+      </c>
+      <c r="U32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="s">
         <v>72</v>
       </c>
-      <c r="E31" t="s">
-        <v>278</v>
-      </c>
-      <c r="S31" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="E32" t="s">
-        <v>288</v>
-      </c>
-      <c r="S32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33">
       <c r="E33" t="s">
-        <v>263</v>
-      </c>
-      <c r="S33" t="s">
+        <v>261</v>
+      </c>
+      <c r="U33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>333</v>
-      </c>
-      <c r="S34" t="s">
-        <v>213</v>
+        <v>331</v>
+      </c>
+      <c r="U34" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>310</v>
-      </c>
-      <c r="S35" t="s">
+        <v>308</v>
+      </c>
+      <c r="U35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>264</v>
-      </c>
-      <c r="S36" t="s">
-        <v>341</v>
+        <v>262</v>
+      </c>
+      <c r="U36" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>311</v>
-      </c>
-      <c r="S37" t="s">
-        <v>458</v>
+        <v>309</v>
+      </c>
+      <c r="U37" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>270</v>
-      </c>
-      <c r="S38" t="s">
-        <v>123</v>
+        <v>268</v>
+      </c>
+      <c r="U38" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
         <v>79</v>
       </c>
-      <c r="S39" t="s">
-        <v>124</v>
+      <c r="U39" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>215</v>
-      </c>
-      <c r="S40" t="s">
-        <v>125</v>
+        <v>213</v>
+      </c>
+      <c r="U40" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>292</v>
-      </c>
-      <c r="S41" t="s">
-        <v>126</v>
+        <v>290</v>
+      </c>
+      <c r="U41" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>303</v>
-      </c>
-      <c r="S42" t="s">
-        <v>127</v>
+        <v>301</v>
+      </c>
+      <c r="U42" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>304</v>
-      </c>
-      <c r="S43" t="s">
-        <v>128</v>
+        <v>302</v>
+      </c>
+      <c r="U43" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>346</v>
-      </c>
-      <c r="S44" t="s">
-        <v>216</v>
+        <v>344</v>
+      </c>
+      <c r="U44" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>345</v>
-      </c>
-      <c r="S45" t="s">
-        <v>78</v>
+        <v>343</v>
+      </c>
+      <c r="U45" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>214</v>
-      </c>
-      <c r="S46" t="s">
-        <v>129</v>
+        <v>212</v>
+      </c>
+      <c r="U46" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>323</v>
-      </c>
-      <c r="S47" t="s">
-        <v>130</v>
+        <v>321</v>
+      </c>
+      <c r="U47" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>342</v>
-      </c>
-      <c r="S48" t="s">
-        <v>131</v>
+        <v>340</v>
+      </c>
+      <c r="U48" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>382</v>
-      </c>
-      <c r="S49" t="s">
-        <v>132</v>
+        <v>378</v>
+      </c>
+      <c r="U49" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>305</v>
-      </c>
-      <c r="S50" t="s">
-        <v>358</v>
+        <v>303</v>
+      </c>
+      <c r="U50" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>368</v>
-      </c>
-      <c r="S51" t="s">
-        <v>133</v>
+        <v>366</v>
+      </c>
+      <c r="U51" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>334</v>
-      </c>
-      <c r="S52" t="s">
-        <v>134</v>
+        <v>332</v>
+      </c>
+      <c r="U52" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>271</v>
-      </c>
-      <c r="S53" t="s">
-        <v>135</v>
+        <v>269</v>
+      </c>
+      <c r="U53" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>295</v>
-      </c>
-      <c r="S54" t="s">
-        <v>136</v>
+        <v>293</v>
+      </c>
+      <c r="U54" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>296</v>
-      </c>
-      <c r="S55" t="s">
-        <v>137</v>
+        <v>294</v>
+      </c>
+      <c r="U55" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>297</v>
-      </c>
-      <c r="S56" t="s">
-        <v>138</v>
+        <v>295</v>
+      </c>
+      <c r="U56" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>306</v>
-      </c>
-      <c r="S57" t="s">
-        <v>139</v>
+        <v>304</v>
+      </c>
+      <c r="U57" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>315</v>
-      </c>
-      <c r="S58" t="s">
-        <v>217</v>
+        <v>313</v>
+      </c>
+      <c r="U58" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>340</v>
-      </c>
-      <c r="S59" t="s">
-        <v>454</v>
+        <v>338</v>
+      </c>
+      <c r="U59" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>312</v>
-      </c>
-      <c r="S60" t="s">
-        <v>140</v>
+        <v>310</v>
+      </c>
+      <c r="U60" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>313</v>
-      </c>
-      <c r="S61" t="s">
-        <v>141</v>
+        <v>311</v>
+      </c>
+      <c r="U61" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>383</v>
-      </c>
-      <c r="S62" t="s">
-        <v>142</v>
+        <v>379</v>
+      </c>
+      <c r="U62" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>384</v>
-      </c>
-      <c r="S63" t="s">
-        <v>143</v>
+        <v>380</v>
+      </c>
+      <c r="U63" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>348</v>
-      </c>
-      <c r="S64" t="s">
-        <v>200</v>
+        <v>346</v>
+      </c>
+      <c r="U64" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>316</v>
-      </c>
-      <c r="S65" t="s">
-        <v>201</v>
+        <v>314</v>
+      </c>
+      <c r="U65" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>272</v>
-      </c>
-      <c r="S66" t="s">
-        <v>144</v>
+        <v>270</v>
+      </c>
+      <c r="U66" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>365</v>
-      </c>
-      <c r="S67" t="s">
-        <v>145</v>
+        <v>363</v>
+      </c>
+      <c r="U67" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>317</v>
-      </c>
-      <c r="S68" t="s">
-        <v>146</v>
+        <v>315</v>
+      </c>
+      <c r="U68" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>488</v>
-      </c>
-      <c r="S69" t="s">
-        <v>147</v>
+        <v>483</v>
+      </c>
+      <c r="U69" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>307</v>
-      </c>
-      <c r="S70" t="s">
-        <v>148</v>
+        <v>305</v>
+      </c>
+      <c r="U70" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>489</v>
-      </c>
-      <c r="S71" t="s">
-        <v>202</v>
+        <v>484</v>
+      </c>
+      <c r="U71" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>265</v>
-      </c>
-      <c r="S72" t="s">
-        <v>203</v>
+        <v>263</v>
+      </c>
+      <c r="U72" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>347</v>
-      </c>
-      <c r="S73" t="s">
-        <v>204</v>
+        <v>345</v>
+      </c>
+      <c r="U73" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>283</v>
-      </c>
-      <c r="S74" t="s">
-        <v>205</v>
+        <v>281</v>
+      </c>
+      <c r="U74" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>289</v>
-      </c>
-      <c r="S75" t="s">
-        <v>218</v>
+        <v>287</v>
+      </c>
+      <c r="U75" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>294</v>
-      </c>
-      <c r="S76" t="s">
-        <v>149</v>
+        <v>292</v>
+      </c>
+      <c r="U76" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>335</v>
-      </c>
-      <c r="S77" t="s">
-        <v>206</v>
+        <v>490</v>
+      </c>
+      <c r="U77" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>273</v>
-      </c>
-      <c r="S78" t="s">
-        <v>150</v>
+        <v>333</v>
+      </c>
+      <c r="U78" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>284</v>
-      </c>
-      <c r="S79" t="s">
-        <v>207</v>
+        <v>271</v>
+      </c>
+      <c r="U79" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>290</v>
-      </c>
-      <c r="S80" t="s">
-        <v>208</v>
+        <v>282</v>
+      </c>
+      <c r="U80" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>279</v>
-      </c>
-      <c r="S81" t="s">
-        <v>209</v>
+        <v>288</v>
+      </c>
+      <c r="U81" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>274</v>
-      </c>
-      <c r="S82" t="s">
-        <v>210</v>
+        <v>277</v>
+      </c>
+      <c r="U82" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>291</v>
-      </c>
-      <c r="S83" t="s">
-        <v>226</v>
+        <v>272</v>
+      </c>
+      <c r="U83" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>275</v>
-      </c>
-      <c r="S84" t="s">
-        <v>211</v>
+        <v>289</v>
+      </c>
+      <c r="U84" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>276</v>
-      </c>
-      <c r="S85" t="s">
-        <v>151</v>
+        <v>273</v>
+      </c>
+      <c r="U85" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>308</v>
-      </c>
-      <c r="S86" t="s">
-        <v>448</v>
+        <v>274</v>
+      </c>
+      <c r="U86" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>314</v>
-      </c>
-      <c r="S87" t="s">
-        <v>152</v>
+        <v>306</v>
+      </c>
+      <c r="U87" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>298</v>
-      </c>
-      <c r="S88" t="s">
-        <v>153</v>
+        <v>312</v>
+      </c>
+      <c r="U88" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>343</v>
-      </c>
-      <c r="S89" t="s">
-        <v>154</v>
+        <v>296</v>
+      </c>
+      <c r="U89" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>280</v>
-      </c>
-      <c r="S90" t="s">
-        <v>155</v>
+        <v>341</v>
+      </c>
+      <c r="U90" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>281</v>
-      </c>
-      <c r="S91" t="s">
+        <v>278</v>
+      </c>
+      <c r="U91" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" t="s">
+        <v>279</v>
+      </c>
+      <c r="U92" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="U93" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="U94" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="U95" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="92">
-      <c r="S92" t="s">
+    <row r="96">
+      <c r="U96" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="93">
-      <c r="S93" t="s">
+    <row r="97">
+      <c r="U97" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="94">
-      <c r="S94" t="s">
+    <row r="98">
+      <c r="U98" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="95">
-      <c r="S95" t="s">
+    <row r="99">
+      <c r="U99" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="96">
-      <c r="S96" t="s">
+    <row r="100">
+      <c r="U100" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="97">
-      <c r="S97" t="s">
+    <row r="101">
+      <c r="U101" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="98">
-      <c r="S98" t="s">
+    <row r="102">
+      <c r="U102" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="99">
-      <c r="S99" t="s">
+    <row r="103">
+      <c r="U103" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="100">
-      <c r="S100" t="s">
+    <row r="104">
+      <c r="U104" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="101">
-      <c r="S101" t="s">
+    <row r="105">
+      <c r="U105" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="102">
-      <c r="S102" t="s">
+    <row r="106">
+      <c r="U106" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="103">
-      <c r="S103" t="s">
+    <row r="107">
+      <c r="U107" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="U108" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="104">
-      <c r="S104" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="S105" t="s">
+    <row r="109">
+      <c r="U109" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="106">
-      <c r="S106" t="s">
+    <row r="110">
+      <c r="U110" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="107">
-      <c r="S107" t="s">
+    <row r="111">
+      <c r="U111" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="S108" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4561,10 +7885,10 @@
         <v>20</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>19</v>
@@ -4618,13 +7942,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
@@ -4663,7 +7987,7 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="13" t="s">
@@ -4673,10 +7997,10 @@
         <v>82</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -4690,7 +8014,7 @@
     </row>
     <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -4700,7 +8024,7 @@
         <v>36</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -4715,7 +8039,7 @@
     </row>
     <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -4725,13 +8049,13 @@
         <v>25</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -4752,13 +8076,13 @@
         <v>43</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -4779,7 +8103,7 @@
         <v>71</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -4802,13 +8126,13 @@
         <v>40</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -4829,7 +8153,7 @@
         <v>71</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -4852,13 +8176,13 @@
         <v>40</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -4876,13 +8200,13 @@
         <v>13</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -4901,13 +8225,13 @@
         <v>53</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>318</v>
+        <v>494</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -4926,13 +8250,13 @@
         <v>13</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -4951,13 +8275,13 @@
         <v>13</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -4979,13 +8303,13 @@
         <v>15</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -4998,7 +8322,7 @@
     </row>
     <row customHeight="1" ht="91" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="13" t="s">
@@ -5008,10 +8332,10 @@
         <v>64</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -5033,13 +8357,13 @@
         <v>34</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -5060,13 +8384,13 @@
         <v>34</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -5087,16 +8411,16 @@
         <v>35</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="22"/>
@@ -5116,10 +8440,10 @@
         <v>64</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -5141,13 +8465,13 @@
         <v>34</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -5168,13 +8492,13 @@
         <v>34</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -5195,16 +8519,16 @@
         <v>35</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="22"/>
@@ -16227,10 +19551,10 @@
         <v>20</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>19</v>
@@ -16284,13 +19608,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>2</v>
@@ -16329,7 +19653,7 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="13" t="s">
@@ -16339,10 +19663,10 @@
         <v>64</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -16364,10 +19688,10 @@
         <v>64</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -16382,7 +19706,7 @@
     <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>24</v>
@@ -16391,13 +19715,13 @@
         <v>34</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -16410,10 +19734,10 @@
     </row>
     <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>24</v>
@@ -16422,13 +19746,13 @@
         <v>34</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -16441,10 +19765,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>24</v>
@@ -16453,13 +19777,13 @@
         <v>34</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -16470,12 +19794,12 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row ht="28" r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row ht="30" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>13</v>
@@ -16484,10 +19808,10 @@
         <v>64</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -16509,10 +19833,10 @@
         <v>64</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -16534,10 +19858,10 @@
         <v>64</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -16552,7 +19876,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>24</v>
@@ -16561,13 +19885,13 @@
         <v>34</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -16581,7 +19905,7 @@
     <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>24</v>
@@ -16590,13 +19914,13 @@
         <v>34</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -16617,10 +19941,10 @@
         <v>59</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -16635,7 +19959,7 @@
     <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>24</v>
@@ -16644,13 +19968,13 @@
         <v>34</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -16663,20 +19987,20 @@
     </row>
     <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -16695,13 +20019,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -16720,13 +20044,13 @@
         <v>13</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -16745,13 +20069,13 @@
         <v>13</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -16766,19 +20090,19 @@
     <row customHeight="1" ht="19" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -16793,19 +20117,19 @@
     <row customHeight="1" ht="21" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3812" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4260" uniqueCount="514">
   <si>
     <t>description</t>
   </si>
@@ -1613,13 +1613,16 @@
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="116" x14ac:knownFonts="1">
+  <fonts count="131" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2354,8 +2357,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3445,8 +3542,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5458,6 +5708,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5465,7 +5997,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="158">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5868,49 +6400,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="103" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="104" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="106" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="180" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="183" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6265,7 +6842,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7477,7 +8054,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>215</v>
+        <v>513</v>
       </c>
     </row>
     <row r="60">
@@ -7485,7 +8062,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>450</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61">
@@ -7493,7 +8070,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>140</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62">
@@ -7501,7 +8078,7 @@
         <v>379</v>
       </c>
       <c r="U62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63">
@@ -7509,7 +8086,7 @@
         <v>380</v>
       </c>
       <c r="U63" t="s">
-        <v>503</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64">
@@ -7517,7 +8094,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>142</v>
+        <v>503</v>
       </c>
     </row>
     <row r="65">
@@ -7525,7 +8102,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66">
@@ -7533,7 +8110,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67">
@@ -7541,7 +8118,7 @@
         <v>363</v>
       </c>
       <c r="U67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68">
@@ -7549,7 +8126,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69">
@@ -7557,7 +8134,7 @@
         <v>483</v>
       </c>
       <c r="U69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70">
@@ -7565,7 +8142,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71">
@@ -7573,7 +8150,7 @@
         <v>484</v>
       </c>
       <c r="U71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72">
@@ -7581,7 +8158,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73">
@@ -7589,7 +8166,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74">
@@ -7597,7 +8174,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75">
@@ -7605,7 +8182,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76">
@@ -7613,7 +8190,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77">
@@ -7621,7 +8198,7 @@
         <v>490</v>
       </c>
       <c r="U77" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78">
@@ -7629,7 +8206,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79">
@@ -7637,7 +8214,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80">
@@ -7645,7 +8222,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>504</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81">
@@ -7653,7 +8230,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="82">
@@ -7661,7 +8238,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>205</v>
+        <v>512</v>
       </c>
     </row>
     <row r="83">
@@ -7669,7 +8246,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84">
@@ -7677,7 +8254,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85">
@@ -7685,7 +8262,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86">
@@ -7693,7 +8270,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87">
@@ -7701,7 +8278,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88">
@@ -7709,7 +8286,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89">
@@ -7717,7 +8294,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>444</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90">
@@ -7725,7 +8302,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>151</v>
+        <v>444</v>
       </c>
     </row>
     <row r="91">
@@ -7733,7 +8310,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92">
@@ -7741,101 +8318,106 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -20,16 +20,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -43,8 +43,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4260" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4715" uniqueCount="522">
   <si>
     <t>description</t>
   </si>
@@ -1616,13 +1616,37 @@
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="131" x14ac:knownFonts="1">
+  <fonts count="146" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2451,8 +2475,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3695,8 +3813,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -5990,6 +6261,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5997,7 +6550,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="173">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6445,49 +6998,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="118" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="119" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="121" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6842,7 +7440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7168,6 +7766,9 @@
       <c r="C5" t="s">
         <v>225</v>
       </c>
+      <c r="D5" t="s">
+        <v>514</v>
+      </c>
       <c r="E5" t="s">
         <v>337</v>
       </c>
@@ -7261,7 +7862,7 @@
         <v>100</v>
       </c>
       <c r="V6" t="s">
-        <v>176</v>
+        <v>520</v>
       </c>
       <c r="W6" t="s">
         <v>181</v>
@@ -7316,6 +7917,9 @@
       <c r="U7" t="s">
         <v>101</v>
       </c>
+      <c r="V7" t="s">
+        <v>521</v>
+      </c>
       <c r="W7" t="s">
         <v>182</v>
       </c>
@@ -7366,6 +7970,9 @@
       <c r="U8" t="s">
         <v>102</v>
       </c>
+      <c r="V8" t="s">
+        <v>176</v>
+      </c>
       <c r="W8" t="s">
         <v>183</v>
       </c>
@@ -7434,7 +8041,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>516</v>
       </c>
       <c r="M10" t="s">
         <v>495</v>
@@ -7469,7 +8076,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
         <v>94</v>
@@ -7501,7 +8108,7 @@
         <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -7529,6 +8136,9 @@
       <c r="I13" t="s">
         <v>83</v>
       </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
       <c r="M13" t="s">
         <v>95</v>
       </c>
@@ -7679,7 +8289,7 @@
         <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>515</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -7696,7 +8306,7 @@
         <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -7712,6 +8322,9 @@
       <c r="E22" t="s">
         <v>300</v>
       </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
       <c r="U22" t="s">
         <v>111</v>
       </c>
@@ -7942,7 +8555,7 @@
         <v>343</v>
       </c>
       <c r="U45" t="s">
-        <v>214</v>
+        <v>517</v>
       </c>
     </row>
     <row r="46">
@@ -7950,7 +8563,7 @@
         <v>212</v>
       </c>
       <c r="U46" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47">
@@ -7958,7 +8571,7 @@
         <v>321</v>
       </c>
       <c r="U47" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -7966,7 +8579,7 @@
         <v>340</v>
       </c>
       <c r="U48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49">
@@ -7974,7 +8587,7 @@
         <v>378</v>
       </c>
       <c r="U49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50">
@@ -7982,7 +8595,7 @@
         <v>303</v>
       </c>
       <c r="U50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51">
@@ -7990,7 +8603,7 @@
         <v>366</v>
       </c>
       <c r="U51" t="s">
-        <v>356</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52">
@@ -7998,7 +8611,7 @@
         <v>332</v>
       </c>
       <c r="U52" t="s">
-        <v>133</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53">
@@ -8006,7 +8619,7 @@
         <v>269</v>
       </c>
       <c r="U53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54">
@@ -8014,7 +8627,7 @@
         <v>293</v>
       </c>
       <c r="U54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55">
@@ -8022,7 +8635,7 @@
         <v>294</v>
       </c>
       <c r="U55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56">
@@ -8030,7 +8643,7 @@
         <v>295</v>
       </c>
       <c r="U56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57">
@@ -8038,7 +8651,7 @@
         <v>304</v>
       </c>
       <c r="U57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58">
@@ -8046,7 +8659,7 @@
         <v>313</v>
       </c>
       <c r="U58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59">
@@ -8054,7 +8667,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>513</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60">
@@ -8062,7 +8675,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>215</v>
+        <v>513</v>
       </c>
     </row>
     <row r="61">
@@ -8070,7 +8683,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>450</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62">
@@ -8078,7 +8691,7 @@
         <v>379</v>
       </c>
       <c r="U62" t="s">
-        <v>140</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63">
@@ -8086,7 +8699,7 @@
         <v>380</v>
       </c>
       <c r="U63" t="s">
-        <v>141</v>
+        <v>518</v>
       </c>
     </row>
     <row r="64">
@@ -8094,7 +8707,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>503</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65">
@@ -8102,7 +8715,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66">
@@ -8110,7 +8723,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67">
@@ -8118,7 +8731,7 @@
         <v>363</v>
       </c>
       <c r="U67" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68">
@@ -8126,7 +8739,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69">
@@ -8134,7 +8747,7 @@
         <v>483</v>
       </c>
       <c r="U69" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70">
@@ -8142,7 +8755,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71">
@@ -8150,7 +8763,7 @@
         <v>484</v>
       </c>
       <c r="U71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72">
@@ -8158,7 +8771,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73">
@@ -8166,7 +8779,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74">
@@ -8174,7 +8787,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75">
@@ -8182,7 +8795,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76">
@@ -8190,7 +8803,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77">
@@ -8198,7 +8811,7 @@
         <v>490</v>
       </c>
       <c r="U77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78">
@@ -8206,7 +8819,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79">
@@ -8214,7 +8827,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80">
@@ -8222,7 +8835,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81">
@@ -8230,7 +8843,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>504</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82">
@@ -8238,7 +8851,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="83">
@@ -8246,7 +8859,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>205</v>
+        <v>512</v>
       </c>
     </row>
     <row r="84">
@@ -8254,7 +8867,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85">
@@ -8262,7 +8875,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86">
@@ -8270,7 +8883,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87">
@@ -8278,7 +8891,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88">
@@ -8286,7 +8899,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89">
@@ -8294,7 +8907,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90">
@@ -8302,7 +8915,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>444</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91">
@@ -8310,7 +8923,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>151</v>
+        <v>444</v>
       </c>
     </row>
     <row r="92">
@@ -8318,106 +8931,116 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>165</v>
+        <v>519</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4715" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5170" uniqueCount="522">
   <si>
     <t>description</t>
   </si>
@@ -1646,7 +1646,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="146" x14ac:knownFonts="1">
+  <fonts count="161" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2569,8 +2569,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3966,8 +4060,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -6543,6 +6790,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6550,7 +7079,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="188">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7043,49 +7572,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="133" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="134" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="136" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="234" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="237" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -20,12 +20,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3106" uniqueCount="563">
   <si>
     <t>description</t>
   </si>
@@ -1768,13 +1768,25 @@
   <si>
     <t>csv(file,worksheet,range,output)</t>
   </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="87" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2139,8 +2151,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2618,8 +2818,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -3503,6 +4009,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3510,7 +4580,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="115">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3741,49 +4811,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="44" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="47" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="72" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="72" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="75" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="75" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="59" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="60" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="62" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="99" fontId="64" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="102" fontId="65" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="126" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="129" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4276,7 +5436,7 @@
         <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>560</v>
       </c>
       <c r="G2" t="s">
         <v>80</v>
@@ -4356,7 +5516,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>558</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -4430,7 +5590,7 @@
         <v>448</v>
       </c>
       <c r="F4" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H4" t="s">
         <v>361</v>
@@ -4501,7 +5661,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>329</v>
+        <v>558</v>
       </c>
       <c r="H5" t="s">
         <v>358</v>
@@ -4563,7 +5723,7 @@
         <v>449</v>
       </c>
       <c r="F6" t="s">
-        <v>330</v>
+        <v>557</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -4619,7 +5779,7 @@
         <v>376</v>
       </c>
       <c r="F7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -4675,7 +5835,7 @@
         <v>377</v>
       </c>
       <c r="F8" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -4728,7 +5888,7 @@
         <v>307</v>
       </c>
       <c r="F9" t="s">
-        <v>325</v>
+        <v>562</v>
       </c>
       <c r="I9" t="s">
         <v>451</v>
@@ -4769,7 +5929,7 @@
         <v>362</v>
       </c>
       <c r="F10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -4806,6 +5966,9 @@
       <c r="E11" t="s">
         <v>275</v>
       </c>
+      <c r="F11" t="s">
+        <v>324</v>
+      </c>
       <c r="I11" t="s">
         <v>42</v>
       </c>
@@ -4838,6 +6001,9 @@
       <c r="E12" t="s">
         <v>264</v>
       </c>
+      <c r="F12" t="s">
+        <v>325</v>
+      </c>
       <c r="I12" t="s">
         <v>82</v>
       </c>
@@ -4867,6 +6033,9 @@
       <c r="E13" t="s">
         <v>317</v>
       </c>
+      <c r="F13" t="s">
+        <v>326</v>
+      </c>
       <c r="I13" t="s">
         <v>83</v>
       </c>
@@ -5071,7 +6240,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>226</v>
+        <v>559</v>
       </c>
       <c r="E23" t="s">
         <v>291</v>
@@ -5085,7 +6254,7 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E24" t="s">
         <v>280</v>
@@ -5099,7 +6268,7 @@
         <v>487</v>
       </c>
       <c r="C25" t="s">
-        <v>489</v>
+        <v>227</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -5113,7 +6282,7 @@
         <v>228</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>489</v>
       </c>
       <c r="E26" t="s">
         <v>283</v>
@@ -5124,7 +6293,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
         <v>267</v>
@@ -5135,7 +6304,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
         <v>284</v>
@@ -5146,7 +6315,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
         <v>285</v>
@@ -5157,7 +6326,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
         <v>217</v>
@@ -5168,7 +6337,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
         <v>276</v>
@@ -5179,7 +6348,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
         <v>286</v>
@@ -5190,7 +6359,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
         <v>261</v>
@@ -5200,6 +6369,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
       <c r="E34" t="s">
         <v>331</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3106" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4032" uniqueCount="565">
   <si>
     <t>description</t>
   </si>
@@ -1780,13 +1780,19 @@
   <si>
     <t>setPassword(file,password)</t>
   </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="87" x14ac:knownFonts="1">
+  <fonts count="117" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2339,8 +2345,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3124,8 +3318,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -4573,6 +5073,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4580,7 +5644,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="145">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4901,49 +5965,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="74" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="75" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="126" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="126" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="129" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="129" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="89" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="90" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="92" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="153" fontId="94" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="156" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="97" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5328,7 +6482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6720,7 +7874,7 @@
         <v>490</v>
       </c>
       <c r="U77" t="s">
-        <v>202</v>
+        <v>564</v>
       </c>
     </row>
     <row r="78">
@@ -6728,7 +7882,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79">
@@ -6736,7 +7890,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80">
@@ -6744,7 +7898,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81">
@@ -6752,7 +7906,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82">
@@ -6760,7 +7914,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>503</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83">
@@ -6768,7 +7922,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="84">
@@ -6776,7 +7930,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>205</v>
+        <v>510</v>
       </c>
     </row>
     <row r="85">
@@ -6784,7 +7938,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86">
@@ -6792,7 +7946,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87">
@@ -6800,7 +7954,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88">
@@ -6808,7 +7962,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89">
@@ -6816,7 +7970,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90">
@@ -6824,7 +7978,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91">
@@ -6832,7 +7986,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>444</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92">
@@ -6840,116 +7994,121 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>151</v>
+        <v>444</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>517</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>164</v>
+        <v>517</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4032" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4496" uniqueCount="566">
   <si>
     <t>description</t>
   </si>
@@ -1786,13 +1786,16 @@
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="117" x14ac:knownFonts="1">
+  <fonts count="132" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2533,8 +2536,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3624,8 +3721,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5637,6 +5887,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5644,7 +6176,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="160">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6055,49 +6587,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="104" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="105" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="107" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="180" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="183" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6482,7 +7059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7818,7 +8395,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>144</v>
+        <v>565</v>
       </c>
     </row>
     <row r="71">
@@ -7826,7 +8403,7 @@
         <v>484</v>
       </c>
       <c r="U71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72">
@@ -7834,7 +8411,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73">
@@ -7842,7 +8419,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74">
@@ -7850,7 +8427,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75">
@@ -7858,7 +8435,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76">
@@ -7866,7 +8443,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77">
@@ -7874,7 +8451,7 @@
         <v>490</v>
       </c>
       <c r="U77" t="s">
-        <v>564</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78">
@@ -7882,7 +8459,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>202</v>
+        <v>564</v>
       </c>
     </row>
     <row r="79">
@@ -7890,7 +8467,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80">
@@ -7898,7 +8475,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81">
@@ -7906,7 +8483,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82">
@@ -7914,7 +8491,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83">
@@ -7922,7 +8499,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>503</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84">
@@ -7930,7 +8507,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="85">
@@ -7938,7 +8515,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>205</v>
+        <v>510</v>
       </c>
     </row>
     <row r="86">
@@ -7946,7 +8523,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87">
@@ -7954,7 +8531,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88">
@@ -7962,7 +8539,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89">
@@ -7970,7 +8547,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90">
@@ -7978,7 +8555,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91">
@@ -7986,7 +8563,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92">
@@ -7994,121 +8571,126 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>444</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>151</v>
+        <v>444</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>517</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>164</v>
+        <v>517</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -25,7 +25,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4496" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4961" uniqueCount="567">
   <si>
     <t>description</t>
   </si>
@@ -1789,13 +1789,16 @@
   <si>
     <t>openHttpBasic(url,username,password)</t>
   </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="132" x14ac:knownFonts="1">
+  <fonts count="147" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2630,8 +2633,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3874,8 +3971,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -6169,6 +6419,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6176,7 +6708,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="175">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6632,49 +7164,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="119" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="120" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="122" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7392,7 +7969,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="H5" t="s">
         <v>358</v>
@@ -7454,7 +8031,7 @@
         <v>449</v>
       </c>
       <c r="F6" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -7510,7 +8087,7 @@
         <v>376</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>557</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -7566,7 +8143,7 @@
         <v>377</v>
       </c>
       <c r="F8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -7619,7 +8196,7 @@
         <v>307</v>
       </c>
       <c r="F9" t="s">
-        <v>562</v>
+        <v>330</v>
       </c>
       <c r="I9" t="s">
         <v>451</v>
@@ -7660,7 +8237,7 @@
         <v>362</v>
       </c>
       <c r="F10" t="s">
-        <v>323</v>
+        <v>562</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -7698,7 +8275,7 @@
         <v>275</v>
       </c>
       <c r="F11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I11" t="s">
         <v>42</v>
@@ -7733,7 +8310,7 @@
         <v>264</v>
       </c>
       <c r="F12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I12" t="s">
         <v>82</v>
@@ -7765,7 +8342,7 @@
         <v>317</v>
       </c>
       <c r="F13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I13" t="s">
         <v>83</v>
@@ -7795,6 +8372,9 @@
       </c>
       <c r="E14" t="s">
         <v>265</v>
+      </c>
+      <c r="F14" t="s">
+        <v>326</v>
       </c>
       <c r="I14" t="s">
         <v>84</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4961" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5427" uniqueCount="568">
   <si>
     <t>description</t>
   </si>
@@ -1792,13 +1792,16 @@
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
+  <si>
+    <t>rename(target,newName)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="147" x14ac:knownFonts="1">
+  <fonts count="162" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2727,8 +2730,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4124,8 +4221,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -6701,6 +6951,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6708,7 +7240,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="190">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7209,49 +7741,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="134" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="135" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="137" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="234" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="237" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8377,7 +8954,7 @@
         <v>326</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>567</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
@@ -8406,7 +8983,7 @@
         <v>266</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M15" t="s">
         <v>97</v>
@@ -8432,7 +9009,7 @@
         <v>318</v>
       </c>
       <c r="I16" t="s">
-        <v>441</v>
+        <v>85</v>
       </c>
       <c r="N16" t="s">
         <v>253</v>
@@ -8455,7 +9032,7 @@
         <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>441</v>
       </c>
       <c r="U17" t="s">
         <v>106</v>
@@ -8472,7 +9049,7 @@
         <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>453</v>
+        <v>44</v>
       </c>
       <c r="U18" t="s">
         <v>107</v>
@@ -8489,7 +9066,7 @@
         <v>297</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>453</v>
       </c>
       <c r="U19" t="s">
         <v>108</v>
@@ -8506,7 +9083,7 @@
         <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>513</v>
+        <v>86</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -8523,7 +9100,7 @@
         <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>513</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -8540,7 +9117,7 @@
         <v>300</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s">
         <v>111</v>
@@ -8555,6 +9132,9 @@
       </c>
       <c r="E23" t="s">
         <v>291</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
       </c>
       <c r="U23" t="s">
         <v>112</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F8A7AA-C4F2-9D43-BFC8-253D3E70EDCF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C209AD8-172E-4946-93D9-48E8EDFA4884}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10960" windowWidth="41920" windowHeight="21040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="592">
   <si>
     <t>description</t>
   </si>
@@ -1842,6 +1842,40 @@
   </si>
   <si>
     <t>[]</t>
+  </si>
+  <si>
+    <t>Asset Object Array</t>
+  </si>
+  <si>
+    <t>$(syspath|data|fullpath)/unitTest_json_doc3.json</t>
+  </si>
+  <si>
+    <t>jobParameters</t>
+  </si>
+  <si>
+    <t>response.jobParameters</t>
+  </si>
+  <si>
+    <t>val1</t>
+  </si>
+  <si>
+    <t>${val1}</t>
+  </si>
+  <si>
+    <t>${jobParameters}</t>
+  </si>
+  <si>
+    <t>[JSON(${jobParameters}) =&gt; pack text]</t>
+  </si>
+  <si>
+    <t>[JSON(${val1}) =&gt; pack text]</t>
+  </si>
+  <si>
+    <t>[{
+      "parameterName": "summaryId",
+      "parameterValue": "123456",
+      "parameterType": "QUERY"
+    }]</t>
   </si>
 </sst>
 </file>
@@ -4208,10 +4242,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O1000"/>
+  <dimension ref="A1:O998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5039,12 +5073,22 @@
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
+      <c r="A31" s="27" t="s">
+        <v>582</v>
+      </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="C31" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>583</v>
+      </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -5055,13 +5099,21 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="C32" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>591</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -5075,11 +5127,21 @@
     <row r="33" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="C33" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>586</v>
+      </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="22"/>
@@ -5092,10 +5154,18 @@
     <row r="34" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="C34" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>590</v>
+      </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -5109,10 +5179,18 @@
     <row r="35" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="C35" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>587</v>
+      </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -5126,12 +5204,24 @@
     <row r="36" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="C36" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>384</v>
+      </c>
       <c r="I36" s="7"/>
       <c r="J36" s="22"/>
       <c r="K36" s="3"/>
@@ -5514,7 +5604,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -5531,7 +5621,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -15510,40 +15600,8 @@
       <c r="N646" s="15"/>
       <c r="O646" s="3"/>
     </row>
-    <row r="647" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A647" s="27"/>
-      <c r="B647" s="5"/>
-      <c r="C647" s="13"/>
-      <c r="D647" s="7"/>
-      <c r="E647" s="7"/>
-      <c r="F647" s="7"/>
-      <c r="G647" s="7"/>
-      <c r="H647" s="7"/>
-      <c r="I647" s="7"/>
-      <c r="J647" s="22"/>
-      <c r="K647" s="3"/>
-      <c r="L647" s="15"/>
-      <c r="M647" s="12"/>
-      <c r="N647" s="15"/>
-      <c r="O647" s="3"/>
-    </row>
-    <row r="648" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A648" s="27"/>
-      <c r="B648" s="5"/>
-      <c r="C648" s="13"/>
-      <c r="D648" s="7"/>
-      <c r="E648" s="7"/>
-      <c r="F648" s="7"/>
-      <c r="G648" s="7"/>
-      <c r="H648" s="7"/>
-      <c r="I648" s="7"/>
-      <c r="J648" s="22"/>
-      <c r="K648" s="3"/>
-      <c r="L648" s="15"/>
-      <c r="M648" s="12"/>
-      <c r="N648" s="15"/>
-      <c r="O648" s="3"/>
-    </row>
+    <row r="647" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="649" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="650" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="651" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15894,8 +15952,6 @@
     <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -15916,10 +15972,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D698" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D696" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C700" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C698" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{9C209AD8-172E-4946-93D9-48E8EDFA4884}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="21040" windowWidth="41920" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="10960" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21040" windowWidth="41920" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="10960"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="593">
   <si>
     <t>description</t>
   </si>
@@ -1886,7 +1886,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2063,8 +2063,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2236,8 +2330,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -2557,6 +2804,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2564,7 +3093,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="71">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2709,49 +3238,94 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="15" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="17" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="45" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="48" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3168,7 +3742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA117"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -16571,7 +17145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E030708B-B33F-D549-9D55-0B334D80E114}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -28226,7 +28800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FBB10A-8429-A74F-BF32-B3F37BB88777}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -39885,7 +40459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060D7543-C6E1-B948-BFC2-C5232B033220}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -21,36 +21,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="598">
   <si>
     <t>description</t>
   </si>
@@ -1880,13 +1881,28 @@
   <si>
     <t>deselect(locator,text)</t>
   </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2157,8 +2173,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2483,8 +2600,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -3086,6 +3356,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3093,7 +3645,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="87">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3283,49 +3835,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="32" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="45" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="48" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="69" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="75" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="78" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3740,7 +4340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -3759,75 +4359,78 @@
         <v>432</v>
       </c>
       <c r="C1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>357</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>334</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>197</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>240</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>461</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>485</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>486</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>367</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>457</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>55</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>56</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>57</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>487</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3839,1556 +4442,1571 @@
         <v>433</v>
       </c>
       <c r="C2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>559</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>80</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>359</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>316</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>445</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>491</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>492</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>493</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>254</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>218</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>462</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>497</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>498</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>442</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>458</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>98</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>172</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>177</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>184</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>504</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>593</v>
       </c>
       <c r="B3" t="s">
         <v>434</v>
       </c>
       <c r="C3" t="s">
+        <v>595</v>
+      </c>
+      <c r="D3" t="s">
         <v>574</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>375</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>89</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>50</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>360</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>342</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>335</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>494</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>241</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>219</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>463</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>499</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>443</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>459</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>99</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>173</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>178</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>374</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>185</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>435</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>448</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>560</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>361</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>239</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>336</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>242</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>220</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>464</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>500</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>368</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>460</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>364</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>174</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>179</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>185</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>505</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>436</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>575</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>512</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>337</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>564</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>358</v>
       </c>
-      <c r="I5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>596</v>
+      </c>
+      <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>30</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>243</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>221</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>465</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>501</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>369</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>365</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>175</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>180</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>186</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>506</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>437</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>449</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>557</v>
       </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>244</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>452</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>466</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>371</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>100</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>518</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>181</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>187</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>507</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>438</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>225</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>376</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>556</v>
       </c>
-      <c r="I7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
         <v>316</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>33</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>245</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>496</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>467</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>370</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>101</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>519</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>182</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>188</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>508</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>357</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>439</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>319</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>377</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>329</v>
       </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>92</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>246</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>468</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>372</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>102</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>176</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>183</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>189</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>509</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>357</v>
       </c>
       <c r="B9" t="s">
         <v>440</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>307</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>330</v>
       </c>
-      <c r="I9" t="s">
-        <v>451</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>93</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>247</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>469</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>373</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>210</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>190</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>316</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>362</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>561</v>
       </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
+        <v>451</v>
+      </c>
+      <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>495</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>248</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>470</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>258</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>191</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" t="s">
         <v>256</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>275</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>323</v>
       </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
         <v>514</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>94</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>249</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>259</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>260</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>320</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>264</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>324</v>
       </c>
-      <c r="I12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
         <v>39</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>250</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>103</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" t="s">
         <v>342</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>317</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>325</v>
       </c>
-      <c r="I13" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" t="s">
         <v>40</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>95</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>255</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>327</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>265</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>326</v>
       </c>
-      <c r="I14" t="s">
-        <v>565</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" t="s">
         <v>43</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>96</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>251</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>104</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>266</v>
       </c>
-      <c r="I15" t="s">
-        <v>84</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="J15" t="s">
+        <v>565</v>
+      </c>
+      <c r="N15" t="s">
         <v>97</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>252</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>105</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>461</v>
-      </c>
-      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
         <v>446</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>318</v>
       </c>
-      <c r="I16" t="s">
-        <v>85</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" t="s">
         <v>253</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>76</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>485</v>
-      </c>
-      <c r="C17" t="s">
+        <v>461</v>
+      </c>
+      <c r="D17" t="s">
         <v>447</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>90</v>
       </c>
-      <c r="I17" t="s">
-        <v>441</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="J17" t="s">
+        <v>85</v>
+      </c>
+      <c r="V17" t="s">
         <v>106</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>486</v>
-      </c>
-      <c r="C18" t="s">
+        <v>485</v>
+      </c>
+      <c r="D18" t="s">
         <v>488</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>91</v>
       </c>
-      <c r="I18" t="s">
-        <v>44</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="J18" t="s">
+        <v>441</v>
+      </c>
+      <c r="V18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>367</v>
-      </c>
-      <c r="C19" t="s">
+        <v>486</v>
+      </c>
+      <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>297</v>
       </c>
-      <c r="I19" t="s">
-        <v>453</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="V19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>457</v>
-      </c>
-      <c r="C20" t="s">
+        <v>367</v>
+      </c>
+      <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>298</v>
       </c>
-      <c r="I20" t="s">
-        <v>86</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="J20" t="s">
+        <v>453</v>
+      </c>
+      <c r="V20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
+        <v>457</v>
+      </c>
+      <c r="D21" t="s">
         <v>257</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>299</v>
       </c>
-      <c r="I21" t="s">
-        <v>513</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="J21" t="s">
+        <v>86</v>
+      </c>
+      <c r="V21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
         <v>63</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>300</v>
       </c>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="J22" t="s">
+        <v>513</v>
+      </c>
+      <c r="V22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
         <v>322</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>291</v>
       </c>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>280</v>
       </c>
-      <c r="U24" t="s">
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="V24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>487</v>
-      </c>
-      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
         <v>558</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>77</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>487</v>
+      </c>
+      <c r="D26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" t="s">
+        <v>283</v>
+      </c>
+      <c r="V26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>228</v>
       </c>
-      <c r="C26" t="s">
-        <v>226</v>
-      </c>
-      <c r="E26" t="s">
-        <v>283</v>
-      </c>
-      <c r="U26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>227</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>267</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>489</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>65</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>285</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>66</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>217</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>67</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>276</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>68</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>69</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>261</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>70</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>71</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>308</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>72</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>309</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>213</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>290</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>302</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>344</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>343</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>321</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>378</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>303</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>366</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="52">
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>332</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="53">
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>269</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>293</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="55">
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>294</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="56">
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>295</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="57">
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>304</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="58">
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>313</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="59">
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>338</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="60">
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>310</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="61">
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>311</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="62">
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>379</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="63">
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>380</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="64">
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>346</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="65">
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>314</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="66">
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>270</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="67">
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>363</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="68">
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>315</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="69">
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>483</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="70">
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>305</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="71">
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>484</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="72">
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>263</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="73">
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>345</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="74">
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>281</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="75">
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>287</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="76">
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>292</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="77">
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>490</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="78">
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>333</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="79">
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>271</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="80">
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>282</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="81">
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>288</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>277</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="83">
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>272</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="84">
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>289</v>
       </c>
-      <c r="U84" t="s">
+      <c r="V84" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="85">
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>273</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="86">
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>274</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="87">
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>306</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="88">
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>312</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="89">
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>296</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="90">
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>341</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>278</v>
       </c>
-      <c r="U91" t="s">
+      <c r="V91" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="92">
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>279</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="93">
-      <c r="U93" t="s">
+      <c r="V93" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="94">
-      <c r="U94" t="s">
+      <c r="V94" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="95">
-      <c r="U95" t="s">
+      <c r="V95" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="96">
-      <c r="U96" t="s">
+      <c r="V96" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="97">
-      <c r="U97" t="s">
+      <c r="V97" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="98">
-      <c r="U98" t="s">
+      <c r="V98" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="99">
-      <c r="U99" t="s">
+      <c r="V99" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="100">
-      <c r="U100" t="s">
+      <c r="V100" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="101">
-      <c r="U101" t="s">
+      <c r="V101" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="102">
-      <c r="U102" t="s">
+      <c r="V102" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="103">
-      <c r="U103" t="s">
+      <c r="V103" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="104">
-      <c r="U104" t="s">
+      <c r="V104" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="105">
-      <c r="U105" t="s">
+      <c r="V105" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="106">
-      <c r="U106" t="s">
+      <c r="V106" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="107">
-      <c r="U107" t="s">
+      <c r="V107" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="108">
-      <c r="U108" t="s">
+      <c r="V108" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="109">
-      <c r="U109" t="s">
+      <c r="V109" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="110">
-      <c r="U110" t="s">
+      <c r="V110" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="111">
-      <c r="U111" t="s">
+      <c r="V111" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="112">
-      <c r="U112" t="s">
+      <c r="V112" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="113">
-      <c r="U113" t="s">
+      <c r="V113" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="114">
-      <c r="U114" t="s">
+      <c r="V114" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="115">
-      <c r="U115" t="s">
+      <c r="V115" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="116">
-      <c r="U116" t="s">
+      <c r="V116" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="117">
-      <c r="U117" t="s">
+      <c r="V117" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="600">
   <si>
     <t>description</t>
   </si>
@@ -1896,13 +1896,19 @@
   <si>
     <t>upload(url,body,fileParams,var)</t>
   </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="74" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2274,8 +2280,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2753,8 +2860,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -3638,6 +3898,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3645,7 +4187,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="103">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3880,52 +4422,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="44" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="69" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="69" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="48" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="75" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="75" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="78" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="78" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="96" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="102" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="105" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4340,7 +4930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4442,7 +5032,7 @@
         <v>433</v>
       </c>
       <c r="C2" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
@@ -5554,7 +6144,7 @@
         <v>366</v>
       </c>
       <c r="V51" t="s">
-        <v>132</v>
+        <v>599</v>
       </c>
     </row>
     <row r="52">
@@ -5562,7 +6152,7 @@
         <v>332</v>
       </c>
       <c r="V52" t="s">
-        <v>356</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53">
@@ -5570,7 +6160,7 @@
         <v>269</v>
       </c>
       <c r="V53" t="s">
-        <v>592</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54">
@@ -5578,7 +6168,7 @@
         <v>293</v>
       </c>
       <c r="V54" t="s">
-        <v>133</v>
+        <v>592</v>
       </c>
     </row>
     <row r="55">
@@ -5586,7 +6176,7 @@
         <v>294</v>
       </c>
       <c r="V55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56">
@@ -5594,7 +6184,7 @@
         <v>295</v>
       </c>
       <c r="V56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57">
@@ -5602,7 +6192,7 @@
         <v>304</v>
       </c>
       <c r="V57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58">
@@ -5610,7 +6200,7 @@
         <v>313</v>
       </c>
       <c r="V58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59">
@@ -5618,7 +6208,7 @@
         <v>338</v>
       </c>
       <c r="V59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60">
@@ -5626,7 +6216,7 @@
         <v>310</v>
       </c>
       <c r="V60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61">
@@ -5634,7 +6224,7 @@
         <v>311</v>
       </c>
       <c r="V61" t="s">
-        <v>511</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62">
@@ -5642,7 +6232,7 @@
         <v>379</v>
       </c>
       <c r="V62" t="s">
-        <v>215</v>
+        <v>511</v>
       </c>
     </row>
     <row r="63">
@@ -5650,7 +6240,7 @@
         <v>380</v>
       </c>
       <c r="V63" t="s">
-        <v>450</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64">
@@ -5658,7 +6248,7 @@
         <v>346</v>
       </c>
       <c r="V64" t="s">
-        <v>516</v>
+        <v>450</v>
       </c>
     </row>
     <row r="65">
@@ -5666,7 +6256,7 @@
         <v>314</v>
       </c>
       <c r="V65" t="s">
-        <v>140</v>
+        <v>516</v>
       </c>
     </row>
     <row r="66">
@@ -5674,7 +6264,7 @@
         <v>270</v>
       </c>
       <c r="V66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67">
@@ -5682,7 +6272,7 @@
         <v>363</v>
       </c>
       <c r="V67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68">
@@ -5690,7 +6280,7 @@
         <v>315</v>
       </c>
       <c r="V68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69">
@@ -5698,7 +6288,7 @@
         <v>483</v>
       </c>
       <c r="V69" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70">
@@ -5706,7 +6296,7 @@
         <v>305</v>
       </c>
       <c r="V70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71">
@@ -5714,7 +6304,7 @@
         <v>484</v>
       </c>
       <c r="V71" t="s">
-        <v>563</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72">
@@ -5722,7 +6312,7 @@
         <v>263</v>
       </c>
       <c r="V72" t="s">
-        <v>144</v>
+        <v>563</v>
       </c>
     </row>
     <row r="73">
@@ -5730,7 +6320,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74">
@@ -5738,7 +6328,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75">
@@ -5746,7 +6336,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76">
@@ -5754,7 +6344,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77">
@@ -5762,7 +6352,7 @@
         <v>490</v>
       </c>
       <c r="V77" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78">
@@ -5770,7 +6360,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79">
@@ -5778,7 +6368,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>562</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80">
@@ -5786,7 +6376,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>202</v>
+        <v>562</v>
       </c>
     </row>
     <row r="81">
@@ -5794,7 +6384,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82">
@@ -5802,7 +6392,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83">
@@ -5810,7 +6400,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84">
@@ -5818,7 +6408,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85">
@@ -5826,7 +6416,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>503</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86">
@@ -5834,7 +6424,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="87">
@@ -5842,7 +6432,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>205</v>
+        <v>510</v>
       </c>
     </row>
     <row r="88">
@@ -5850,7 +6440,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89">
@@ -5858,7 +6448,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90">
@@ -5866,7 +6456,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91">
@@ -5874,7 +6464,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92">
@@ -5882,131 +6472,136 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>444</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>151</v>
+        <v>444</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>517</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>164</v>
+        <v>517</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="V118" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -28,7 +28,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4242" uniqueCount="603">
   <si>
     <t>description</t>
   </si>
@@ -1902,13 +1902,22 @@
   <si>
     <t>clickWithKeys(locator,keys)</t>
   </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>saveDiff(baseline,actual,saveTo)</t>
+  </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="74" x14ac:knownFonts="1">
+  <fonts count="122" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2381,8 +2390,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3013,8 +3325,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -4180,6 +4951,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4187,7 +5804,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="151">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4470,52 +6087,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="60" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="96" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="96" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="64" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="102" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="102" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="105" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="105" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="76" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="77" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="123" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="80" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="129" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="132" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="92" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="93" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="150" fontId="94" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="95" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="96" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="156" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="159" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="177" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5050,7 +6811,7 @@
         <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>359</v>
+        <v>602</v>
       </c>
       <c r="J2" t="s">
         <v>316</v>
@@ -5133,7 +6894,7 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J3" t="s">
         <v>342</v>
@@ -5204,7 +6965,7 @@
         <v>560</v>
       </c>
       <c r="I4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J4" t="s">
         <v>239</v>
@@ -5275,7 +7036,7 @@
         <v>564</v>
       </c>
       <c r="I5" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="J5" t="s">
         <v>596</v>
@@ -5335,6 +7096,9 @@
       </c>
       <c r="G6" t="s">
         <v>557</v>
+      </c>
+      <c r="I6" t="s">
+        <v>358</v>
       </c>
       <c r="J6" t="s">
         <v>73</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -29,7 +29,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4242" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5681" uniqueCount="607">
   <si>
     <t>description</t>
   </si>
@@ -1911,13 +1911,25 @@
   <si>
     <t>colorbit(source,bit,saveTo)</t>
   </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="122" x14ac:knownFonts="1">
+  <fonts count="170" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2693,8 +2705,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3784,8 +4099,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -5797,6 +6571,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5804,7 +7424,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="199">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6231,52 +7851,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="108" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="109" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="177" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="177" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="112" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="183" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="186" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="124" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="125" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="204" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="128" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="210" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="213" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="140" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="141" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="231" fontId="142" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="143" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="144" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="237" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="240" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="258" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="264" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="267" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6691,7 +8455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7559,7 +9323,7 @@
         <v>297</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>606</v>
       </c>
       <c r="V19" t="s">
         <v>108</v>
@@ -7576,7 +9340,7 @@
         <v>298</v>
       </c>
       <c r="J20" t="s">
-        <v>453</v>
+        <v>44</v>
       </c>
       <c r="V20" t="s">
         <v>109</v>
@@ -7593,7 +9357,7 @@
         <v>299</v>
       </c>
       <c r="J21" t="s">
-        <v>86</v>
+        <v>453</v>
       </c>
       <c r="V21" t="s">
         <v>110</v>
@@ -7610,7 +9374,7 @@
         <v>300</v>
       </c>
       <c r="J22" t="s">
-        <v>513</v>
+        <v>86</v>
       </c>
       <c r="V22" t="s">
         <v>111</v>
@@ -7627,7 +9391,7 @@
         <v>291</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>513</v>
       </c>
       <c r="V23" t="s">
         <v>112</v>
@@ -7644,7 +9408,7 @@
         <v>280</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s">
         <v>113</v>
@@ -7660,6 +9424,9 @@
       <c r="F25" t="s">
         <v>77</v>
       </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
       <c r="V25" t="s">
         <v>114</v>
       </c>
@@ -7694,7 +9461,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>489</v>
+        <v>604</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
@@ -7705,7 +9472,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>65</v>
+        <v>605</v>
       </c>
       <c r="F29" t="s">
         <v>285</v>
@@ -7716,7 +9483,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>66</v>
+        <v>489</v>
       </c>
       <c r="F30" t="s">
         <v>217</v>
@@ -7727,7 +9494,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
         <v>276</v>
@@ -7738,7 +9505,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
         <v>286</v>
@@ -7749,7 +9516,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F33" t="s">
         <v>261</v>
@@ -7760,7 +9527,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
         <v>331</v>
@@ -7771,7 +9538,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
         <v>308</v>
@@ -7782,7 +9549,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
         <v>262</v>
@@ -7792,6 +9559,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
       <c r="F37" t="s">
         <v>309</v>
       </c>
@@ -7800,6 +9570,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
       <c r="F38" t="s">
         <v>268</v>
       </c>
@@ -8084,7 +9857,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>144</v>
+        <v>603</v>
       </c>
     </row>
     <row r="74">
@@ -8092,7 +9865,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75">
@@ -8100,7 +9873,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76">
@@ -8108,7 +9881,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77">
@@ -8116,7 +9889,7 @@
         <v>490</v>
       </c>
       <c r="V77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78">
@@ -8124,7 +9897,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79">
@@ -8132,7 +9905,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80">
@@ -8140,7 +9913,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>562</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81">
@@ -8148,7 +9921,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>202</v>
+        <v>562</v>
       </c>
     </row>
     <row r="82">
@@ -8156,7 +9929,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83">
@@ -8164,7 +9937,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84">
@@ -8172,7 +9945,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85">
@@ -8180,7 +9953,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86">
@@ -8188,7 +9961,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>503</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87">
@@ -8196,7 +9969,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="88">
@@ -8204,7 +9977,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>205</v>
+        <v>510</v>
       </c>
     </row>
     <row r="89">
@@ -8212,7 +9985,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90">
@@ -8220,7 +9993,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91">
@@ -8228,7 +10001,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92">
@@ -8236,136 +10009,141 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>444</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>151</v>
+        <v>444</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>517</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>164</v>
+        <v>517</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{EA0A62BA-D3B7-1E42-A08C-91183F45F70A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="21160" windowWidth="38400" xWindow="6280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-21160" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21160" windowWidth="38400" xWindow="6280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-21160"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="633">
   <si>
     <t>description</t>
   </si>
@@ -2015,7 +2015,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2199,8 +2199,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2372,8 +2473,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -2693,6 +2947,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2700,7 +3236,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="74">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2849,52 +3385,100 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="15" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="18" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="21" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="24" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="48" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="51" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3341,7 +3925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC122"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -16829,7 +17413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E030708B-B33F-D549-9D55-0B334D80E114}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -28484,7 +29068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FBB10A-8429-A74F-BF32-B3F37BB88777}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -40143,7 +40727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060D7543-C6E1-B948-BFC2-C5232B033220}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -51659,7 +52243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EEE9D7-76D6-8F49-9E37-A21CA95041B3}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -23,37 +23,38 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2989" uniqueCount="643">
   <si>
     <t>description</t>
   </si>
@@ -2009,13 +2010,43 @@
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
   </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="76" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2300,8 +2331,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2626,8 +2859,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -3229,6 +3768,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3236,7 +4339,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="106">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3433,52 +4536,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="31" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="42" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="34" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="48" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="48" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="51" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="51" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="46" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="47" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="69" fontId="48" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="50" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="75" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="78" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="96" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="102" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="105" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3923,7 +5122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -3945,78 +5144,81 @@
         <v>593</v>
       </c>
       <c r="D1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>357</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>334</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>624</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>197</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>240</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>461</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>485</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>486</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>367</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>457</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>487</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4031,79 +5233,82 @@
         <v>597</v>
       </c>
       <c r="D2" t="s">
+        <v>634</v>
+      </c>
+      <c r="E2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>559</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>80</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>599</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>316</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>445</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>491</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>627</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>492</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>493</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>254</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>218</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>462</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>497</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>498</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>442</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>458</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>98</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>172</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>177</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>184</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>504</v>
       </c>
-      <c r="AB2" t="s">
-        <v>229</v>
+      <c r="AC2" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="3">
@@ -4117,1546 +5322,1573 @@
         <v>594</v>
       </c>
       <c r="D3" t="s">
+        <v>635</v>
+      </c>
+      <c r="E3" t="s">
         <v>574</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>375</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>89</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>625</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>359</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>342</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>335</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>628</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>494</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>241</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>219</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>463</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>499</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>443</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>459</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>99</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>173</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>178</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>374</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>185</v>
       </c>
-      <c r="AB3" t="s">
-        <v>230</v>
+      <c r="AC3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>633</v>
       </c>
       <c r="B4" t="s">
         <v>435</v>
       </c>
       <c r="D4" t="s">
+        <v>636</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>74</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>448</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>560</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>626</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>360</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>239</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>336</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>629</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>242</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>220</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>464</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>500</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>368</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>460</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>364</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>174</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>179</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>185</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>505</v>
       </c>
-      <c r="AB4" t="s">
-        <v>231</v>
+      <c r="AC4" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>436</v>
       </c>
       <c r="D5" t="s">
+        <v>637</v>
+      </c>
+      <c r="E5" t="s">
         <v>575</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>512</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>337</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>564</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>361</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>595</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>243</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>221</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>465</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>501</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>369</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>365</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>175</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>180</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>186</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>506</v>
       </c>
-      <c r="AB5" t="s">
-        <v>232</v>
+      <c r="AC5" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>437</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>449</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>557</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>358</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>73</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>244</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>452</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>466</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>371</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>100</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>518</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>187</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>507</v>
       </c>
-      <c r="AB6" t="s">
-        <v>233</v>
+      <c r="AC6" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>438</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>225</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>376</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>556</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>316</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>245</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>496</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>467</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>370</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>101</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>519</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>182</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>188</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>508</v>
       </c>
-      <c r="AB7" t="s">
-        <v>234</v>
+      <c r="AC7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>439</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>319</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>377</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>329</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>81</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>92</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>246</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>468</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>372</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>102</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>176</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>183</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>189</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>509</v>
       </c>
-      <c r="AB8" t="s">
-        <v>235</v>
+      <c r="AC8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>357</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>440</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>307</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>330</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>93</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>247</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>469</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>373</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>210</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>190</v>
       </c>
-      <c r="AB9" t="s">
-        <v>622</v>
+      <c r="AC9" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E10" t="s">
         <v>316</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>362</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>561</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>451</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>495</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>248</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>470</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>258</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>191</v>
       </c>
-      <c r="AB10" t="s">
-        <v>623</v>
+      <c r="AC10" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>334</v>
-      </c>
-      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>256</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>275</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>323</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>604</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>94</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>249</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>259</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>260</v>
       </c>
-      <c r="AB11" t="s">
-        <v>236</v>
+      <c r="AC11" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" t="s">
         <v>320</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>264</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>324</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>42</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>514</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>41</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>250</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>103</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>192</v>
       </c>
-      <c r="AB12" t="s">
-        <v>237</v>
+      <c r="AC12" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>624</v>
-      </c>
-      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>342</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>317</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>325</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>82</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>605</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>95</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>255</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>327</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>193</v>
       </c>
-      <c r="AB13" t="s">
-        <v>238</v>
+      <c r="AC13" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" t="s">
+        <v>624</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>265</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>326</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>83</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>96</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>251</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>104</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>194</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" t="s">
         <v>60</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>266</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>565</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>97</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>252</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>105</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>195</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
         <v>446</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>318</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>84</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>253</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>76</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>196</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" t="s">
         <v>447</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>90</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>85</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>106</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>596</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>461</v>
-      </c>
-      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
         <v>488</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>91</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>441</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>107</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>485</v>
-      </c>
-      <c r="D19" t="s">
+        <v>461</v>
+      </c>
+      <c r="E19" t="s">
         <v>61</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>297</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>603</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>486</v>
-      </c>
-      <c r="D20" t="s">
+        <v>485</v>
+      </c>
+      <c r="E20" t="s">
         <v>62</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>298</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>44</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>367</v>
-      </c>
-      <c r="D21" t="s">
+        <v>486</v>
+      </c>
+      <c r="E21" t="s">
         <v>257</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>299</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>453</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>457</v>
-      </c>
-      <c r="D22" t="s">
+        <v>367</v>
+      </c>
+      <c r="E22" t="s">
         <v>63</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>300</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>86</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
+        <v>457</v>
+      </c>
+      <c r="E23" t="s">
         <v>322</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>291</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>513</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
         <v>64</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>280</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>45</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
         <v>558</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>77</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>46</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
         <v>226</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>283</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>487</v>
-      </c>
-      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
         <v>227</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>267</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>487</v>
+      </c>
+      <c r="E28" t="s">
+        <v>601</v>
+      </c>
+      <c r="G28" t="s">
+        <v>284</v>
+      </c>
+      <c r="X28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>228</v>
       </c>
-      <c r="D28" t="s">
-        <v>601</v>
-      </c>
-      <c r="F28" t="s">
-        <v>284</v>
-      </c>
-      <c r="W28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>602</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>285</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>489</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>65</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>66</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>67</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>261</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>68</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>331</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>69</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>308</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>70</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>262</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>71</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>309</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>72</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>268</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>79</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>213</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>290</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>301</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>302</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>344</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>343</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>212</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>321</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>340</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>378</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>303</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>366</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>332</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>269</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>293</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>294</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>295</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>304</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>313</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>338</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>310</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>311</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>379</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>380</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>346</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>314</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>270</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>363</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>315</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>483</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>305</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>484</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>263</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>345</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>281</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>287</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>292</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>490</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>333</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>271</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>282</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>288</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>277</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>272</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>289</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>273</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>274</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>306</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>312</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>296</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>341</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>278</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>279</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -47,12 +47,12 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2989" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3498" uniqueCount="647">
   <si>
     <t>description</t>
   </si>
@@ -2040,13 +2040,25 @@
   <si>
     <t>replace(xml,xpath,content,var)</t>
   </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="76" x14ac:knownFonts="1">
+  <fonts count="92" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2533,8 +2545,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3165,8 +3278,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -4332,6 +4598,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4339,7 +4887,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="122">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4632,52 +5180,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="63" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="96" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="96" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="66" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="102" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="102" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="105" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="105" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="123" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="129" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="132" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5122,7 +5718,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5894,7 +6490,7 @@
         <v>193</v>
       </c>
       <c r="AC13" t="s">
-        <v>623</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14">
@@ -5929,7 +6525,7 @@
         <v>194</v>
       </c>
       <c r="AC14" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="15">
@@ -5961,7 +6557,7 @@
         <v>195</v>
       </c>
       <c r="AC15" t="s">
-        <v>642</v>
+        <v>623</v>
       </c>
     </row>
     <row r="16">
@@ -5990,7 +6586,7 @@
         <v>196</v>
       </c>
       <c r="AC16" t="s">
-        <v>236</v>
+        <v>641</v>
       </c>
     </row>
     <row r="17">
@@ -6013,7 +6609,7 @@
         <v>596</v>
       </c>
       <c r="AC17" t="s">
-        <v>237</v>
+        <v>642</v>
       </c>
     </row>
     <row r="18">
@@ -6033,7 +6629,7 @@
         <v>107</v>
       </c>
       <c r="AC18" t="s">
-        <v>238</v>
+        <v>646</v>
       </c>
     </row>
     <row r="19">
@@ -6052,6 +6648,9 @@
       <c r="X19" t="s">
         <v>108</v>
       </c>
+      <c r="AC19" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -6069,6 +6668,9 @@
       <c r="X20" t="s">
         <v>109</v>
       </c>
+      <c r="AC20" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -6086,6 +6688,9 @@
       <c r="X21" t="s">
         <v>630</v>
       </c>
+      <c r="AC21" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -6635,7 +7240,7 @@
         <v>271</v>
       </c>
       <c r="X79" t="s">
-        <v>147</v>
+        <v>643</v>
       </c>
     </row>
     <row r="80">
@@ -6643,7 +7248,7 @@
         <v>282</v>
       </c>
       <c r="X80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81">
@@ -6651,7 +7256,7 @@
         <v>288</v>
       </c>
       <c r="X81" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82">
@@ -6659,7 +7264,7 @@
         <v>277</v>
       </c>
       <c r="X82" t="s">
-        <v>632</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83">
@@ -6667,7 +7272,7 @@
         <v>272</v>
       </c>
       <c r="X83" t="s">
-        <v>201</v>
+        <v>632</v>
       </c>
     </row>
     <row r="84">
@@ -6675,7 +7280,7 @@
         <v>289</v>
       </c>
       <c r="X84" t="s">
-        <v>562</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85">
@@ -6683,7 +7288,7 @@
         <v>273</v>
       </c>
       <c r="X85" t="s">
-        <v>202</v>
+        <v>562</v>
       </c>
     </row>
     <row r="86">
@@ -6691,7 +7296,7 @@
         <v>274</v>
       </c>
       <c r="X86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87">
@@ -6699,7 +7304,7 @@
         <v>306</v>
       </c>
       <c r="X87" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88">
@@ -6707,7 +7312,7 @@
         <v>312</v>
       </c>
       <c r="X88" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89">
@@ -6715,7 +7320,7 @@
         <v>296</v>
       </c>
       <c r="X89" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90">
@@ -6723,7 +7328,7 @@
         <v>341</v>
       </c>
       <c r="X90" t="s">
-        <v>503</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91">
@@ -6731,7 +7336,7 @@
         <v>278</v>
       </c>
       <c r="X91" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="92">
@@ -6739,156 +7344,161 @@
         <v>279</v>
       </c>
       <c r="X92" t="s">
-        <v>205</v>
+        <v>510</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>444</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>151</v>
+        <v>444</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>517</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>164</v>
+        <v>517</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -38,7 +38,7 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
@@ -47,7 +47,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3498" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4519" uniqueCount="650">
   <si>
     <t>description</t>
   </si>
@@ -2052,13 +2052,22 @@
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
   </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="92" x14ac:knownFonts="1">
+  <fonts count="124" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2646,8 +2655,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3431,8 +3642,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -4880,6 +5397,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4887,7 +5968,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="154">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5228,52 +6309,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="79" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="123" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="123" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="82" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="129" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="129" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="132" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="132" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="94" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="95" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="150" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="98" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="156" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="159" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="177" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5718,7 +6895,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6545,7 +7722,7 @@
         <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>97</v>
+        <v>647</v>
       </c>
       <c r="Q15" t="s">
         <v>252</v>
@@ -6576,6 +7753,9 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
+      <c r="P16" t="s">
+        <v>648</v>
+      </c>
       <c r="Q16" t="s">
         <v>253</v>
       </c>
@@ -6603,7 +7783,7 @@
         <v>85</v>
       </c>
       <c r="X17" t="s">
-        <v>106</v>
+        <v>649</v>
       </c>
       <c r="AA17" t="s">
         <v>596</v>
@@ -6626,7 +7806,7 @@
         <v>441</v>
       </c>
       <c r="X18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC18" t="s">
         <v>646</v>
@@ -6646,7 +7826,7 @@
         <v>603</v>
       </c>
       <c r="X19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC19" t="s">
         <v>236</v>
@@ -6666,7 +7846,7 @@
         <v>44</v>
       </c>
       <c r="X20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC20" t="s">
         <v>237</v>
@@ -6686,7 +7866,7 @@
         <v>453</v>
       </c>
       <c r="X21" t="s">
-        <v>630</v>
+        <v>109</v>
       </c>
       <c r="AC21" t="s">
         <v>238</v>
@@ -6706,7 +7886,7 @@
         <v>86</v>
       </c>
       <c r="X22" t="s">
-        <v>111</v>
+        <v>630</v>
       </c>
     </row>
     <row r="23">
@@ -6723,7 +7903,7 @@
         <v>513</v>
       </c>
       <c r="X23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
@@ -6740,7 +7920,7 @@
         <v>45</v>
       </c>
       <c r="X24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
@@ -6757,7 +7937,7 @@
         <v>46</v>
       </c>
       <c r="X25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
@@ -6771,7 +7951,7 @@
         <v>283</v>
       </c>
       <c r="X26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -6785,7 +7965,7 @@
         <v>267</v>
       </c>
       <c r="X27" t="s">
-        <v>328</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
@@ -6799,7 +7979,7 @@
         <v>284</v>
       </c>
       <c r="X28" t="s">
-        <v>116</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29">
@@ -6813,7 +7993,7 @@
         <v>285</v>
       </c>
       <c r="X29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -6824,7 +8004,7 @@
         <v>217</v>
       </c>
       <c r="X30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -6835,7 +8015,7 @@
         <v>276</v>
       </c>
       <c r="X31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -6846,7 +8026,7 @@
         <v>286</v>
       </c>
       <c r="X32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -6857,7 +8037,7 @@
         <v>261</v>
       </c>
       <c r="X33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -6868,7 +8048,7 @@
         <v>331</v>
       </c>
       <c r="X34" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
@@ -6879,7 +8059,7 @@
         <v>308</v>
       </c>
       <c r="X35" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36">
@@ -6890,7 +8070,7 @@
         <v>262</v>
       </c>
       <c r="X36" t="s">
-        <v>339</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -6901,7 +8081,7 @@
         <v>309</v>
       </c>
       <c r="X37" t="s">
-        <v>502</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
@@ -6912,7 +8092,7 @@
         <v>268</v>
       </c>
       <c r="X38" t="s">
-        <v>454</v>
+        <v>502</v>
       </c>
     </row>
     <row r="39">
@@ -6920,7 +8100,7 @@
         <v>79</v>
       </c>
       <c r="X39" t="s">
-        <v>123</v>
+        <v>454</v>
       </c>
     </row>
     <row r="40">
@@ -6928,7 +8108,7 @@
         <v>213</v>
       </c>
       <c r="X40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
@@ -6936,7 +8116,7 @@
         <v>290</v>
       </c>
       <c r="X41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
@@ -6944,7 +8124,7 @@
         <v>301</v>
       </c>
       <c r="X42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
@@ -6952,7 +8132,7 @@
         <v>302</v>
       </c>
       <c r="X43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
@@ -6960,7 +8140,7 @@
         <v>344</v>
       </c>
       <c r="X44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
@@ -6968,7 +8148,7 @@
         <v>343</v>
       </c>
       <c r="X45" t="s">
-        <v>515</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
@@ -6976,7 +8156,7 @@
         <v>212</v>
       </c>
       <c r="X46" t="s">
-        <v>214</v>
+        <v>515</v>
       </c>
     </row>
     <row r="47">
@@ -6984,7 +8164,7 @@
         <v>321</v>
       </c>
       <c r="X47" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48">
@@ -6992,7 +8172,7 @@
         <v>340</v>
       </c>
       <c r="X48" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
@@ -7000,7 +8180,7 @@
         <v>378</v>
       </c>
       <c r="X49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50">
@@ -7008,7 +8188,7 @@
         <v>303</v>
       </c>
       <c r="X50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51">
@@ -7016,7 +8196,7 @@
         <v>366</v>
       </c>
       <c r="X51" t="s">
-        <v>631</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52">
@@ -7024,7 +8204,7 @@
         <v>332</v>
       </c>
       <c r="X52" t="s">
-        <v>598</v>
+        <v>631</v>
       </c>
     </row>
     <row r="53">
@@ -7032,7 +8212,7 @@
         <v>269</v>
       </c>
       <c r="X53" t="s">
-        <v>132</v>
+        <v>598</v>
       </c>
     </row>
     <row r="54">
@@ -7040,7 +8220,7 @@
         <v>293</v>
       </c>
       <c r="X54" t="s">
-        <v>356</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
@@ -7048,7 +8228,7 @@
         <v>294</v>
       </c>
       <c r="X55" t="s">
-        <v>592</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56">
@@ -7056,7 +8236,7 @@
         <v>295</v>
       </c>
       <c r="X56" t="s">
-        <v>133</v>
+        <v>592</v>
       </c>
     </row>
     <row r="57">
@@ -7064,7 +8244,7 @@
         <v>304</v>
       </c>
       <c r="X57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58">
@@ -7072,7 +8252,7 @@
         <v>313</v>
       </c>
       <c r="X58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59">
@@ -7080,7 +8260,7 @@
         <v>338</v>
       </c>
       <c r="X59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60">
@@ -7088,7 +8268,7 @@
         <v>310</v>
       </c>
       <c r="X60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61">
@@ -7096,7 +8276,7 @@
         <v>311</v>
       </c>
       <c r="X61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62">
@@ -7104,7 +8284,7 @@
         <v>379</v>
       </c>
       <c r="X62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63">
@@ -7112,7 +8292,7 @@
         <v>380</v>
       </c>
       <c r="X63" t="s">
-        <v>511</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
@@ -7120,7 +8300,7 @@
         <v>346</v>
       </c>
       <c r="X64" t="s">
-        <v>621</v>
+        <v>511</v>
       </c>
     </row>
     <row r="65">
@@ -7128,7 +8308,7 @@
         <v>314</v>
       </c>
       <c r="X65" t="s">
-        <v>215</v>
+        <v>621</v>
       </c>
     </row>
     <row r="66">
@@ -7136,7 +8316,7 @@
         <v>270</v>
       </c>
       <c r="X66" t="s">
-        <v>450</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67">
@@ -7144,7 +8324,7 @@
         <v>363</v>
       </c>
       <c r="X67" t="s">
-        <v>516</v>
+        <v>450</v>
       </c>
     </row>
     <row r="68">
@@ -7152,7 +8332,7 @@
         <v>315</v>
       </c>
       <c r="X68" t="s">
-        <v>140</v>
+        <v>516</v>
       </c>
     </row>
     <row r="69">
@@ -7160,7 +8340,7 @@
         <v>483</v>
       </c>
       <c r="X69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70">
@@ -7168,7 +8348,7 @@
         <v>305</v>
       </c>
       <c r="X70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71">
@@ -7176,7 +8356,7 @@
         <v>484</v>
       </c>
       <c r="X71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72">
@@ -7184,7 +8364,7 @@
         <v>263</v>
       </c>
       <c r="X72" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73">
@@ -7192,7 +8372,7 @@
         <v>345</v>
       </c>
       <c r="X73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74">
@@ -7200,7 +8380,7 @@
         <v>281</v>
       </c>
       <c r="X74" t="s">
-        <v>563</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75">
@@ -7208,7 +8388,7 @@
         <v>287</v>
       </c>
       <c r="X75" t="s">
-        <v>600</v>
+        <v>563</v>
       </c>
     </row>
     <row r="76">
@@ -7216,7 +8396,7 @@
         <v>292</v>
       </c>
       <c r="X76" t="s">
-        <v>144</v>
+        <v>600</v>
       </c>
     </row>
     <row r="77">
@@ -7224,7 +8404,7 @@
         <v>490</v>
       </c>
       <c r="X77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78">
@@ -7232,7 +8412,7 @@
         <v>333</v>
       </c>
       <c r="X78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79">
@@ -7240,7 +8420,7 @@
         <v>271</v>
       </c>
       <c r="X79" t="s">
-        <v>643</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80">
@@ -7248,7 +8428,7 @@
         <v>282</v>
       </c>
       <c r="X80" t="s">
-        <v>147</v>
+        <v>643</v>
       </c>
     </row>
     <row r="81">
@@ -7256,7 +8436,7 @@
         <v>288</v>
       </c>
       <c r="X81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82">
@@ -7264,7 +8444,7 @@
         <v>277</v>
       </c>
       <c r="X82" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83">
@@ -7272,7 +8452,7 @@
         <v>272</v>
       </c>
       <c r="X83" t="s">
-        <v>632</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84">
@@ -7280,7 +8460,7 @@
         <v>289</v>
       </c>
       <c r="X84" t="s">
-        <v>201</v>
+        <v>632</v>
       </c>
     </row>
     <row r="85">
@@ -7288,7 +8468,7 @@
         <v>273</v>
       </c>
       <c r="X85" t="s">
-        <v>562</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86">
@@ -7296,7 +8476,7 @@
         <v>274</v>
       </c>
       <c r="X86" t="s">
-        <v>202</v>
+        <v>562</v>
       </c>
     </row>
     <row r="87">
@@ -7304,7 +8484,7 @@
         <v>306</v>
       </c>
       <c r="X87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88">
@@ -7312,7 +8492,7 @@
         <v>312</v>
       </c>
       <c r="X88" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89">
@@ -7320,7 +8500,7 @@
         <v>296</v>
       </c>
       <c r="X89" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90">
@@ -7328,7 +8508,7 @@
         <v>341</v>
       </c>
       <c r="X90" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91">
@@ -7336,7 +8516,7 @@
         <v>278</v>
       </c>
       <c r="X91" t="s">
-        <v>503</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92">
@@ -7344,161 +8524,166 @@
         <v>279</v>
       </c>
       <c r="X92" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>205</v>
+        <v>510</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>444</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>151</v>
+        <v>444</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>517</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>164</v>
+        <v>517</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="X124" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -24,14 +24,14 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -47,7 +47,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4519" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5035" uniqueCount="655">
   <si>
     <t>description</t>
   </si>
@@ -2061,13 +2061,28 @@
   <si>
     <t>assertElementsPresent(prefix)</t>
   </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="124" x14ac:knownFonts="1">
+  <fonts count="140" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2857,8 +2872,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3948,8 +4064,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5961,6 +6230,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5968,7 +6519,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="170">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6405,52 +6956,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="111" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="177" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="177" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="114" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="183" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="186" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="204" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="210" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="213" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6895,7 +7494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7325,6 +7924,9 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
+      <c r="F6" t="s">
+        <v>650</v>
+      </c>
       <c r="G6" t="s">
         <v>449</v>
       </c>
@@ -7447,7 +8049,7 @@
         <v>329</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>651</v>
       </c>
       <c r="M8" t="s">
         <v>34</v>
@@ -7500,7 +8102,7 @@
         <v>330</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
@@ -7541,7 +8143,7 @@
         <v>561</v>
       </c>
       <c r="K10" t="s">
-        <v>451</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
         <v>36</v>
@@ -7579,7 +8181,7 @@
         <v>323</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>652</v>
       </c>
       <c r="M11" t="s">
         <v>604</v>
@@ -7614,7 +8216,7 @@
         <v>324</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>451</v>
       </c>
       <c r="M12" t="s">
         <v>514</v>
@@ -7649,7 +8251,7 @@
         <v>325</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
         <v>605</v>
@@ -7684,7 +8286,7 @@
         <v>326</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
         <v>39</v>
@@ -7716,7 +8318,7 @@
         <v>266</v>
       </c>
       <c r="K15" t="s">
-        <v>565</v>
+        <v>653</v>
       </c>
       <c r="M15" t="s">
         <v>40</v>
@@ -7748,7 +8350,7 @@
         <v>318</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M16" t="s">
         <v>43</v>
@@ -7780,7 +8382,7 @@
         <v>90</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X17" t="s">
         <v>649</v>
@@ -7803,7 +8405,7 @@
         <v>91</v>
       </c>
       <c r="K18" t="s">
-        <v>441</v>
+        <v>565</v>
       </c>
       <c r="X18" t="s">
         <v>106</v>
@@ -7823,7 +8425,7 @@
         <v>297</v>
       </c>
       <c r="K19" t="s">
-        <v>603</v>
+        <v>84</v>
       </c>
       <c r="X19" t="s">
         <v>107</v>
@@ -7843,7 +8445,7 @@
         <v>298</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="X20" t="s">
         <v>108</v>
@@ -7863,7 +8465,7 @@
         <v>299</v>
       </c>
       <c r="K21" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="X21" t="s">
         <v>109</v>
@@ -7883,7 +8485,7 @@
         <v>300</v>
       </c>
       <c r="K22" t="s">
-        <v>86</v>
+        <v>603</v>
       </c>
       <c r="X22" t="s">
         <v>630</v>
@@ -7900,7 +8502,7 @@
         <v>291</v>
       </c>
       <c r="K23" t="s">
-        <v>513</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s">
         <v>111</v>
@@ -7917,7 +8519,7 @@
         <v>280</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>453</v>
       </c>
       <c r="X24" t="s">
         <v>112</v>
@@ -7934,7 +8536,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="X25" t="s">
         <v>113</v>
@@ -7950,6 +8552,9 @@
       <c r="G26" t="s">
         <v>283</v>
       </c>
+      <c r="K26" t="s">
+        <v>513</v>
+      </c>
       <c r="X26" t="s">
         <v>114</v>
       </c>
@@ -7964,6 +8569,9 @@
       <c r="G27" t="s">
         <v>267</v>
       </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
       <c r="X27" t="s">
         <v>115</v>
       </c>
@@ -7978,6 +8586,9 @@
       <c r="G28" t="s">
         <v>284</v>
       </c>
+      <c r="K28" t="s">
+        <v>46</v>
+      </c>
       <c r="X28" t="s">
         <v>328</v>
       </c>
@@ -8564,126 +9175,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>150</v>
+        <v>654</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>444</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>151</v>
+        <v>444</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>517</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>164</v>
+        <v>517</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -27,7 +27,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5035" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5553" uniqueCount="657">
   <si>
     <t>description</t>
   </si>
@@ -2076,13 +2076,19 @@
   <si>
     <t>saveValues(var,locator)</t>
   </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="140" x14ac:knownFonts="1">
+  <fonts count="156" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2973,8 +2979,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4217,8 +4324,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -6512,6 +6772,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6519,7 +7061,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="186">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7004,52 +7546,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="126" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="127" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="204" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="204" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="130" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="210" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="210" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="213" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="213" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="231" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="237" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="240" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8645,7 +9235,7 @@
         <v>67</v>
       </c>
       <c r="G33" t="s">
-        <v>261</v>
+        <v>655</v>
       </c>
       <c r="X33" t="s">
         <v>120</v>
@@ -8656,7 +9246,7 @@
         <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="X34" t="s">
         <v>121</v>
@@ -8667,7 +9257,7 @@
         <v>69</v>
       </c>
       <c r="G35" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="X35" t="s">
         <v>211</v>
@@ -8678,7 +9268,7 @@
         <v>70</v>
       </c>
       <c r="G36" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="X36" t="s">
         <v>122</v>
@@ -8689,7 +9279,7 @@
         <v>71</v>
       </c>
       <c r="G37" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="X37" t="s">
         <v>339</v>
@@ -8700,7 +9290,7 @@
         <v>72</v>
       </c>
       <c r="G38" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="X38" t="s">
         <v>502</v>
@@ -8708,7 +9298,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="X39" t="s">
         <v>454</v>
@@ -8716,7 +9306,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s">
         <v>123</v>
@@ -8724,7 +9314,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="X41" t="s">
         <v>124</v>
@@ -8732,7 +9322,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="X42" t="s">
         <v>125</v>
@@ -8740,7 +9330,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X43" t="s">
         <v>126</v>
@@ -8748,7 +9338,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="X44" t="s">
         <v>127</v>
@@ -8756,7 +9346,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="X45" t="s">
         <v>128</v>
@@ -8764,7 +9354,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
       <c r="X46" t="s">
         <v>515</v>
@@ -8772,7 +9362,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="X47" t="s">
         <v>214</v>
@@ -8780,7 +9370,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="X48" t="s">
         <v>78</v>
@@ -8788,7 +9378,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="X49" t="s">
         <v>129</v>
@@ -8796,7 +9386,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>303</v>
+        <v>378</v>
       </c>
       <c r="X50" t="s">
         <v>130</v>
@@ -8804,7 +9394,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>366</v>
+        <v>303</v>
       </c>
       <c r="X51" t="s">
         <v>131</v>
@@ -8812,7 +9402,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="X52" t="s">
         <v>631</v>
@@ -8820,7 +9410,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="X53" t="s">
         <v>598</v>
@@ -8828,7 +9418,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="X54" t="s">
         <v>132</v>
@@ -8836,7 +9426,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X55" t="s">
         <v>356</v>
@@ -8844,7 +9434,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="X56" t="s">
         <v>592</v>
@@ -8852,7 +9442,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="X57" t="s">
         <v>133</v>
@@ -8860,7 +9450,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="X58" t="s">
         <v>134</v>
@@ -8868,7 +9458,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="X59" t="s">
         <v>135</v>
@@ -8876,7 +9466,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="X60" t="s">
         <v>136</v>
@@ -8884,7 +9474,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="X61" t="s">
         <v>137</v>
@@ -8892,7 +9482,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>379</v>
+        <v>311</v>
       </c>
       <c r="X62" t="s">
         <v>138</v>
@@ -8900,7 +9490,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="X63" t="s">
         <v>139</v>
@@ -8908,7 +9498,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="X64" t="s">
         <v>511</v>
@@ -8916,7 +9506,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="X65" t="s">
         <v>621</v>
@@ -8924,7 +9514,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="X66" t="s">
         <v>215</v>
@@ -8932,7 +9522,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
       <c r="X67" t="s">
         <v>450</v>
@@ -8940,7 +9530,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>315</v>
+        <v>363</v>
       </c>
       <c r="X68" t="s">
         <v>516</v>
@@ -8948,7 +9538,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>483</v>
+        <v>315</v>
       </c>
       <c r="X69" t="s">
         <v>140</v>
@@ -8956,7 +9546,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>305</v>
+        <v>483</v>
       </c>
       <c r="X70" t="s">
         <v>141</v>
@@ -8964,7 +9554,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>484</v>
+        <v>305</v>
       </c>
       <c r="X71" t="s">
         <v>142</v>
@@ -8972,7 +9562,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>263</v>
+        <v>484</v>
       </c>
       <c r="X72" t="s">
         <v>143</v>
@@ -8980,7 +9570,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>345</v>
+        <v>263</v>
       </c>
       <c r="X73" t="s">
         <v>198</v>
@@ -8988,7 +9578,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>281</v>
+        <v>656</v>
       </c>
       <c r="X74" t="s">
         <v>199</v>
@@ -8996,7 +9586,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="X75" t="s">
         <v>563</v>
@@ -9004,7 +9594,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="X76" t="s">
         <v>600</v>
@@ -9012,7 +9602,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>490</v>
+        <v>287</v>
       </c>
       <c r="X77" t="s">
         <v>144</v>
@@ -9020,7 +9610,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="X78" t="s">
         <v>145</v>
@@ -9028,7 +9618,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>271</v>
+        <v>490</v>
       </c>
       <c r="X79" t="s">
         <v>146</v>
@@ -9036,7 +9626,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="X80" t="s">
         <v>643</v>
@@ -9044,7 +9634,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="X81" t="s">
         <v>147</v>
@@ -9052,7 +9642,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="X82" t="s">
         <v>148</v>
@@ -9060,7 +9650,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="X83" t="s">
         <v>200</v>
@@ -9068,7 +9658,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="X84" t="s">
         <v>632</v>
@@ -9076,7 +9666,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X85" t="s">
         <v>201</v>
@@ -9084,7 +9674,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="X86" t="s">
         <v>562</v>
@@ -9092,7 +9682,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="X87" t="s">
         <v>202</v>
@@ -9100,7 +9690,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="X88" t="s">
         <v>203</v>
@@ -9108,7 +9698,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="X89" t="s">
         <v>216</v>
@@ -9116,7 +9706,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="X90" t="s">
         <v>149</v>
@@ -9124,7 +9714,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="X91" t="s">
         <v>204</v>
@@ -9132,18 +9722,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="X92" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>278</v>
+      </c>
       <c r="X93" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>279</v>
+      </c>
       <c r="X94" t="s">
         <v>205</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -47,7 +47,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5553" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6073" uniqueCount="659">
   <si>
     <t>description</t>
   </si>
@@ -2082,13 +2082,19 @@
   <si>
     <t>saveTextByLocator(var,locator)</t>
   </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="156" x14ac:knownFonts="1">
+  <fonts count="172" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3080,8 +3086,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="277">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4477,8 +4584,178 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -7054,6 +7331,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7061,7 +7620,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="202">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7594,52 +8153,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="142" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="143" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="231" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="231" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="146" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="237" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="237" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="240" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="240" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="258" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="264" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="267" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="276" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8084,7 +8691,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9776,126 +10383,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>150</v>
+        <v>657</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>444</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>151</v>
+        <v>658</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>152</v>
+        <v>444</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>517</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>165</v>
+        <v>517</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -34,27 +34,28 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6073" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6601" uniqueCount="666">
   <si>
     <t>description</t>
   </si>
@@ -2088,13 +2089,34 @@
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
   </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="172" x14ac:knownFonts="1">
+  <fonts count="188" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3187,8 +3209,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="277">
+  <fills count="307">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4754,8 +4877,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="311">
     <border>
       <left/>
       <right/>
@@ -7613,6 +7906,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7620,7 +8195,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="218">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8201,52 +8776,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="158" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="159" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="258" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="258" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="161" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="162" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="264" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="264" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="267" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="267" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="270" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="270" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="276" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="276" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="279" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="282" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="285" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="288" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="291" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="294" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="297" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="300" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="300" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="303" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="306" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8691,7 +9314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8743,51 +9366,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>659</v>
+      </c>
+      <c r="O1" t="s">
         <v>624</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>197</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>240</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>54</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>461</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>485</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>486</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>367</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>457</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>487</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -8832,51 +9458,54 @@
         <v>491</v>
       </c>
       <c r="N2" t="s">
+        <v>660</v>
+      </c>
+      <c r="O2" t="s">
         <v>627</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>492</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>493</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>254</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>218</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>462</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>497</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>498</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>442</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>458</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>98</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>172</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>177</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>184</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>504</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>638</v>
       </c>
     </row>
@@ -8921,45 +9550,48 @@
         <v>87</v>
       </c>
       <c r="N3" t="s">
+        <v>661</v>
+      </c>
+      <c r="O3" t="s">
         <v>628</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>494</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>241</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>219</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>463</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>499</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>443</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>459</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>99</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>173</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>178</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>374</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>185</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -9001,45 +9633,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>662</v>
+      </c>
+      <c r="O4" t="s">
         <v>629</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>242</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>220</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>464</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>500</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>368</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>460</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>364</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>174</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>179</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>185</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>505</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -9074,40 +9709,43 @@
       <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>243</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>221</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>465</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>501</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>369</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>365</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>175</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>180</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>186</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>506</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -9139,37 +9777,40 @@
       <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q6" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>244</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>452</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>466</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>371</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>100</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>518</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>181</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>187</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>507</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -9195,37 +9836,40 @@
       <c r="M7" t="s">
         <v>316</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>665</v>
+      </c>
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>245</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>496</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>467</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>370</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>101</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>519</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>182</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>188</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>508</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>233</v>
       </c>
     </row>
@@ -9251,34 +9895,34 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>92</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>246</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>468</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>372</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>102</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>176</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>183</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>189</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>509</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>234</v>
       </c>
     </row>
@@ -9304,25 +9948,25 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>93</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>247</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>469</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>373</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>210</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>190</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>235</v>
       </c>
     </row>
@@ -9345,22 +9989,22 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>495</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>248</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>470</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>258</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>191</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>622</v>
       </c>
     </row>
@@ -9383,19 +10027,19 @@
       <c r="M11" t="s">
         <v>604</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>94</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>249</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>259</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>260</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>639</v>
       </c>
     </row>
@@ -9418,19 +10062,19 @@
       <c r="M12" t="s">
         <v>514</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>250</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>103</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>192</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>640</v>
       </c>
     </row>
@@ -9453,25 +10097,25 @@
       <c r="M13" t="s">
         <v>605</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>95</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>255</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>327</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>193</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>624</v>
+        <v>659</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -9488,25 +10132,25 @@
       <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>96</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>251</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>104</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>194</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>624</v>
       </c>
       <c r="E15" t="s">
         <v>60</v>
@@ -9520,25 +10164,25 @@
       <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>647</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>252</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>105</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>195</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="E16" t="s">
         <v>446</v>
@@ -9552,25 +10196,25 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>648</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>253</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>76</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>196</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>447</v>
@@ -9581,19 +10225,19 @@
       <c r="K17" t="s">
         <v>83</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>649</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>596</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="E18" t="s">
         <v>488</v>
@@ -9604,16 +10248,16 @@
       <c r="K18" t="s">
         <v>565</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>106</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>461</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
         <v>61</v>
@@ -9624,16 +10268,16 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>107</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="E20" t="s">
         <v>62</v>
@@ -9644,16 +10288,16 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>108</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E21" t="s">
         <v>257</v>
@@ -9664,16 +10308,16 @@
       <c r="K21" t="s">
         <v>441</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>109</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>367</v>
+        <v>486</v>
       </c>
       <c r="E22" t="s">
         <v>63</v>
@@ -9684,13 +10328,13 @@
       <c r="K22" t="s">
         <v>603</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>457</v>
+        <v>367</v>
       </c>
       <c r="E23" t="s">
         <v>322</v>
@@ -9701,13 +10345,13 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>457</v>
       </c>
       <c r="E24" t="s">
         <v>64</v>
@@ -9718,13 +10362,13 @@
       <c r="K24" t="s">
         <v>453</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
         <v>558</v>
@@ -9735,13 +10379,13 @@
       <c r="K25" t="s">
         <v>86</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>226</v>
@@ -9752,13 +10396,13 @@
       <c r="K26" t="s">
         <v>513</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>227</v>
@@ -9769,13 +10413,13 @@
       <c r="K27" t="s">
         <v>45</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>487</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>601</v>
@@ -9786,13 +10430,13 @@
       <c r="K28" t="s">
         <v>46</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>228</v>
+        <v>487</v>
       </c>
       <c r="E29" t="s">
         <v>602</v>
@@ -9800,18 +10444,21 @@
       <c r="G29" t="s">
         <v>285</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>228</v>
+      </c>
       <c r="E30" t="s">
         <v>489</v>
       </c>
       <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>117</v>
       </c>
     </row>
@@ -9822,7 +10469,7 @@
       <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -9833,7 +10480,7 @@
       <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -9844,7 +10491,7 @@
       <c r="G33" t="s">
         <v>655</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9855,7 +10502,7 @@
       <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>121</v>
       </c>
     </row>
@@ -9866,7 +10513,7 @@
       <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>211</v>
       </c>
     </row>
@@ -9877,7 +10524,7 @@
       <c r="G36" t="s">
         <v>308</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -9888,7 +10535,7 @@
       <c r="G37" t="s">
         <v>262</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9899,7 +10546,7 @@
       <c r="G38" t="s">
         <v>309</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>502</v>
       </c>
     </row>
@@ -9907,7 +10554,7 @@
       <c r="G39" t="s">
         <v>268</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>454</v>
       </c>
     </row>
@@ -9915,7 +10562,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>123</v>
       </c>
     </row>
@@ -9923,7 +10570,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>124</v>
       </c>
     </row>
@@ -9931,7 +10578,7 @@
       <c r="G42" t="s">
         <v>290</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>125</v>
       </c>
     </row>
@@ -9939,7 +10586,7 @@
       <c r="G43" t="s">
         <v>301</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>126</v>
       </c>
     </row>
@@ -9947,7 +10594,7 @@
       <c r="G44" t="s">
         <v>302</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>127</v>
       </c>
     </row>
@@ -9955,7 +10602,7 @@
       <c r="G45" t="s">
         <v>344</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>128</v>
       </c>
     </row>
@@ -9963,7 +10610,7 @@
       <c r="G46" t="s">
         <v>343</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>515</v>
       </c>
     </row>
@@ -9971,7 +10618,7 @@
       <c r="G47" t="s">
         <v>212</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>214</v>
       </c>
     </row>
@@ -9979,7 +10626,7 @@
       <c r="G48" t="s">
         <v>321</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>78</v>
       </c>
     </row>
@@ -9987,7 +10634,7 @@
       <c r="G49" t="s">
         <v>340</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>129</v>
       </c>
     </row>
@@ -9995,7 +10642,7 @@
       <c r="G50" t="s">
         <v>378</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>130</v>
       </c>
     </row>
@@ -10003,7 +10650,7 @@
       <c r="G51" t="s">
         <v>303</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>131</v>
       </c>
     </row>
@@ -10011,7 +10658,7 @@
       <c r="G52" t="s">
         <v>366</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>631</v>
       </c>
     </row>
@@ -10019,7 +10666,7 @@
       <c r="G53" t="s">
         <v>332</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>598</v>
       </c>
     </row>
@@ -10027,7 +10674,7 @@
       <c r="G54" t="s">
         <v>269</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>132</v>
       </c>
     </row>
@@ -10035,7 +10682,7 @@
       <c r="G55" t="s">
         <v>293</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>356</v>
       </c>
     </row>
@@ -10043,7 +10690,7 @@
       <c r="G56" t="s">
         <v>294</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>592</v>
       </c>
     </row>
@@ -10051,7 +10698,7 @@
       <c r="G57" t="s">
         <v>295</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>133</v>
       </c>
     </row>
@@ -10059,7 +10706,7 @@
       <c r="G58" t="s">
         <v>304</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>134</v>
       </c>
     </row>
@@ -10067,7 +10714,7 @@
       <c r="G59" t="s">
         <v>313</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>135</v>
       </c>
     </row>
@@ -10075,7 +10722,7 @@
       <c r="G60" t="s">
         <v>338</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10083,7 +10730,7 @@
       <c r="G61" t="s">
         <v>310</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>137</v>
       </c>
     </row>
@@ -10091,7 +10738,7 @@
       <c r="G62" t="s">
         <v>311</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>138</v>
       </c>
     </row>
@@ -10099,7 +10746,7 @@
       <c r="G63" t="s">
         <v>379</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>139</v>
       </c>
     </row>
@@ -10107,7 +10754,7 @@
       <c r="G64" t="s">
         <v>380</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>511</v>
       </c>
     </row>
@@ -10115,7 +10762,7 @@
       <c r="G65" t="s">
         <v>346</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>621</v>
       </c>
     </row>
@@ -10123,7 +10770,7 @@
       <c r="G66" t="s">
         <v>314</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10131,7 +10778,7 @@
       <c r="G67" t="s">
         <v>270</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>450</v>
       </c>
     </row>
@@ -10139,7 +10786,7 @@
       <c r="G68" t="s">
         <v>363</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>516</v>
       </c>
     </row>
@@ -10147,7 +10794,7 @@
       <c r="G69" t="s">
         <v>315</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>140</v>
       </c>
     </row>
@@ -10155,7 +10802,7 @@
       <c r="G70" t="s">
         <v>483</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>141</v>
       </c>
     </row>
@@ -10163,7 +10810,7 @@
       <c r="G71" t="s">
         <v>305</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>142</v>
       </c>
     </row>
@@ -10171,7 +10818,7 @@
       <c r="G72" t="s">
         <v>484</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>143</v>
       </c>
     </row>
@@ -10179,7 +10826,7 @@
       <c r="G73" t="s">
         <v>263</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>198</v>
       </c>
     </row>
@@ -10187,7 +10834,7 @@
       <c r="G74" t="s">
         <v>656</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>199</v>
       </c>
     </row>
@@ -10195,7 +10842,7 @@
       <c r="G75" t="s">
         <v>345</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>563</v>
       </c>
     </row>
@@ -10203,7 +10850,7 @@
       <c r="G76" t="s">
         <v>281</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>600</v>
       </c>
     </row>
@@ -10211,7 +10858,7 @@
       <c r="G77" t="s">
         <v>287</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>144</v>
       </c>
     </row>
@@ -10219,7 +10866,7 @@
       <c r="G78" t="s">
         <v>292</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>145</v>
       </c>
     </row>
@@ -10227,7 +10874,7 @@
       <c r="G79" t="s">
         <v>490</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10235,7 +10882,7 @@
       <c r="G80" t="s">
         <v>333</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>643</v>
       </c>
     </row>
@@ -10243,7 +10890,7 @@
       <c r="G81" t="s">
         <v>271</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>147</v>
       </c>
     </row>
@@ -10251,7 +10898,7 @@
       <c r="G82" t="s">
         <v>282</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>148</v>
       </c>
     </row>
@@ -10259,7 +10906,7 @@
       <c r="G83" t="s">
         <v>288</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>200</v>
       </c>
     </row>
@@ -10267,7 +10914,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>632</v>
       </c>
     </row>
@@ -10275,7 +10922,7 @@
       <c r="G85" t="s">
         <v>272</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>201</v>
       </c>
     </row>
@@ -10283,7 +10930,7 @@
       <c r="G86" t="s">
         <v>289</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>562</v>
       </c>
     </row>
@@ -10291,7 +10938,7 @@
       <c r="G87" t="s">
         <v>273</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>202</v>
       </c>
     </row>
@@ -10299,7 +10946,7 @@
       <c r="G88" t="s">
         <v>274</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>203</v>
       </c>
     </row>
@@ -10307,7 +10954,7 @@
       <c r="G89" t="s">
         <v>306</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>216</v>
       </c>
     </row>
@@ -10315,7 +10962,7 @@
       <c r="G90" t="s">
         <v>312</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>149</v>
       </c>
     </row>
@@ -10323,7 +10970,7 @@
       <c r="G91" t="s">
         <v>296</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>204</v>
       </c>
     </row>
@@ -10331,7 +10978,7 @@
       <c r="G92" t="s">
         <v>341</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>503</v>
       </c>
     </row>
@@ -10339,7 +10986,7 @@
       <c r="G93" t="s">
         <v>278</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>510</v>
       </c>
     </row>
@@ -10347,172 +10994,172 @@
       <c r="G94" t="s">
         <v>279</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -31,7 +31,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -55,7 +55,7 @@
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6601" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7664" uniqueCount="670">
   <si>
     <t>description</t>
   </si>
@@ -2110,13 +2110,25 @@
   <si>
     <t>runSQLs(var,sqls)</t>
   </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="188" x14ac:knownFonts="1">
+  <fonts count="220" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3310,8 +3322,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="307">
+  <fills count="367">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5047,8 +5261,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="311">
+  <borders count="367">
     <border>
       <left/>
       <right/>
@@ -8188,6 +8742,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8195,7 +9313,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="250">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8824,52 +9942,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="276" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="279" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="279" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="282" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="282" fontId="174" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="285" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="285" fontId="175" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="288" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="288" fontId="176" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="291" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="291" fontId="178" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="294" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="294" fontId="180" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="297" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="297" fontId="181" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="300" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="300" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="300" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="300" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="303" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="303" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="306" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="306" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="309" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="312" fontId="190" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="315" fontId="191" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="318" fontId="192" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="193" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="321" fontId="194" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="324" fontId="196" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="327" fontId="197" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="330" fontId="198" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="330" fontId="199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="318" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="333" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="318" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="336" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="339" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="342" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="345" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="348" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="354" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="357" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="360" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="360" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="348" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="363" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="348" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9710,7 +10924,7 @@
         <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -9778,7 +10992,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -9837,7 +11051,7 @@
         <v>316</v>
       </c>
       <c r="N7" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -9895,6 +11109,9 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
+      <c r="N8" t="s">
+        <v>663</v>
+      </c>
       <c r="Q8" t="s">
         <v>92</v>
       </c>
@@ -9948,6 +11165,9 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
+      <c r="N9" t="s">
+        <v>664</v>
+      </c>
       <c r="Q9" t="s">
         <v>93</v>
       </c>
@@ -9989,6 +11209,9 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
+      <c r="N10" t="s">
+        <v>665</v>
+      </c>
       <c r="Q10" t="s">
         <v>495</v>
       </c>
@@ -10377,7 +11600,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>86</v>
+        <v>669</v>
       </c>
       <c r="Y25" t="s">
         <v>113</v>
@@ -10394,7 +11617,7 @@
         <v>283</v>
       </c>
       <c r="K26" t="s">
-        <v>513</v>
+        <v>86</v>
       </c>
       <c r="Y26" t="s">
         <v>114</v>
@@ -10411,7 +11634,7 @@
         <v>267</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>513</v>
       </c>
       <c r="Y27" t="s">
         <v>115</v>
@@ -10428,7 +11651,7 @@
         <v>284</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y28" t="s">
         <v>328</v>
@@ -10443,6 +11666,9 @@
       </c>
       <c r="G29" t="s">
         <v>285</v>
+      </c>
+      <c r="K29" t="s">
+        <v>46</v>
       </c>
       <c r="Y29" t="s">
         <v>116</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD9EA73-51DC-3040-BEA8-EB3A818CA98E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E512B477-7F68-BA40-898D-616A5C0A814A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="57600" windowHeight="17760" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="704">
   <si>
     <t>description</t>
   </si>
@@ -2215,9 +2215,6 @@
   </si>
   <si>
     <t>false</t>
-  </si>
-  <si>
-    <t>open ${nexial.lastOutputLink}</t>
   </si>
   <si>
     <t>css file</t>
@@ -2526,6 +2523,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2553,14 +2558,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4986,12 +4983,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="24" t="s">
         <v>11</v>
       </c>
@@ -5009,20 +5006,20 @@
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="39"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="25"/>
       <c r="F2" s="26"/>
       <c r="G2" s="25"/>
@@ -5032,10 +5029,10 @@
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
@@ -16729,12 +16726,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="29" t="s">
         <v>11</v>
       </c>
@@ -16752,20 +16749,20 @@
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="39"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="25"/>
       <c r="F2" s="26"/>
       <c r="G2" s="25"/>
@@ -16775,10 +16772,10 @@
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
@@ -28364,7 +28361,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -28387,12 +28384,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="30" t="s">
         <v>11</v>
       </c>
@@ -28410,20 +28407,20 @@
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="39"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="25"/>
       <c r="F2" s="26"/>
       <c r="G2" s="25"/>
@@ -28433,10 +28430,10 @@
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
@@ -29062,10 +29059,10 @@
       <c r="D26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="34" t="s">
         <v>693</v>
       </c>
-      <c r="F26" s="42" t="s">
+      <c r="F26" s="34" t="s">
         <v>380</v>
       </c>
       <c r="G26" s="7"/>
@@ -29087,10 +29084,10 @@
       <c r="D27" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="34" t="s">
         <v>694</v>
       </c>
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="34" t="s">
         <v>380</v>
       </c>
       <c r="G27" s="7"/>
@@ -29163,10 +29160,10 @@
         <v>81</v>
       </c>
       <c r="E30" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>702</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>703</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -29190,8 +29187,8 @@
       <c r="E31" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="F31" s="43" t="s">
-        <v>704</v>
+      <c r="F31" s="35" t="s">
+        <v>703</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>700</v>
@@ -29208,15 +29205,9 @@
     <row r="32" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>701</v>
-      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -40129,12 +40120,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="31" t="s">
         <v>11</v>
       </c>
@@ -40152,20 +40143,20 @@
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="39"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>564</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="25"/>
       <c r="F2" s="26"/>
       <c r="G2" s="25"/>
@@ -40175,10 +40166,10 @@
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
@@ -51643,12 +51634,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="33" t="s">
         <v>11</v>
       </c>
@@ -51666,20 +51657,20 @@
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="39"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>564</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="25"/>
       <c r="F2" s="26"/>
       <c r="G2" s="25"/>
@@ -51689,10 +51680,10 @@
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{E512B477-7F68-BA40-898D-616A5C0A814A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{F942F3B9-2518-584E-9E1D-3295BE31BFC3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="17760" windowWidth="57600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460" firstSheet="1"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="23680" windowWidth="57600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -24,6 +24,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
@@ -57,7 +58,6 @@
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
     <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
-    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="707">
   <si>
     <t>description</t>
   </si>
@@ -833,9 +833,6 @@
     <t>saveAsText(pdf,destination)</t>
   </si>
   <si>
-    <t>assertNotContains(text,substring)</t>
-  </si>
-  <si>
     <t>macro(file,sheet,name)</t>
   </si>
   <si>
@@ -1155,9 +1152,6 @@
   </si>
   <si>
     <t>assertAttributeContains(locator,attrName,contains)</t>
-  </si>
-  <si>
-    <t>assertAttributeNotContains(locator,attrName,contains)</t>
   </si>
   <si>
     <t>getRowCount(var)</t>
@@ -2122,9 +2116,6 @@
     <t>tail(id,file)</t>
   </si>
   <si>
-    <t>assertTextNotContains(locator,text)</t>
-  </si>
-  <si>
     <t>saveModalDialogTextByLocator(var,locator)</t>
   </si>
   <si>
@@ -2201,9 +2192,6 @@
   </si>
   <si>
     <t>${nexial.lastOutputLink}</t>
-  </si>
-  <si>
-    <t>EXPECTED node 'item 5' NOT FOUND in ACTUAL</t>
   </si>
   <si>
     <t>$(syspath|data|fullpath)/unitTest_json.data.doc4.json</t>
@@ -2246,6 +2234,9 @@
   </si>
   <si>
     <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>EXPECTED node '$.topping[5]' NOT FOUND in ACTUAL</t>
   </si>
 </sst>
 </file>
@@ -3665,16 +3656,16 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -3692,22 +3683,22 @@
         <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L1" t="s">
         <v>14</v>
       </c>
       <c r="M1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N1" t="s">
         <v>24</v>
       </c>
       <c r="O1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="P1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="Q1" t="s">
         <v>194</v>
@@ -3722,19 +3713,19 @@
         <v>53</v>
       </c>
       <c r="U1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="V1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="W1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="X1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Y1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Z1" t="s">
         <v>54</v>
@@ -3749,7 +3740,7 @@
         <v>57</v>
       </c>
       <c r="AD1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AE1" t="s">
         <v>225</v>
@@ -3757,19 +3748,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F2" t="s">
         <v>58</v>
@@ -3781,34 +3772,34 @@
         <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J2" t="s">
         <v>79</v>
       </c>
       <c r="K2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="L2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="N2" t="s">
+        <v>485</v>
+      </c>
+      <c r="O2" t="s">
+        <v>653</v>
+      </c>
+      <c r="P2" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>486</v>
+      </c>
+      <c r="R2" t="s">
         <v>487</v>
-      </c>
-      <c r="O2" t="s">
-        <v>655</v>
-      </c>
-      <c r="P2" t="s">
-        <v>622</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>488</v>
-      </c>
-      <c r="R2" t="s">
-        <v>489</v>
       </c>
       <c r="S2" t="s">
         <v>251</v>
@@ -3817,19 +3808,19 @@
         <v>215</v>
       </c>
       <c r="U2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="W2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="X2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Y2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Z2" t="s">
         <v>96</v>
@@ -3844,30 +3835,30 @@
         <v>181</v>
       </c>
       <c r="AD2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AE2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H3" t="s">
         <v>88</v>
@@ -3876,28 +3867,28 @@
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="K3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N3" t="s">
         <v>86</v>
       </c>
       <c r="O3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="P3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="R3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="S3" t="s">
         <v>238</v>
@@ -3906,16 +3897,16 @@
         <v>216</v>
       </c>
       <c r="U3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="W3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="X3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Y3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Z3" t="s">
         <v>97</v>
@@ -3927,7 +3918,7 @@
         <v>175</v>
       </c>
       <c r="AC3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AD3" t="s">
         <v>182</v>
@@ -3938,13 +3929,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>626</v>
+      </c>
+      <c r="B4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D4" t="s">
         <v>628</v>
-      </c>
-      <c r="B4" t="s">
-        <v>431</v>
-      </c>
-      <c r="D4" t="s">
-        <v>630</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -3953,31 +3944,31 @@
         <v>73</v>
       </c>
       <c r="H4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J4" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="K4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L4" t="s">
         <v>236</v>
       </c>
       <c r="M4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N4" t="s">
         <v>25</v>
       </c>
       <c r="O4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="P4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="R4" t="s">
         <v>26</v>
@@ -3989,19 +3980,19 @@
         <v>217</v>
       </c>
       <c r="U4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="W4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="X4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="Y4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="Z4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AA4" t="s">
         <v>171</v>
@@ -4013,7 +4004,7 @@
         <v>182</v>
       </c>
       <c r="AD4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AE4" t="s">
         <v>227</v>
@@ -4021,40 +4012,40 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H5" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="I5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="K5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="N5" t="s">
         <v>87</v>
       </c>
       <c r="O5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="R5" t="s">
         <v>29</v>
@@ -4066,16 +4057,16 @@
         <v>218</v>
       </c>
       <c r="U5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="W5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="X5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Z5" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="AA5" t="s">
         <v>172</v>
@@ -4087,7 +4078,7 @@
         <v>183</v>
       </c>
       <c r="AD5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AE5" t="s">
         <v>228</v>
@@ -4098,25 +4089,25 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D6" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="K6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L6" t="s">
         <v>72</v>
@@ -4125,7 +4116,7 @@
         <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="R6" t="s">
         <v>30</v>
@@ -4134,19 +4125,19 @@
         <v>241</v>
       </c>
       <c r="T6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="U6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="X6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Z6" t="s">
         <v>98</v>
       </c>
       <c r="AA6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AB6" t="s">
         <v>178</v>
@@ -4155,7 +4146,7 @@
         <v>184</v>
       </c>
       <c r="AD6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AE6" t="s">
         <v>229</v>
@@ -4166,28 +4157,28 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F7" t="s">
         <v>222</v>
       </c>
       <c r="H7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K7" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
       </c>
       <c r="N7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="R7" t="s">
         <v>32</v>
@@ -4196,19 +4187,19 @@
         <v>242</v>
       </c>
       <c r="T7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="U7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="X7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="Z7" t="s">
         <v>99</v>
       </c>
       <c r="AA7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AB7" t="s">
         <v>179</v>
@@ -4217,10 +4208,10 @@
         <v>185</v>
       </c>
       <c r="AD7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AE7" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="8">
@@ -4228,25 +4219,25 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L8" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
       </c>
       <c r="O8" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R8" t="s">
         <v>91</v>
@@ -4255,10 +4246,10 @@
         <v>243</v>
       </c>
       <c r="U8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="X8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Z8" t="s">
         <v>100</v>
@@ -4273,10 +4264,10 @@
         <v>186</v>
       </c>
       <c r="AD8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AE8" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="9">
@@ -4284,16 +4275,16 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F9" t="s">
         <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L9" t="s">
         <v>80</v>
@@ -4302,7 +4293,7 @@
         <v>34</v>
       </c>
       <c r="O9" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="R9" t="s">
         <v>92</v>
@@ -4311,10 +4302,10 @@
         <v>244</v>
       </c>
       <c r="U9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="X9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Z9" t="s">
         <v>207</v>
@@ -4323,7 +4314,7 @@
         <v>187</v>
       </c>
       <c r="AE9" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="10">
@@ -4331,13 +4322,13 @@
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I10" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="L10" t="s">
         <v>37</v>
@@ -4346,19 +4337,19 @@
         <v>35</v>
       </c>
       <c r="O10" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="R10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="S10" t="s">
         <v>245</v>
       </c>
       <c r="U10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Z10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC10" t="s">
         <v>188</v>
@@ -4369,25 +4360,25 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F11" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="H11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="N11" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="O11" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="R11" t="s">
         <v>93</v>
@@ -4396,10 +4387,10 @@
         <v>246</v>
       </c>
       <c r="Z11" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC11" t="s">
         <v>256</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>257</v>
       </c>
       <c r="AE11" t="s">
         <v>231</v>
@@ -4410,22 +4401,22 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N12" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="O12" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="R12" t="s">
         <v>40</v>
@@ -4445,22 +4436,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
       </c>
       <c r="N13" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="R13" t="s">
         <v>94</v>
@@ -4469,13 +4460,13 @@
         <v>252</v>
       </c>
       <c r="Z13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AC13" t="s">
         <v>190</v>
       </c>
       <c r="AE13" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="14">
@@ -4486,16 +4477,16 @@
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L14" t="s">
         <v>41</v>
       </c>
       <c r="N14" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="R14" t="s">
         <v>95</v>
@@ -4510,27 +4501,27 @@
         <v>191</v>
       </c>
       <c r="AE14" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F15" t="s">
         <v>59</v>
       </c>
       <c r="H15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L15" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
       </c>
       <c r="R15" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="S15" t="s">
         <v>249</v>
@@ -4542,27 +4533,27 @@
         <v>192</v>
       </c>
       <c r="AE15" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F16" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L16" t="s">
         <v>81</v>
       </c>
       <c r="N16" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="R16" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="S16" t="s">
         <v>250</v>
@@ -4574,7 +4565,7 @@
         <v>193</v>
       </c>
       <c r="AE16" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="17">
@@ -4582,10 +4573,10 @@
         <v>194</v>
       </c>
       <c r="F17" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L17" t="s">
         <v>82</v>
@@ -4594,13 +4585,13 @@
         <v>39</v>
       </c>
       <c r="Z17" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AC17" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AE17" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="18">
@@ -4608,13 +4599,13 @@
         <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -4623,7 +4614,7 @@
         <v>104</v>
       </c>
       <c r="AE18" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="19">
@@ -4643,7 +4634,7 @@
         <v>105</v>
       </c>
       <c r="AE19" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="20">
@@ -4654,7 +4645,7 @@
         <v>61</v>
       </c>
       <c r="H20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L20" t="s">
         <v>84</v>
@@ -4663,44 +4654,44 @@
         <v>106</v>
       </c>
       <c r="AE20" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L21" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Z21" t="s">
         <v>107</v>
       </c>
       <c r="AE21" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F22" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L22" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Z22" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AE22" t="s">
         <v>233</v>
@@ -4708,13 +4699,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F23" t="s">
         <v>62</v>
       </c>
       <c r="H23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L23" t="s">
         <v>43</v>
@@ -4723,47 +4714,47 @@
         <v>108</v>
       </c>
       <c r="AE23" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L24" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Z24" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="AE24" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F25" t="s">
         <v>63</v>
       </c>
       <c r="H25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L25" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="Z25" t="s">
         <v>109</v>
       </c>
       <c r="AE25" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="26">
@@ -4771,7 +4762,7 @@
         <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -4794,10 +4785,10 @@
         <v>223</v>
       </c>
       <c r="H27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L27" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="Z27" t="s">
         <v>111</v>
@@ -4814,7 +4805,7 @@
         <v>224</v>
       </c>
       <c r="H28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L28" t="s">
         <v>44</v>
@@ -4828,27 +4819,27 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L29" t="s">
         <v>45</v>
       </c>
       <c r="Z29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F30" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z30" t="s">
         <v>113</v>
@@ -4859,7 +4850,7 @@
         <v>225</v>
       </c>
       <c r="F31" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
@@ -4873,7 +4864,7 @@
         <v>64</v>
       </c>
       <c r="H32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Z32" t="s">
         <v>115</v>
@@ -4884,7 +4875,7 @@
         <v>65</v>
       </c>
       <c r="H33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z33" t="s">
         <v>116</v>
@@ -4895,10 +4886,10 @@
         <v>66</v>
       </c>
       <c r="H34" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="Z34" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="35">
@@ -4906,7 +4897,7 @@
         <v>67</v>
       </c>
       <c r="H35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z35" t="s">
         <v>117</v>
@@ -4917,7 +4908,7 @@
         <v>68</v>
       </c>
       <c r="H36" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Z36" t="s">
         <v>118</v>
@@ -4928,7 +4919,7 @@
         <v>69</v>
       </c>
       <c r="H37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Z37" t="s">
         <v>208</v>
@@ -4939,7 +4930,7 @@
         <v>70</v>
       </c>
       <c r="H38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Z38" t="s">
         <v>119</v>
@@ -4950,18 +4941,18 @@
         <v>71</v>
       </c>
       <c r="H39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Z39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40">
       <c r="H40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Z40" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="41">
@@ -4969,7 +4960,7 @@
         <v>78</v>
       </c>
       <c r="Z41" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="42">
@@ -4977,12 +4968,12 @@
         <v>210</v>
       </c>
       <c r="Z42" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="43">
       <c r="H43" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="Z43" t="s">
         <v>120</v>
@@ -4990,7 +4981,7 @@
     </row>
     <row r="44">
       <c r="H44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Z44" t="s">
         <v>121</v>
@@ -4998,7 +4989,7 @@
     </row>
     <row r="45">
       <c r="H45" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Z45" t="s">
         <v>122</v>
@@ -5006,7 +4997,7 @@
     </row>
     <row r="46">
       <c r="H46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Z46" t="s">
         <v>123</v>
@@ -5014,7 +5005,7 @@
     </row>
     <row r="47">
       <c r="H47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z47" t="s">
         <v>124</v>
@@ -5022,7 +5013,7 @@
     </row>
     <row r="48">
       <c r="H48" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Z48" t="s">
         <v>125</v>
@@ -5033,12 +5024,12 @@
         <v>209</v>
       </c>
       <c r="Z49" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="50">
       <c r="H50" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Z50" t="s">
         <v>211</v>
@@ -5046,7 +5037,7 @@
     </row>
     <row r="51">
       <c r="H51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Z51" t="s">
         <v>77</v>
@@ -5054,15 +5045,15 @@
     </row>
     <row r="52">
       <c r="H52" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="Z52" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="53">
       <c r="H53" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Z53" t="s">
         <v>126</v>
@@ -5070,7 +5061,7 @@
     </row>
     <row r="54">
       <c r="H54" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="Z54" t="s">
         <v>127</v>
@@ -5078,7 +5069,7 @@
     </row>
     <row r="55">
       <c r="H55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Z55" t="s">
         <v>128</v>
@@ -5086,23 +5077,23 @@
     </row>
     <row r="56">
       <c r="H56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Z56" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="57">
       <c r="H57" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Z57" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="58">
       <c r="H58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Z58" t="s">
         <v>129</v>
@@ -5110,23 +5101,23 @@
     </row>
     <row r="59">
       <c r="H59" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="Z59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60">
       <c r="H60" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Z60" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="61">
       <c r="H61" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Z61" t="s">
         <v>130</v>
@@ -5134,7 +5125,7 @@
     </row>
     <row r="62">
       <c r="H62" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Z62" t="s">
         <v>131</v>
@@ -5142,7 +5133,7 @@
     </row>
     <row r="63">
       <c r="H63" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Z63" t="s">
         <v>132</v>
@@ -5150,7 +5141,7 @@
     </row>
     <row r="64">
       <c r="H64" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Z64" t="s">
         <v>133</v>
@@ -5158,7 +5149,7 @@
     </row>
     <row r="65">
       <c r="H65" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z65" t="s">
         <v>134</v>
@@ -5166,7 +5157,7 @@
     </row>
     <row r="66">
       <c r="H66" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="Z66" t="s">
         <v>135</v>
@@ -5174,7 +5165,7 @@
     </row>
     <row r="67">
       <c r="H67" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="Z67" t="s">
         <v>136</v>
@@ -5182,23 +5173,23 @@
     </row>
     <row r="68">
       <c r="H68" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Z68" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="69">
       <c r="H69" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Z69" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="70">
       <c r="H70" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Z70" t="s">
         <v>212</v>
@@ -5206,23 +5197,23 @@
     </row>
     <row r="71">
       <c r="H71" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="Z71" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="72">
       <c r="H72" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Z72" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="73">
       <c r="H73" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="Z73" t="s">
         <v>137</v>
@@ -5230,7 +5221,7 @@
     </row>
     <row r="74">
       <c r="H74" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Z74" t="s">
         <v>138</v>
@@ -5238,7 +5229,7 @@
     </row>
     <row r="75">
       <c r="H75" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="Z75" t="s">
         <v>139</v>
@@ -5246,7 +5237,7 @@
     </row>
     <row r="76">
       <c r="H76" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Z76" t="s">
         <v>140</v>
@@ -5254,7 +5245,7 @@
     </row>
     <row r="77">
       <c r="H77" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="Z77" t="s">
         <v>195</v>
@@ -5262,7 +5253,7 @@
     </row>
     <row r="78">
       <c r="H78" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Z78" t="s">
         <v>196</v>
@@ -5270,23 +5261,23 @@
     </row>
     <row r="79">
       <c r="H79" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Z79" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z80" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Z81" t="s">
         <v>141</v>
@@ -5294,7 +5285,7 @@
     </row>
     <row r="82">
       <c r="H82" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="Z82" t="s">
         <v>142</v>
@@ -5302,7 +5293,7 @@
     </row>
     <row r="83">
       <c r="H83" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Z83" t="s">
         <v>143</v>
@@ -5310,15 +5301,15 @@
     </row>
     <row r="84">
       <c r="H84" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Z84" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Z85" t="s">
         <v>144</v>
@@ -5326,7 +5317,7 @@
     </row>
     <row r="86">
       <c r="H86" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Z86" t="s">
         <v>145</v>
@@ -5334,7 +5325,7 @@
     </row>
     <row r="87">
       <c r="H87" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Z87" t="s">
         <v>197</v>
@@ -5342,15 +5333,15 @@
     </row>
     <row r="88">
       <c r="H88" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="Z88" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Z89" t="s">
         <v>198</v>
@@ -5358,15 +5349,15 @@
     </row>
     <row r="90">
       <c r="H90" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Z90" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Z91" t="s">
         <v>199</v>
@@ -5374,7 +5365,7 @@
     </row>
     <row r="92">
       <c r="H92" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Z92" t="s">
         <v>200</v>
@@ -5382,23 +5373,23 @@
     </row>
     <row r="93">
       <c r="H93" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Z93" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z94" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Z95" t="s">
         <v>213</v>
@@ -5406,7 +5397,7 @@
     </row>
     <row r="96">
       <c r="H96" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Z96" t="s">
         <v>146</v>
@@ -5414,7 +5405,7 @@
     </row>
     <row r="97">
       <c r="H97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z97" t="s">
         <v>201</v>
@@ -5422,15 +5413,15 @@
     </row>
     <row r="98">
       <c r="H98" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Z98" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="100">
@@ -5465,17 +5456,17 @@
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="109">
@@ -5485,12 +5476,12 @@
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="112">
@@ -5560,7 +5551,7 @@
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="126">
@@ -5570,7 +5561,7 @@
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="128">
@@ -5658,10 +5649,10 @@
         <v>20</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>19</v>
@@ -5760,7 +5751,7 @@
     </row>
     <row customHeight="1" ht="24" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="13" t="s">
@@ -5770,10 +5761,10 @@
         <v>81</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -5787,7 +5778,7 @@
     </row>
     <row customHeight="1" ht="24" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -5797,7 +5788,7 @@
         <v>35</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -5812,7 +5803,7 @@
     </row>
     <row customHeight="1" ht="24" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -5822,13 +5813,13 @@
         <v>25</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -5849,13 +5840,13 @@
         <v>42</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -5876,7 +5867,7 @@
         <v>70</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -5899,13 +5890,13 @@
         <v>39</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -5926,7 +5917,7 @@
         <v>70</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -5949,13 +5940,13 @@
         <v>39</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -5973,13 +5964,13 @@
         <v>13</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -5998,13 +5989,13 @@
         <v>52</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -6023,13 +6014,13 @@
         <v>13</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -6048,13 +6039,13 @@
         <v>13</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -6076,13 +6067,13 @@
         <v>15</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -6095,7 +6086,7 @@
     </row>
     <row ht="96" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="13" t="s">
@@ -6105,10 +6096,10 @@
         <v>63</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -6130,13 +6121,13 @@
         <v>33</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -6157,13 +6148,13 @@
         <v>33</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -6184,16 +6175,16 @@
         <v>34</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="22"/>
@@ -6213,10 +6204,10 @@
         <v>63</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -6238,13 +6229,13 @@
         <v>33</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -6265,13 +6256,13 @@
         <v>33</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -6292,16 +6283,16 @@
         <v>34</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="22"/>
@@ -6313,7 +6304,7 @@
     </row>
     <row customHeight="1" ht="95" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="13" t="s">
@@ -6323,10 +6314,10 @@
         <v>63</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -6348,13 +6339,13 @@
         <v>25</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -6375,13 +6366,13 @@
         <v>25</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -6402,16 +6393,16 @@
         <v>34</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="22"/>
@@ -6431,16 +6422,16 @@
         <v>34</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="22"/>
@@ -6452,7 +6443,7 @@
     </row>
     <row customHeight="1" ht="24" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="13" t="s">
@@ -6462,10 +6453,10 @@
         <v>81</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -6487,10 +6478,10 @@
         <v>63</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -6512,13 +6503,13 @@
         <v>42</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -6536,13 +6527,13 @@
         <v>24</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -6561,13 +6552,13 @@
         <v>24</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -6589,16 +6580,16 @@
         <v>34</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="22"/>
@@ -17401,10 +17392,10 @@
         <v>20</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>19</v>
@@ -17503,7 +17494,7 @@
     </row>
     <row customHeight="1" ht="24" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="13" t="s">
@@ -17513,10 +17504,10 @@
         <v>63</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -17538,10 +17529,10 @@
         <v>63</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -17556,7 +17547,7 @@
     <row customHeight="1" ht="24" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>24</v>
@@ -17565,13 +17556,13 @@
         <v>33</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -17584,10 +17575,10 @@
     </row>
     <row customHeight="1" ht="24" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>395</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>24</v>
@@ -17596,13 +17587,13 @@
         <v>33</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -17615,10 +17606,10 @@
     </row>
     <row customHeight="1" ht="24" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>24</v>
@@ -17627,13 +17618,13 @@
         <v>33</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -17646,10 +17637,10 @@
     </row>
     <row customHeight="1" ht="24" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>13</v>
@@ -17658,10 +17649,10 @@
         <v>63</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -17683,10 +17674,10 @@
         <v>63</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -17708,10 +17699,10 @@
         <v>63</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -17726,7 +17717,7 @@
     <row customHeight="1" ht="24" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>24</v>
@@ -17735,13 +17726,13 @@
         <v>33</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -17755,7 +17746,7 @@
     <row customHeight="1" ht="24" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>24</v>
@@ -17764,13 +17755,13 @@
         <v>33</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -17791,10 +17782,10 @@
         <v>58</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -17809,7 +17800,7 @@
     <row customHeight="1" ht="24" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>24</v>
@@ -17818,13 +17809,13 @@
         <v>33</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -17837,20 +17828,20 @@
     </row>
     <row customHeight="1" ht="24" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -17869,13 +17860,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -17894,13 +17885,13 @@
         <v>13</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -17919,13 +17910,13 @@
         <v>13</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -17940,19 +17931,19 @@
     <row customHeight="1" ht="24" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -17967,19 +17958,19 @@
     <row customHeight="1" ht="24" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -29022,7 +29013,7 @@
   <dimension ref="A1:P1001"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A16" ySplit="4"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -29059,10 +29050,10 @@
         <v>20</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I1" s="30" t="s">
         <v>19</v>
@@ -29161,20 +29152,20 @@
     </row>
     <row customHeight="1" ht="270" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -29196,13 +29187,13 @@
         <v>38</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -29223,13 +29214,13 @@
         <v>33</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -29250,13 +29241,13 @@
         <v>33</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -29277,10 +29268,10 @@
         <v>27</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -29302,13 +29293,13 @@
         <v>33</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -29329,13 +29320,13 @@
         <v>33</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -29356,10 +29347,10 @@
         <v>27</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -29381,13 +29372,13 @@
         <v>33</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -29408,13 +29399,13 @@
         <v>33</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -29435,10 +29426,10 @@
         <v>27</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -29460,13 +29451,13 @@
         <v>33</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -29487,13 +29478,13 @@
         <v>33</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -29514,10 +29505,10 @@
         <v>27</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -29539,13 +29530,13 @@
         <v>33</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -29566,13 +29557,13 @@
         <v>33</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -29593,10 +29584,10 @@
         <v>27</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -29618,13 +29609,13 @@
         <v>33</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F22" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -29645,10 +29636,10 @@
         <v>87</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -29670,10 +29661,10 @@
         <v>27</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -29687,7 +29678,7 @@
     </row>
     <row customHeight="1" ht="24" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="13" t="s">
@@ -29697,10 +29688,10 @@
         <v>63</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -29722,10 +29713,10 @@
         <v>63</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -29747,10 +29738,10 @@
         <v>63</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -29769,13 +29760,13 @@
         <v>24</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -29797,10 +29788,10 @@
         <v>81</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -29822,10 +29813,10 @@
         <v>81</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -29847,13 +29838,13 @@
         <v>85</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -40741,7 +40732,7 @@
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="2" disablePrompts="1">
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C701" type="list" xr:uid="{31A7B5D0-DC1B-4C4E-99FC-A1E98A38312F}">
       <formula1>target</formula1>
     </dataValidation>
@@ -40795,10 +40786,10 @@
         <v>20</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I1" s="31" t="s">
         <v>19</v>
@@ -40814,7 +40805,7 @@
     </row>
     <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -40897,7 +40888,7 @@
     </row>
     <row customHeight="1" ht="26" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="13" t="s">
@@ -40907,7 +40898,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="7"/>
@@ -40930,13 +40921,13 @@
         <v>33</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -40954,19 +40945,19 @@
         <v>24</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>567</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="22"/>
@@ -40986,7 +40977,7 @@
         <v>70</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -41009,13 +41000,13 @@
         <v>33</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -52309,10 +52300,10 @@
         <v>20</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I1" s="33" t="s">
         <v>19</v>
@@ -52328,7 +52319,7 @@
     </row>
     <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -52411,7 +52402,7 @@
     </row>
     <row customHeight="1" ht="26" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="13" t="s">
@@ -52421,10 +52412,10 @@
         <v>63</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -52443,13 +52434,13 @@
         <v>24</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -52471,7 +52462,7 @@
         <v>70</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -52486,20 +52477,20 @@
     </row>
     <row customHeight="1" ht="24" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>605</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>607</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -52521,7 +52512,7 @@
         <v>70</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -52537,19 +52528,19 @@
     <row customHeight="1" ht="71" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -52563,20 +52554,20 @@
     </row>
     <row customHeight="1" ht="24" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -52595,13 +52586,13 @@
         <v>13</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{F942F3B9-2518-584E-9E1D-3295BE31BFC3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="23680" windowWidth="57600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="23680" windowWidth="57600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -25,7 +25,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2786" uniqueCount="709">
   <si>
     <t>description</t>
   </si>
@@ -2238,13 +2238,19 @@
   <si>
     <t>EXPECTED node '$.topping[5]' NOT FOUND in ACTUAL</t>
   </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="62" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2442,8 +2448,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="32">
+  <fills count="86">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2621,8 +2829,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="99">
     <border>
       <left/>
       <right/>
@@ -2986,6 +3500,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2993,7 +4159,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="92">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3150,52 +4316,148 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="7" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="10" fontId="16" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="13" fontId="17" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="16" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="19" fontId="20" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="22" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="13" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="25" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="25" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="28" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="31" fontId="29" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="34" fontId="30" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="37" fontId="32" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="40" fontId="33" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="43" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="36" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="49" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="40" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="52" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="52" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="55" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="45" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="61" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="64" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="67" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="70" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="76" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="67" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="79" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="79" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="82" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="85" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3642,7 +4904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF135"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -4599,7 +5861,7 @@
         <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>482</v>
+        <v>707</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
@@ -4622,7 +5884,7 @@
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>482</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -4642,7 +5904,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
@@ -4662,13 +5924,13 @@
         <v>455</v>
       </c>
       <c r="F21" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
       <c r="H21" t="s">
         <v>294</v>
       </c>
       <c r="L21" t="s">
-        <v>435</v>
+        <v>708</v>
       </c>
       <c r="Z21" t="s">
         <v>107</v>
@@ -4682,7 +5944,7 @@
         <v>479</v>
       </c>
       <c r="F22" t="s">
-        <v>678</v>
+        <v>253</v>
       </c>
       <c r="H22" t="s">
         <v>295</v>
@@ -4702,7 +5964,7 @@
         <v>480</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>678</v>
       </c>
       <c r="H23" t="s">
         <v>296</v>
@@ -4722,7 +5984,7 @@
         <v>361</v>
       </c>
       <c r="F24" t="s">
-        <v>318</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
         <v>287</v>
@@ -4742,7 +6004,7 @@
         <v>451</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>318</v>
       </c>
       <c r="H25" t="s">
         <v>276</v>
@@ -4762,7 +6024,7 @@
         <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>551</v>
+        <v>63</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -4782,7 +6044,7 @@
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>223</v>
+        <v>551</v>
       </c>
       <c r="H27" t="s">
         <v>279</v>
@@ -4802,7 +6064,7 @@
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H28" t="s">
         <v>263</v>
@@ -4819,7 +6081,7 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>594</v>
+        <v>224</v>
       </c>
       <c r="H29" t="s">
         <v>280</v>
@@ -4836,7 +6098,7 @@
         <v>481</v>
       </c>
       <c r="F30" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H30" t="s">
         <v>281</v>
@@ -4850,7 +6112,7 @@
         <v>225</v>
       </c>
       <c r="F31" t="s">
-        <v>483</v>
+        <v>595</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
@@ -4861,7 +6123,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>64</v>
+        <v>483</v>
       </c>
       <c r="H32" t="s">
         <v>272</v>
@@ -4872,7 +6134,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H33" t="s">
         <v>282</v>
@@ -4883,7 +6145,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H34" t="s">
         <v>648</v>
@@ -4894,7 +6156,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H35" t="s">
         <v>257</v>
@@ -4905,7 +6167,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
         <v>327</v>
@@ -4916,7 +6178,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
         <v>304</v>
@@ -4927,7 +6189,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
         <v>258</v>
@@ -4938,7 +6200,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H39" t="s">
         <v>305</v>
@@ -4948,6 +6210,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>71</v>
+      </c>
       <c r="H40" t="s">
         <v>264</v>
       </c>
@@ -5613,7 +6878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P998"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -17357,7 +18622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E030708B-B33F-D549-9D55-0B334D80E114}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -40749,7 +42014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060D7543-C6E1-B948-BFC2-C5232B033220}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -52265,7 +53530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EEE9D7-76D6-8F49-9E37-A21CA95041B3}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{FA24005E-8F01-874A-A1C7-5E2EAD55496A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="21140" windowWidth="25600" xWindow="6280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-21140" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21140" windowWidth="25600" xWindow="6280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-21140"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="718">
   <si>
     <t>description</t>
   </si>
@@ -2277,7 +2277,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2475,8 +2475,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="32">
+  <fills count="59">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2654,8 +2755,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -3019,6 +3273,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3026,7 +3606,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="76">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3183,52 +3763,100 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="7" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="10" fontId="16" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="13" fontId="17" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="16" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="19" fontId="20" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="22" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="13" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="25" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="25" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="28" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="31" fontId="29" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="49" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="40" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="52" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="52" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3675,7 +4303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF137"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -5662,7 +6290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P998"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -17406,7 +18034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E030708B-B33F-D549-9D55-0B334D80E114}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -40800,7 +41428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060D7543-C6E1-B948-BFC2-C5232B033220}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -52316,7 +52944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EEE9D7-76D6-8F49-9E37-A21CA95041B3}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -52,7 +52,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="719">
   <si>
     <t>description</t>
   </si>
@@ -2271,13 +2271,16 @@
   <si>
     <t>saveSelectedValue(var,locator)</t>
   </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="78" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2576,8 +2579,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="59">
+  <fills count="113">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2908,8 +3113,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="67">
+  <borders count="131">
     <border>
       <left/>
       <right/>
@@ -3599,6 +4110,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3606,7 +4769,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="108">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3811,52 +4974,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="31" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="34" fontId="30" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="37" fontId="32" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="40" fontId="33" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="43" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="43" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="36" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="49" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="49" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="40" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="40" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="52" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="52" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="52" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="52" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="55" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="45" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="61" fontId="46" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="64" fontId="48" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="67" fontId="49" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="70" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="73" fontId="52" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="76" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="67" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="79" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="79" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="70" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="82" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="70" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="85" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="88" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="91" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="94" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="97" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="100" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="103" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="94" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="106" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="106" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4301,7 +5560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6011,7 +7270,7 @@
         <v>268</v>
       </c>
       <c r="Z89" t="s">
-        <v>198</v>
+        <v>718</v>
       </c>
     </row>
     <row r="90">
@@ -6019,7 +7278,7 @@
         <v>285</v>
       </c>
       <c r="Z90" t="s">
-        <v>534</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91">
@@ -6027,7 +7286,7 @@
         <v>269</v>
       </c>
       <c r="Z91" t="s">
-        <v>199</v>
+        <v>534</v>
       </c>
     </row>
     <row r="92">
@@ -6035,7 +7294,7 @@
         <v>270</v>
       </c>
       <c r="Z92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93">
@@ -6043,7 +7302,7 @@
         <v>302</v>
       </c>
       <c r="Z93" t="s">
-        <v>665</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94">
@@ -6051,7 +7310,7 @@
         <v>308</v>
       </c>
       <c r="Z94" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="95">
@@ -6059,7 +7318,7 @@
         <v>292</v>
       </c>
       <c r="Z95" t="s">
-        <v>213</v>
+        <v>666</v>
       </c>
     </row>
     <row r="96">
@@ -6067,7 +7326,7 @@
         <v>337</v>
       </c>
       <c r="Z96" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="97">
@@ -6075,7 +7334,7 @@
         <v>274</v>
       </c>
       <c r="Z97" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98">
@@ -6083,201 +7342,206 @@
         <v>275</v>
       </c>
       <c r="Z98" t="s">
-        <v>496</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>716</v>
+        <v>496</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>503</v>
+        <v>717</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>202</v>
+        <v>503</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>626</v>
+        <v>206</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>684</v>
+        <v>626</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>629</v>
+        <v>684</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>147</v>
+        <v>629</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>630</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>437</v>
+        <v>630</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>148</v>
+        <v>437</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>510</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>161</v>
+        <v>510</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>663</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>162</v>
+        <v>663</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="Z138" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="719">
   <si>
     <t>description</t>
   </si>
@@ -2280,7 +2280,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="78" x14ac:knownFonts="1">
+  <fonts count="94" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2781,8 +2781,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="113">
+  <fills count="140">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3419,8 +3520,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="131">
+  <borders count="163">
     <border>
       <left/>
       <right/>
@@ -4762,6 +5016,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4769,7 +5349,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="124">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5070,52 +5650,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="85" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="88" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="88" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="91" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="91" fontId="64" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="94" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="94" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="97" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="97" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="100" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="100" fontId="68" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="103" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="103" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="94" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="94" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="106" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="106" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="106" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="106" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="97" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="109" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="97" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="112" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="115" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="118" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="121" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="124" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="127" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="130" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="121" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="133" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="133" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="136" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="139" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -30,7 +30,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -43,7 +43,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -52,9 +52,9 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
     <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4507" uniqueCount="729">
   <si>
     <t>description</t>
   </si>
@@ -2274,13 +2274,43 @@
   <si>
     <t>saveBrowserVersion(var)</t>
   </si>
+  <si>
+    <t>saveTotalDataCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="94" x14ac:knownFonts="1">
+  <fonts count="110" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2882,8 +2912,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="140">
+  <fills count="167">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3673,8 +3804,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="163">
+  <borders count="195">
     <border>
       <left/>
       <right/>
@@ -5342,6 +5626,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5349,7 +5959,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="140">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5698,52 +6308,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="112" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="115" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="115" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="118" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="118" fontId="80" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="121" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="121" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="124" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="124" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="127" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="127" fontId="84" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="130" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="130" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="121" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="121" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="133" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="133" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="133" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="133" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="124" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="136" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="136" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="124" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="139" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="139" fontId="93" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="142" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="145" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="148" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="151" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="154" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="157" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="148" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="160" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="160" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6188,7 +6846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF138"/>
+  <dimension ref="A1:AF144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6620,7 +7278,7 @@
         <v>172</v>
       </c>
       <c r="AB5" t="s">
-        <v>177</v>
+        <v>727</v>
       </c>
       <c r="AC5" t="s">
         <v>183</v>
@@ -6691,7 +7349,7 @@
         <v>511</v>
       </c>
       <c r="AB6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC6" t="s">
         <v>184</v>
@@ -6753,7 +7411,7 @@
         <v>512</v>
       </c>
       <c r="AB7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AC7" t="s">
         <v>185</v>
@@ -6809,7 +7467,7 @@
         <v>173</v>
       </c>
       <c r="AB8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AC8" t="s">
         <v>186</v>
@@ -6861,6 +7519,9 @@
       <c r="Z9" t="s">
         <v>207</v>
       </c>
+      <c r="AB9" t="s">
+        <v>180</v>
+      </c>
       <c r="AC9" t="s">
         <v>187</v>
       </c>
@@ -6879,7 +7540,7 @@
         <v>303</v>
       </c>
       <c r="I10" t="s">
-        <v>533</v>
+        <v>719</v>
       </c>
       <c r="L10" t="s">
         <v>80</v>
@@ -6901,6 +7562,9 @@
       </c>
       <c r="Z10" t="s">
         <v>254</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>728</v>
       </c>
       <c r="AC10" t="s">
         <v>188</v>
@@ -6920,7 +7584,7 @@
         <v>358</v>
       </c>
       <c r="I11" t="s">
-        <v>319</v>
+        <v>533</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -6958,7 +7622,7 @@
         <v>271</v>
       </c>
       <c r="I12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L12" t="s">
         <v>624</v>
@@ -6996,7 +7660,7 @@
         <v>260</v>
       </c>
       <c r="I13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L13" t="s">
         <v>444</v>
@@ -7008,7 +7672,7 @@
         <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>252</v>
+        <v>720</v>
       </c>
       <c r="Z13" t="s">
         <v>323</v>
@@ -7031,7 +7695,7 @@
         <v>313</v>
       </c>
       <c r="I14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -7043,7 +7707,7 @@
         <v>95</v>
       </c>
       <c r="S14" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Z14" t="s">
         <v>102</v>
@@ -7065,6 +7729,9 @@
       <c r="H15" t="s">
         <v>261</v>
       </c>
+      <c r="I15" t="s">
+        <v>322</v>
+      </c>
       <c r="L15" t="s">
         <v>41</v>
       </c>
@@ -7075,10 +7742,10 @@
         <v>619</v>
       </c>
       <c r="S15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Z15" t="s">
-        <v>103</v>
+        <v>721</v>
       </c>
       <c r="AC15" t="s">
         <v>192</v>
@@ -7107,10 +7774,10 @@
         <v>620</v>
       </c>
       <c r="S16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Z16" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="AC16" t="s">
         <v>193</v>
@@ -7135,8 +7802,11 @@
       <c r="N17" t="s">
         <v>39</v>
       </c>
+      <c r="S17" t="s">
+        <v>250</v>
+      </c>
       <c r="Z17" t="s">
-        <v>621</v>
+        <v>75</v>
       </c>
       <c r="AC17" t="s">
         <v>568</v>
@@ -7162,7 +7832,7 @@
         <v>42</v>
       </c>
       <c r="Z18" t="s">
-        <v>104</v>
+        <v>621</v>
       </c>
       <c r="AE18" t="s">
         <v>595</v>
@@ -7182,7 +7852,7 @@
         <v>537</v>
       </c>
       <c r="Z19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AE19" t="s">
         <v>613</v>
@@ -7202,7 +7872,7 @@
         <v>83</v>
       </c>
       <c r="Z20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AE20" t="s">
         <v>614</v>
@@ -7222,7 +7892,7 @@
         <v>84</v>
       </c>
       <c r="Z21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE21" t="s">
         <v>618</v>
@@ -7242,7 +7912,7 @@
         <v>686</v>
       </c>
       <c r="Z22" t="s">
-        <v>602</v>
+        <v>107</v>
       </c>
       <c r="AE22" t="s">
         <v>233</v>
@@ -7262,7 +7932,7 @@
         <v>575</v>
       </c>
       <c r="Z23" t="s">
-        <v>108</v>
+        <v>602</v>
       </c>
       <c r="AE23" t="s">
         <v>654</v>
@@ -7282,7 +7952,7 @@
         <v>43</v>
       </c>
       <c r="Z24" t="s">
-        <v>661</v>
+        <v>108</v>
       </c>
       <c r="AE24" t="s">
         <v>655</v>
@@ -7302,7 +7972,7 @@
         <v>446</v>
       </c>
       <c r="Z25" t="s">
-        <v>109</v>
+        <v>661</v>
       </c>
       <c r="AE25" t="s">
         <v>656</v>
@@ -7322,7 +7992,7 @@
         <v>642</v>
       </c>
       <c r="Z26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AE26" t="s">
         <v>234</v>
@@ -7342,7 +8012,7 @@
         <v>85</v>
       </c>
       <c r="Z27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AE27" t="s">
         <v>235</v>
@@ -7362,7 +8032,7 @@
         <v>506</v>
       </c>
       <c r="Z28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
@@ -7379,7 +8049,7 @@
         <v>44</v>
       </c>
       <c r="Z29" t="s">
-        <v>324</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
@@ -7396,7 +8066,7 @@
         <v>45</v>
       </c>
       <c r="Z30" t="s">
-        <v>113</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31">
@@ -7410,7 +8080,7 @@
         <v>214</v>
       </c>
       <c r="Z31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -7421,7 +8091,7 @@
         <v>272</v>
       </c>
       <c r="Z32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
@@ -7432,7 +8102,7 @@
         <v>282</v>
       </c>
       <c r="Z33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
@@ -7443,7 +8113,7 @@
         <v>627</v>
       </c>
       <c r="Z34" t="s">
-        <v>662</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
@@ -7454,7 +8124,7 @@
         <v>257</v>
       </c>
       <c r="Z35" t="s">
-        <v>117</v>
+        <v>662</v>
       </c>
     </row>
     <row r="36">
@@ -7465,7 +8135,7 @@
         <v>327</v>
       </c>
       <c r="Z36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37">
@@ -7476,7 +8146,7 @@
         <v>304</v>
       </c>
       <c r="Z37" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38">
@@ -7487,7 +8157,7 @@
         <v>258</v>
       </c>
       <c r="Z38" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39">
@@ -7498,7 +8168,7 @@
         <v>305</v>
       </c>
       <c r="Z39" t="s">
-        <v>335</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40">
@@ -7506,7 +8176,7 @@
         <v>264</v>
       </c>
       <c r="Z40" t="s">
-        <v>495</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41">
@@ -7514,7 +8184,7 @@
         <v>78</v>
       </c>
       <c r="Z41" t="s">
-        <v>683</v>
+        <v>495</v>
       </c>
     </row>
     <row r="42">
@@ -7522,7 +8192,7 @@
         <v>210</v>
       </c>
       <c r="Z42" t="s">
-        <v>447</v>
+        <v>683</v>
       </c>
     </row>
     <row r="43">
@@ -7530,7 +8200,7 @@
         <v>658</v>
       </c>
       <c r="Z43" t="s">
-        <v>120</v>
+        <v>447</v>
       </c>
     </row>
     <row r="44">
@@ -7538,7 +8208,7 @@
         <v>286</v>
       </c>
       <c r="Z44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
@@ -7546,7 +8216,7 @@
         <v>297</v>
       </c>
       <c r="Z45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46">
@@ -7554,7 +8224,7 @@
         <v>298</v>
       </c>
       <c r="Z46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47">
@@ -7562,7 +8232,7 @@
         <v>340</v>
       </c>
       <c r="Z47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48">
@@ -7570,7 +8240,7 @@
         <v>339</v>
       </c>
       <c r="Z48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49">
@@ -7578,7 +8248,7 @@
         <v>209</v>
       </c>
       <c r="Z49" t="s">
-        <v>508</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50">
@@ -7586,7 +8256,7 @@
         <v>317</v>
       </c>
       <c r="Z50" t="s">
-        <v>211</v>
+        <v>508</v>
       </c>
     </row>
     <row r="51">
@@ -7594,7 +8264,7 @@
         <v>336</v>
       </c>
       <c r="Z51" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52">
@@ -7602,7 +8272,7 @@
         <v>372</v>
       </c>
       <c r="Z52" t="s">
-        <v>650</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
@@ -7610,7 +8280,7 @@
         <v>299</v>
       </c>
       <c r="Z53" t="s">
-        <v>126</v>
+        <v>650</v>
       </c>
     </row>
     <row r="54">
@@ -7618,7 +8288,7 @@
         <v>360</v>
       </c>
       <c r="Z54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55">
@@ -7626,7 +8296,7 @@
         <v>328</v>
       </c>
       <c r="Z55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56">
@@ -7634,7 +8304,7 @@
         <v>265</v>
       </c>
       <c r="Z56" t="s">
-        <v>603</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57">
@@ -7642,7 +8312,7 @@
         <v>289</v>
       </c>
       <c r="Z57" t="s">
-        <v>570</v>
+        <v>603</v>
       </c>
     </row>
     <row r="58">
@@ -7650,7 +8320,7 @@
         <v>290</v>
       </c>
       <c r="Z58" t="s">
-        <v>129</v>
+        <v>570</v>
       </c>
     </row>
     <row r="59">
@@ -7658,7 +8328,7 @@
         <v>659</v>
       </c>
       <c r="Z59" t="s">
-        <v>352</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60">
@@ -7666,7 +8336,7 @@
         <v>291</v>
       </c>
       <c r="Z60" t="s">
-        <v>564</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61">
@@ -7674,7 +8344,7 @@
         <v>300</v>
       </c>
       <c r="Z61" t="s">
-        <v>130</v>
+        <v>564</v>
       </c>
     </row>
     <row r="62">
@@ -7682,7 +8352,7 @@
         <v>309</v>
       </c>
       <c r="Z62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63">
@@ -7690,7 +8360,7 @@
         <v>334</v>
       </c>
       <c r="Z63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64">
@@ -7698,7 +8368,7 @@
         <v>306</v>
       </c>
       <c r="Z64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65">
@@ -7706,7 +8376,7 @@
         <v>307</v>
       </c>
       <c r="Z65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66">
@@ -7714,7 +8384,7 @@
         <v>373</v>
       </c>
       <c r="Z66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67">
@@ -7722,7 +8392,7 @@
         <v>374</v>
       </c>
       <c r="Z67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68">
@@ -7730,7 +8400,7 @@
         <v>342</v>
       </c>
       <c r="Z68" t="s">
-        <v>504</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69">
@@ -7738,7 +8408,7 @@
         <v>310</v>
       </c>
       <c r="Z69" t="s">
-        <v>593</v>
+        <v>504</v>
       </c>
     </row>
     <row r="70">
@@ -7746,7 +8416,7 @@
         <v>266</v>
       </c>
       <c r="Z70" t="s">
-        <v>212</v>
+        <v>593</v>
       </c>
     </row>
     <row r="71">
@@ -7754,7 +8424,7 @@
         <v>646</v>
       </c>
       <c r="Z71" t="s">
-        <v>443</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72">
@@ -7762,7 +8432,7 @@
         <v>311</v>
       </c>
       <c r="Z72" t="s">
-        <v>509</v>
+        <v>443</v>
       </c>
     </row>
     <row r="73">
@@ -7770,7 +8440,7 @@
         <v>476</v>
       </c>
       <c r="Z73" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
     </row>
     <row r="74">
@@ -7778,7 +8448,7 @@
         <v>301</v>
       </c>
       <c r="Z74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75">
@@ -7786,7 +8456,7 @@
         <v>477</v>
       </c>
       <c r="Z75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76">
@@ -7794,7 +8464,7 @@
         <v>259</v>
       </c>
       <c r="Z76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77">
@@ -7802,7 +8472,7 @@
         <v>628</v>
       </c>
       <c r="Z77" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78">
@@ -7810,7 +8480,7 @@
         <v>341</v>
       </c>
       <c r="Z78" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79">
@@ -7818,7 +8488,7 @@
         <v>277</v>
       </c>
       <c r="Z79" t="s">
-        <v>535</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80">
@@ -7826,7 +8496,7 @@
         <v>283</v>
       </c>
       <c r="Z80" t="s">
-        <v>572</v>
+        <v>535</v>
       </c>
     </row>
     <row r="81">
@@ -7834,7 +8504,7 @@
         <v>288</v>
       </c>
       <c r="Z81" t="s">
-        <v>141</v>
+        <v>572</v>
       </c>
     </row>
     <row r="82">
@@ -7842,7 +8512,7 @@
         <v>483</v>
       </c>
       <c r="Z82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83">
@@ -7850,7 +8520,7 @@
         <v>329</v>
       </c>
       <c r="Z83" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84">
@@ -7858,7 +8528,7 @@
         <v>267</v>
       </c>
       <c r="Z84" t="s">
-        <v>615</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85">
@@ -7866,7 +8536,7 @@
         <v>278</v>
       </c>
       <c r="Z85" t="s">
-        <v>144</v>
+        <v>615</v>
       </c>
     </row>
     <row r="86">
@@ -7874,7 +8544,7 @@
         <v>284</v>
       </c>
       <c r="Z86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87">
@@ -7882,7 +8552,7 @@
         <v>273</v>
       </c>
       <c r="Z87" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88">
@@ -7890,7 +8560,7 @@
         <v>647</v>
       </c>
       <c r="Z88" t="s">
-        <v>604</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89">
@@ -7898,7 +8568,7 @@
         <v>268</v>
       </c>
       <c r="Z89" t="s">
-        <v>718</v>
+        <v>604</v>
       </c>
     </row>
     <row r="90">
@@ -7906,7 +8576,7 @@
         <v>285</v>
       </c>
       <c r="Z90" t="s">
-        <v>198</v>
+        <v>718</v>
       </c>
     </row>
     <row r="91">
@@ -7914,7 +8584,7 @@
         <v>269</v>
       </c>
       <c r="Z91" t="s">
-        <v>534</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92">
@@ -7922,7 +8592,7 @@
         <v>270</v>
       </c>
       <c r="Z92" t="s">
-        <v>199</v>
+        <v>534</v>
       </c>
     </row>
     <row r="93">
@@ -7930,7 +8600,7 @@
         <v>302</v>
       </c>
       <c r="Z93" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94">
@@ -7938,7 +8608,7 @@
         <v>308</v>
       </c>
       <c r="Z94" t="s">
-        <v>665</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95">
@@ -7946,7 +8616,7 @@
         <v>292</v>
       </c>
       <c r="Z95" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="96">
@@ -7954,7 +8624,7 @@
         <v>337</v>
       </c>
       <c r="Z96" t="s">
-        <v>213</v>
+        <v>666</v>
       </c>
     </row>
     <row r="97">
@@ -7962,7 +8632,7 @@
         <v>274</v>
       </c>
       <c r="Z97" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98">
@@ -7970,206 +8640,236 @@
         <v>275</v>
       </c>
       <c r="Z98" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>496</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>716</v>
+        <v>496</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>503</v>
+        <v>717</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>202</v>
+        <v>503</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>626</v>
+        <v>722</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>684</v>
+        <v>206</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>147</v>
+        <v>684</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>437</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>148</v>
+        <v>630</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>149</v>
+        <v>437</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>152</v>
+        <v>723</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>155</v>
+        <v>724</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>510</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>161</v>
+        <v>725</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>663</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>164</v>
+        <v>510</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>165</v>
+        <v>663</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138">
       <c r="Z138" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="Z139" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="Z140" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="Z141" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="Z142" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="Z143" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="Z144" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -30,7 +30,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4507" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5084" uniqueCount="731">
   <si>
     <t>description</t>
   </si>
@@ -2304,13 +2304,19 @@
   <si>
     <t>saveAllAsText(var,exclude)</t>
   </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="110" x14ac:knownFonts="1">
+  <fonts count="126" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3013,8 +3019,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="167">
+  <fills count="194">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3957,8 +4064,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="195">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5952,6 +6212,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5959,7 +6545,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="156">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6356,52 +6942,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="139" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="142" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="142" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="145" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="174" fillId="145" fontId="96" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="148" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="148" fontId="97" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="151" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="151" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="154" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="154" fontId="100" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="157" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="157" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="148" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="148" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="160" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="160" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="160" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="160" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="151" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="163" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="151" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="166" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="169" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="172" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="175" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="178" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="181" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="184" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="175" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="187" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="187" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="190" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="193" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7540,7 +8174,7 @@
         <v>303</v>
       </c>
       <c r="I10" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="L10" t="s">
         <v>80</v>
@@ -7584,7 +8218,7 @@
         <v>358</v>
       </c>
       <c r="I11" t="s">
-        <v>533</v>
+        <v>730</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -7622,7 +8256,7 @@
         <v>271</v>
       </c>
       <c r="I12" t="s">
-        <v>319</v>
+        <v>533</v>
       </c>
       <c r="L12" t="s">
         <v>624</v>
@@ -7660,7 +8294,7 @@
         <v>260</v>
       </c>
       <c r="I13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L13" t="s">
         <v>444</v>
@@ -7695,7 +8329,7 @@
         <v>313</v>
       </c>
       <c r="I14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -7730,7 +8364,7 @@
         <v>261</v>
       </c>
       <c r="I15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L15" t="s">
         <v>41</v>
@@ -7763,6 +8397,9 @@
       </c>
       <c r="H16" t="s">
         <v>262</v>
+      </c>
+      <c r="I16" t="s">
+        <v>322</v>
       </c>
       <c r="L16" t="s">
         <v>625</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -32,7 +32,7 @@
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -50,14 +50,15 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5084" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6254" uniqueCount="740">
   <si>
     <t>description</t>
   </si>
@@ -2310,13 +2311,40 @@
   <si>
     <t>saveTotalRowCount(file,worksheet,saveVar)</t>
   </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>ocr(source,saveVar)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="126" x14ac:knownFonts="1">
+  <fonts count="158" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3120,8 +3148,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="194">
+  <fills count="248">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4217,8 +4447,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="291">
     <border>
       <left/>
       <right/>
@@ -6538,6 +7074,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6545,7 +7733,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="188">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6990,52 +8178,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="166" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="169" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="169" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="172" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="172" fontId="112" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="175" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="175" fontId="113" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="178" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="178" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="181" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="181" fontId="116" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="184" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="184" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="175" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="175" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="187" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="187" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="187" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="187" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="178" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="190" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="190" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="178" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="193" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="193" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="196" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="199" fontId="128" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="202" fontId="129" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="205" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="208" fontId="132" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="211" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="202" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="214" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="214" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="205" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="217" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="205" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="220" fontId="141" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="223" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="226" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="229" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="232" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="235" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="238" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="229" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="241" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="241" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="244" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="247" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7480,7 +8764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF144"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7568,21 +8852,24 @@
         <v>450</v>
       </c>
       <c r="Z1" t="s">
+        <v>731</v>
+      </c>
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>480</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -7618,7 +8905,7 @@
         <v>79</v>
       </c>
       <c r="K2" t="s">
-        <v>571</v>
+        <v>738</v>
       </c>
       <c r="L2" t="s">
         <v>312</v>
@@ -7663,21 +8950,24 @@
         <v>451</v>
       </c>
       <c r="Z2" t="s">
+        <v>733</v>
+      </c>
+      <c r="AA2" t="s">
         <v>96</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>169</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>174</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>181</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>497</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>610</v>
       </c>
     </row>
@@ -7749,21 +9039,24 @@
         <v>452</v>
       </c>
       <c r="Z3" t="s">
+        <v>734</v>
+      </c>
+      <c r="AA3" t="s">
         <v>97</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>170</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>175</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>368</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>182</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -7832,21 +9125,24 @@
         <v>453</v>
       </c>
       <c r="Z4" t="s">
+        <v>735</v>
+      </c>
+      <c r="AA4" t="s">
         <v>715</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>171</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>176</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>182</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>498</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -7906,21 +9202,24 @@
         <v>363</v>
       </c>
       <c r="Z5" t="s">
+        <v>736</v>
+      </c>
+      <c r="AA5" t="s">
         <v>682</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>172</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>727</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>183</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>499</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -7950,7 +9249,7 @@
         <v>713</v>
       </c>
       <c r="K6" t="s">
-        <v>354</v>
+        <v>739</v>
       </c>
       <c r="L6" t="s">
         <v>567</v>
@@ -7977,21 +9276,24 @@
         <v>365</v>
       </c>
       <c r="Z6" t="s">
+        <v>737</v>
+      </c>
+      <c r="AA6" t="s">
         <v>98</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>511</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>177</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>184</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>500</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -8012,7 +9314,7 @@
         <v>528</v>
       </c>
       <c r="K7" t="s">
-        <v>648</v>
+        <v>354</v>
       </c>
       <c r="L7" t="s">
         <v>72</v>
@@ -8038,22 +9340,22 @@
       <c r="X7" t="s">
         <v>364</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>99</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>512</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>178</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>185</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>501</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>651</v>
       </c>
     </row>
@@ -8073,6 +9375,9 @@
       <c r="I8" t="s">
         <v>325</v>
       </c>
+      <c r="K8" t="s">
+        <v>648</v>
+      </c>
       <c r="L8" t="s">
         <v>16</v>
       </c>
@@ -8094,22 +9399,22 @@
       <c r="X8" t="s">
         <v>366</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>100</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>173</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>179</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>186</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>502</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>652</v>
       </c>
     </row>
@@ -8150,16 +9455,16 @@
       <c r="X9" t="s">
         <v>367</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>207</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>180</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>187</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>653</v>
       </c>
     </row>
@@ -8194,16 +9499,16 @@
       <c r="U10" t="s">
         <v>463</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>254</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>728</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>188</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -8235,13 +9540,13 @@
       <c r="S11" t="s">
         <v>246</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>255</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>256</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -8273,13 +9578,13 @@
       <c r="S12" t="s">
         <v>247</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>189</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -8308,13 +9613,13 @@
       <c r="S13" t="s">
         <v>720</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>323</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>190</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>594</v>
       </c>
     </row>
@@ -8343,13 +9648,13 @@
       <c r="S14" t="s">
         <v>252</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>102</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>191</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>611</v>
       </c>
     </row>
@@ -8378,13 +9683,13 @@
       <c r="S15" t="s">
         <v>248</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>721</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>192</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>612</v>
       </c>
     </row>
@@ -8413,13 +9718,13 @@
       <c r="S16" t="s">
         <v>249</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>103</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>193</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>616</v>
       </c>
     </row>
@@ -8442,13 +9747,13 @@
       <c r="S17" t="s">
         <v>250</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>75</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>568</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>617</v>
       </c>
     </row>
@@ -8468,10 +9773,10 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>621</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>595</v>
       </c>
     </row>
@@ -8488,10 +9793,10 @@
       <c r="L19" t="s">
         <v>537</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>104</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>613</v>
       </c>
     </row>
@@ -8508,10 +9813,10 @@
       <c r="L20" t="s">
         <v>83</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>105</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>614</v>
       </c>
     </row>
@@ -8528,10 +9833,10 @@
       <c r="L21" t="s">
         <v>84</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>106</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>618</v>
       </c>
     </row>
@@ -8548,10 +9853,10 @@
       <c r="L22" t="s">
         <v>686</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>107</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -8568,10 +9873,10 @@
       <c r="L23" t="s">
         <v>575</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>602</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>654</v>
       </c>
     </row>
@@ -8588,10 +9893,10 @@
       <c r="L24" t="s">
         <v>43</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>108</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>655</v>
       </c>
     </row>
@@ -8608,16 +9913,16 @@
       <c r="L25" t="s">
         <v>446</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>661</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>731</v>
       </c>
       <c r="F26" t="s">
         <v>530</v>
@@ -8628,16 +9933,16 @@
       <c r="L26" t="s">
         <v>642</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>109</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
         <v>223</v>
@@ -8648,16 +9953,16 @@
       <c r="L27" t="s">
         <v>85</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>110</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
         <v>224</v>
@@ -8668,13 +9973,13 @@
       <c r="L28" t="s">
         <v>506</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
         <v>573</v>
@@ -8685,13 +9990,13 @@
       <c r="L29" t="s">
         <v>44</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>480</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
         <v>574</v>
@@ -8702,13 +10007,13 @@
       <c r="L30" t="s">
         <v>45</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>225</v>
+        <v>480</v>
       </c>
       <c r="F31" t="s">
         <v>482</v>
@@ -8716,18 +10021,21 @@
       <c r="H31" t="s">
         <v>214</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="s">
+        <v>225</v>
+      </c>
       <c r="F32" t="s">
         <v>64</v>
       </c>
       <c r="H32" t="s">
         <v>272</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>114</v>
       </c>
     </row>
@@ -8738,7 +10046,7 @@
       <c r="H33" t="s">
         <v>282</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>115</v>
       </c>
     </row>
@@ -8749,7 +10057,7 @@
       <c r="H34" t="s">
         <v>627</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>116</v>
       </c>
     </row>
@@ -8760,7 +10068,7 @@
       <c r="H35" t="s">
         <v>257</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>662</v>
       </c>
     </row>
@@ -8771,7 +10079,7 @@
       <c r="H36" t="s">
         <v>327</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>117</v>
       </c>
     </row>
@@ -8782,7 +10090,7 @@
       <c r="H37" t="s">
         <v>304</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>118</v>
       </c>
     </row>
@@ -8793,7 +10101,7 @@
       <c r="H38" t="s">
         <v>258</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>208</v>
       </c>
     </row>
@@ -8804,7 +10112,7 @@
       <c r="H39" t="s">
         <v>305</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AA39" t="s">
         <v>119</v>
       </c>
     </row>
@@ -8812,7 +10120,7 @@
       <c r="H40" t="s">
         <v>264</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>335</v>
       </c>
     </row>
@@ -8820,7 +10128,7 @@
       <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>495</v>
       </c>
     </row>
@@ -8828,7 +10136,7 @@
       <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
         <v>683</v>
       </c>
     </row>
@@ -8836,7 +10144,7 @@
       <c r="H43" t="s">
         <v>658</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AA43" t="s">
         <v>447</v>
       </c>
     </row>
@@ -8844,7 +10152,7 @@
       <c r="H44" t="s">
         <v>286</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AA44" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8852,7 +10160,7 @@
       <c r="H45" t="s">
         <v>297</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AA45" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8860,7 +10168,7 @@
       <c r="H46" t="s">
         <v>298</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>122</v>
       </c>
     </row>
@@ -8868,7 +10176,7 @@
       <c r="H47" t="s">
         <v>340</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>123</v>
       </c>
     </row>
@@ -8876,7 +10184,7 @@
       <c r="H48" t="s">
         <v>339</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AA48" t="s">
         <v>124</v>
       </c>
     </row>
@@ -8884,7 +10192,7 @@
       <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AA49" t="s">
         <v>125</v>
       </c>
     </row>
@@ -8892,7 +10200,7 @@
       <c r="H50" t="s">
         <v>317</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>508</v>
       </c>
     </row>
@@ -8900,7 +10208,7 @@
       <c r="H51" t="s">
         <v>336</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AA51" t="s">
         <v>211</v>
       </c>
     </row>
@@ -8908,7 +10216,7 @@
       <c r="H52" t="s">
         <v>372</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AA52" t="s">
         <v>77</v>
       </c>
     </row>
@@ -8916,7 +10224,7 @@
       <c r="H53" t="s">
         <v>299</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AA53" t="s">
         <v>650</v>
       </c>
     </row>
@@ -8924,7 +10232,7 @@
       <c r="H54" t="s">
         <v>360</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AA54" t="s">
         <v>126</v>
       </c>
     </row>
@@ -8932,7 +10240,7 @@
       <c r="H55" t="s">
         <v>328</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="AA55" t="s">
         <v>127</v>
       </c>
     </row>
@@ -8940,7 +10248,7 @@
       <c r="H56" t="s">
         <v>265</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
         <v>128</v>
       </c>
     </row>
@@ -8948,7 +10256,7 @@
       <c r="H57" t="s">
         <v>289</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AA57" t="s">
         <v>603</v>
       </c>
     </row>
@@ -8956,7 +10264,7 @@
       <c r="H58" t="s">
         <v>290</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AA58" t="s">
         <v>570</v>
       </c>
     </row>
@@ -8964,7 +10272,7 @@
       <c r="H59" t="s">
         <v>659</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AA59" t="s">
         <v>129</v>
       </c>
     </row>
@@ -8972,7 +10280,7 @@
       <c r="H60" t="s">
         <v>291</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AA60" t="s">
         <v>352</v>
       </c>
     </row>
@@ -8980,7 +10288,7 @@
       <c r="H61" t="s">
         <v>300</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="AA61" t="s">
         <v>564</v>
       </c>
     </row>
@@ -8988,7 +10296,7 @@
       <c r="H62" t="s">
         <v>309</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="AA62" t="s">
         <v>130</v>
       </c>
     </row>
@@ -8996,7 +10304,7 @@
       <c r="H63" t="s">
         <v>334</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="AA63" t="s">
         <v>131</v>
       </c>
     </row>
@@ -9004,7 +10312,7 @@
       <c r="H64" t="s">
         <v>306</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AA64" t="s">
         <v>132</v>
       </c>
     </row>
@@ -9012,7 +10320,7 @@
       <c r="H65" t="s">
         <v>307</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="AA65" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9020,7 +10328,7 @@
       <c r="H66" t="s">
         <v>373</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AA66" t="s">
         <v>134</v>
       </c>
     </row>
@@ -9028,7 +10336,7 @@
       <c r="H67" t="s">
         <v>374</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="AA67" t="s">
         <v>135</v>
       </c>
     </row>
@@ -9036,7 +10344,7 @@
       <c r="H68" t="s">
         <v>342</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AA68" t="s">
         <v>136</v>
       </c>
     </row>
@@ -9044,7 +10352,7 @@
       <c r="H69" t="s">
         <v>310</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="AA69" t="s">
         <v>504</v>
       </c>
     </row>
@@ -9052,7 +10360,7 @@
       <c r="H70" t="s">
         <v>266</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="AA70" t="s">
         <v>593</v>
       </c>
     </row>
@@ -9060,7 +10368,7 @@
       <c r="H71" t="s">
         <v>646</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="AA71" t="s">
         <v>212</v>
       </c>
     </row>
@@ -9068,7 +10376,7 @@
       <c r="H72" t="s">
         <v>311</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="AA72" t="s">
         <v>443</v>
       </c>
     </row>
@@ -9076,7 +10384,7 @@
       <c r="H73" t="s">
         <v>476</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="AA73" t="s">
         <v>509</v>
       </c>
     </row>
@@ -9084,7 +10392,7 @@
       <c r="H74" t="s">
         <v>301</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="AA74" t="s">
         <v>137</v>
       </c>
     </row>
@@ -9092,7 +10400,7 @@
       <c r="H75" t="s">
         <v>477</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AA75" t="s">
         <v>138</v>
       </c>
     </row>
@@ -9100,7 +10408,7 @@
       <c r="H76" t="s">
         <v>259</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AA76" t="s">
         <v>139</v>
       </c>
     </row>
@@ -9108,7 +10416,7 @@
       <c r="H77" t="s">
         <v>628</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="AA77" t="s">
         <v>140</v>
       </c>
     </row>
@@ -9116,7 +10424,7 @@
       <c r="H78" t="s">
         <v>341</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="AA78" t="s">
         <v>195</v>
       </c>
     </row>
@@ -9124,7 +10432,7 @@
       <c r="H79" t="s">
         <v>277</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="AA79" t="s">
         <v>196</v>
       </c>
     </row>
@@ -9132,7 +10440,7 @@
       <c r="H80" t="s">
         <v>283</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="AA80" t="s">
         <v>535</v>
       </c>
     </row>
@@ -9140,7 +10448,7 @@
       <c r="H81" t="s">
         <v>288</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="AA81" t="s">
         <v>572</v>
       </c>
     </row>
@@ -9148,7 +10456,7 @@
       <c r="H82" t="s">
         <v>483</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="AA82" t="s">
         <v>141</v>
       </c>
     </row>
@@ -9156,7 +10464,7 @@
       <c r="H83" t="s">
         <v>329</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="AA83" t="s">
         <v>142</v>
       </c>
     </row>
@@ -9164,7 +10472,7 @@
       <c r="H84" t="s">
         <v>267</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="AA84" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9172,7 +10480,7 @@
       <c r="H85" t="s">
         <v>278</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="AA85" t="s">
         <v>615</v>
       </c>
     </row>
@@ -9180,7 +10488,7 @@
       <c r="H86" t="s">
         <v>284</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="AA86" t="s">
         <v>144</v>
       </c>
     </row>
@@ -9188,7 +10496,7 @@
       <c r="H87" t="s">
         <v>273</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="AA87" t="s">
         <v>145</v>
       </c>
     </row>
@@ -9196,7 +10504,7 @@
       <c r="H88" t="s">
         <v>647</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="AA88" t="s">
         <v>197</v>
       </c>
     </row>
@@ -9204,7 +10512,7 @@
       <c r="H89" t="s">
         <v>268</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="AA89" t="s">
         <v>604</v>
       </c>
     </row>
@@ -9212,7 +10520,7 @@
       <c r="H90" t="s">
         <v>285</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="AA90" t="s">
         <v>718</v>
       </c>
     </row>
@@ -9220,7 +10528,7 @@
       <c r="H91" t="s">
         <v>269</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="AA91" t="s">
         <v>198</v>
       </c>
     </row>
@@ -9228,7 +10536,7 @@
       <c r="H92" t="s">
         <v>270</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="AA92" t="s">
         <v>534</v>
       </c>
     </row>
@@ -9236,7 +10544,7 @@
       <c r="H93" t="s">
         <v>302</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="AA93" t="s">
         <v>199</v>
       </c>
     </row>
@@ -9244,7 +10552,7 @@
       <c r="H94" t="s">
         <v>308</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="AA94" t="s">
         <v>200</v>
       </c>
     </row>
@@ -9252,7 +10560,7 @@
       <c r="H95" t="s">
         <v>292</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="AA95" t="s">
         <v>665</v>
       </c>
     </row>
@@ -9260,7 +10568,7 @@
       <c r="H96" t="s">
         <v>337</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="AA96" t="s">
         <v>666</v>
       </c>
     </row>
@@ -9268,7 +10576,7 @@
       <c r="H97" t="s">
         <v>274</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="AA97" t="s">
         <v>213</v>
       </c>
     </row>
@@ -9276,237 +10584,237 @@
       <c r="H98" t="s">
         <v>275</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AA98" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="AA99" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="AA100" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="AA101" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="AA102" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="AA103" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="AA104" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="AA105" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="AA106" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="AA107" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="AA108" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="AA109" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="AA110" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="AA111" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="AA112" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="AA113" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="AA114" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="AA115" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="AA116" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="AA117" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="AA118" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="AA119" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="AA120" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="AA121" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="AA122" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="AA123" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="AA124" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="AA125" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="AA126" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="AA127" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="AA128" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="AA129" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="130">
-      <c r="Z130" t="s">
+      <c r="AA130" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="131">
-      <c r="Z131" t="s">
+      <c r="AA131" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="132">
-      <c r="Z132" t="s">
+      <c r="AA132" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="133">
-      <c r="Z133" t="s">
+      <c r="AA133" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="134">
-      <c r="Z134" t="s">
+      <c r="AA134" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="135">
-      <c r="Z135" t="s">
+      <c r="AA135" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="136">
-      <c r="Z136" t="s">
+      <c r="AA136" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="137">
-      <c r="Z137" t="s">
+      <c r="AA137" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="138">
-      <c r="Z138" t="s">
+      <c r="AA138" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="139">
-      <c r="Z139" t="s">
+      <c r="AA139" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="140">
-      <c r="Z140" t="s">
+      <c r="AA140" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="141">
-      <c r="Z141" t="s">
+      <c r="AA141" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="142">
-      <c r="Z142" t="s">
+      <c r="AA142" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="143">
-      <c r="Z143" t="s">
+      <c r="AA143" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="144">
-      <c r="Z144" t="s">
+      <c r="AA144" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -36,7 +36,7 @@
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -44,7 +44,7 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
     <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
@@ -52,13 +52,14 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
     <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
     <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
     <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6254" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6841" uniqueCount="750">
   <si>
     <t>description</t>
   </si>
@@ -2338,13 +2339,43 @@
   <si>
     <t>ocr(image,saveVar)</t>
   </si>
+  <si>
+    <t>step.inTime</t>
+  </si>
+  <si>
+    <t>queryAsCSV(var,sql)</t>
+  </si>
+  <si>
+    <t>assertResultMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>assertResultNotMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>observe(prompt,waitMs)</t>
+  </si>
+  <si>
+    <t>perform(instructions,waitMs)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses,waitMs)</t>
+  </si>
+  <si>
+    <t>assertElementDisabled(locator)</t>
+  </si>
+  <si>
+    <t>checkAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator,waitMs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="158" x14ac:knownFonts="1">
+  <fonts count="174" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3350,8 +3381,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="248">
+  <fills count="275">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4753,8 +4885,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="291">
+  <borders count="323">
     <border>
       <left/>
       <right/>
@@ -7726,6 +8011,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7733,7 +8344,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="204">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8274,52 +8885,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="220" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="223" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="223" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="226" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="226" fontId="144" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="229" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="229" fontId="145" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="232" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="232" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="235" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="235" fontId="148" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="238" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="238" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="229" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="286" fillId="229" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="241" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="241" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="241" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="241" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="232" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="244" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="244" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="232" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="247" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="247" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="250" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="253" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="256" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="259" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="262" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="265" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="256" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="268" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="268" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="259" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="271" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="259" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="274" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8764,7 +9423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG144"/>
+  <dimension ref="A1:AG145"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8852,7 +9511,7 @@
         <v>450</v>
       </c>
       <c r="Z1" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="AA1" t="s">
         <v>54</v>
@@ -8932,7 +9591,7 @@
         <v>251</v>
       </c>
       <c r="T2" t="s">
-        <v>215</v>
+        <v>742</v>
       </c>
       <c r="U2" t="s">
         <v>455</v>
@@ -8950,7 +9609,7 @@
         <v>451</v>
       </c>
       <c r="Z2" t="s">
-        <v>733</v>
+        <v>744</v>
       </c>
       <c r="AA2" t="s">
         <v>96</v>
@@ -9024,7 +9683,7 @@
         <v>238</v>
       </c>
       <c r="T3" t="s">
-        <v>216</v>
+        <v>743</v>
       </c>
       <c r="U3" t="s">
         <v>456</v>
@@ -9039,7 +9698,7 @@
         <v>452</v>
       </c>
       <c r="Z3" t="s">
-        <v>734</v>
+        <v>745</v>
       </c>
       <c r="AA3" t="s">
         <v>97</v>
@@ -9110,7 +9769,7 @@
         <v>239</v>
       </c>
       <c r="T4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="U4" t="s">
         <v>457</v>
@@ -9125,7 +9784,7 @@
         <v>453</v>
       </c>
       <c r="Z4" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="AA4" t="s">
         <v>715</v>
@@ -9190,7 +9849,7 @@
         <v>240</v>
       </c>
       <c r="T5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="U5" t="s">
         <v>458</v>
@@ -9200,9 +9859,6 @@
       </c>
       <c r="X5" t="s">
         <v>363</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>736</v>
       </c>
       <c r="AA5" t="s">
         <v>682</v>
@@ -9267,16 +9923,13 @@
         <v>241</v>
       </c>
       <c r="T6" t="s">
-        <v>445</v>
+        <v>217</v>
       </c>
       <c r="U6" t="s">
         <v>459</v>
       </c>
       <c r="X6" t="s">
         <v>365</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>737</v>
       </c>
       <c r="AA6" t="s">
         <v>98</v>
@@ -9332,7 +9985,7 @@
         <v>242</v>
       </c>
       <c r="T7" t="s">
-        <v>489</v>
+        <v>218</v>
       </c>
       <c r="U7" t="s">
         <v>460</v>
@@ -9393,6 +10046,9 @@
       <c r="S8" t="s">
         <v>243</v>
       </c>
+      <c r="T8" t="s">
+        <v>445</v>
+      </c>
       <c r="U8" t="s">
         <v>461</v>
       </c>
@@ -9449,6 +10105,9 @@
       <c r="S9" t="s">
         <v>244</v>
       </c>
+      <c r="T9" t="s">
+        <v>489</v>
+      </c>
       <c r="U9" t="s">
         <v>462</v>
       </c>
@@ -9570,7 +10229,7 @@
         <v>649</v>
       </c>
       <c r="O12" t="s">
-        <v>637</v>
+        <v>741</v>
       </c>
       <c r="R12" t="s">
         <v>40</v>
@@ -9607,6 +10266,9 @@
       <c r="N13" t="s">
         <v>507</v>
       </c>
+      <c r="O13" t="s">
+        <v>637</v>
+      </c>
       <c r="R13" t="s">
         <v>94</v>
       </c>
@@ -9684,7 +10346,7 @@
         <v>248</v>
       </c>
       <c r="AA15" t="s">
-        <v>721</v>
+        <v>747</v>
       </c>
       <c r="AD15" t="s">
         <v>192</v>
@@ -9719,7 +10381,7 @@
         <v>249</v>
       </c>
       <c r="AA16" t="s">
-        <v>103</v>
+        <v>721</v>
       </c>
       <c r="AD16" t="s">
         <v>193</v>
@@ -9748,7 +10410,7 @@
         <v>250</v>
       </c>
       <c r="AA17" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="AD17" t="s">
         <v>568</v>
@@ -9774,7 +10436,7 @@
         <v>42</v>
       </c>
       <c r="AA18" t="s">
-        <v>621</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="s">
         <v>595</v>
@@ -9794,7 +10456,7 @@
         <v>537</v>
       </c>
       <c r="AA19" t="s">
-        <v>104</v>
+        <v>621</v>
       </c>
       <c r="AF19" t="s">
         <v>613</v>
@@ -9814,7 +10476,7 @@
         <v>83</v>
       </c>
       <c r="AA20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF20" t="s">
         <v>614</v>
@@ -9834,7 +10496,7 @@
         <v>84</v>
       </c>
       <c r="AA21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF21" t="s">
         <v>618</v>
@@ -9854,7 +10516,7 @@
         <v>686</v>
       </c>
       <c r="AA22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF22" t="s">
         <v>233</v>
@@ -9874,7 +10536,7 @@
         <v>575</v>
       </c>
       <c r="AA23" t="s">
-        <v>602</v>
+        <v>107</v>
       </c>
       <c r="AF23" t="s">
         <v>654</v>
@@ -9894,7 +10556,7 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>108</v>
+        <v>602</v>
       </c>
       <c r="AF24" t="s">
         <v>655</v>
@@ -9914,7 +10576,7 @@
         <v>446</v>
       </c>
       <c r="AA25" t="s">
-        <v>661</v>
+        <v>108</v>
       </c>
       <c r="AF25" t="s">
         <v>656</v>
@@ -9922,7 +10584,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="F26" t="s">
         <v>530</v>
@@ -9934,7 +10596,7 @@
         <v>642</v>
       </c>
       <c r="AA26" t="s">
-        <v>109</v>
+        <v>661</v>
       </c>
       <c r="AF26" t="s">
         <v>234</v>
@@ -9954,7 +10616,7 @@
         <v>85</v>
       </c>
       <c r="AA27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF27" t="s">
         <v>235</v>
@@ -9974,7 +10636,7 @@
         <v>506</v>
       </c>
       <c r="AA28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -9991,7 +10653,7 @@
         <v>44</v>
       </c>
       <c r="AA29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30">
@@ -10008,7 +10670,7 @@
         <v>45</v>
       </c>
       <c r="AA30" t="s">
-        <v>324</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
@@ -10022,7 +10684,7 @@
         <v>214</v>
       </c>
       <c r="AA31" t="s">
-        <v>113</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32">
@@ -10036,7 +10698,7 @@
         <v>272</v>
       </c>
       <c r="AA32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -10047,7 +10709,7 @@
         <v>282</v>
       </c>
       <c r="AA33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -10058,7 +10720,7 @@
         <v>627</v>
       </c>
       <c r="AA34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
@@ -10069,7 +10731,7 @@
         <v>257</v>
       </c>
       <c r="AA35" t="s">
-        <v>662</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36">
@@ -10080,7 +10742,7 @@
         <v>327</v>
       </c>
       <c r="AA36" t="s">
-        <v>117</v>
+        <v>662</v>
       </c>
     </row>
     <row r="37">
@@ -10091,7 +10753,7 @@
         <v>304</v>
       </c>
       <c r="AA37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38">
@@ -10102,7 +10764,7 @@
         <v>258</v>
       </c>
       <c r="AA38" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39">
@@ -10113,7 +10775,7 @@
         <v>305</v>
       </c>
       <c r="AA39" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40">
@@ -10121,7 +10783,7 @@
         <v>264</v>
       </c>
       <c r="AA40" t="s">
-        <v>335</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
@@ -10129,7 +10791,7 @@
         <v>78</v>
       </c>
       <c r="AA41" t="s">
-        <v>495</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42">
@@ -10137,7 +10799,7 @@
         <v>210</v>
       </c>
       <c r="AA42" t="s">
-        <v>683</v>
+        <v>495</v>
       </c>
     </row>
     <row r="43">
@@ -10145,7 +10807,7 @@
         <v>658</v>
       </c>
       <c r="AA43" t="s">
-        <v>447</v>
+        <v>683</v>
       </c>
     </row>
     <row r="44">
@@ -10153,7 +10815,7 @@
         <v>286</v>
       </c>
       <c r="AA44" t="s">
-        <v>120</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45">
@@ -10161,7 +10823,7 @@
         <v>297</v>
       </c>
       <c r="AA45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
@@ -10169,7 +10831,7 @@
         <v>298</v>
       </c>
       <c r="AA46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47">
@@ -10177,7 +10839,7 @@
         <v>340</v>
       </c>
       <c r="AA47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
@@ -10185,7 +10847,7 @@
         <v>339</v>
       </c>
       <c r="AA48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
@@ -10193,7 +10855,7 @@
         <v>209</v>
       </c>
       <c r="AA49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50">
@@ -10201,7 +10863,7 @@
         <v>317</v>
       </c>
       <c r="AA50" t="s">
-        <v>508</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51">
@@ -10209,7 +10871,7 @@
         <v>336</v>
       </c>
       <c r="AA51" t="s">
-        <v>211</v>
+        <v>748</v>
       </c>
     </row>
     <row r="52">
@@ -10217,7 +10879,7 @@
         <v>372</v>
       </c>
       <c r="AA52" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53">
@@ -10225,7 +10887,7 @@
         <v>299</v>
       </c>
       <c r="AA53" t="s">
-        <v>650</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
@@ -10233,7 +10895,7 @@
         <v>360</v>
       </c>
       <c r="AA54" t="s">
-        <v>126</v>
+        <v>650</v>
       </c>
     </row>
     <row r="55">
@@ -10241,7 +10903,7 @@
         <v>328</v>
       </c>
       <c r="AA55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56">
@@ -10249,7 +10911,7 @@
         <v>265</v>
       </c>
       <c r="AA56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57">
@@ -10257,7 +10919,7 @@
         <v>289</v>
       </c>
       <c r="AA57" t="s">
-        <v>603</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58">
@@ -10265,7 +10927,7 @@
         <v>290</v>
       </c>
       <c r="AA58" t="s">
-        <v>570</v>
+        <v>603</v>
       </c>
     </row>
     <row r="59">
@@ -10273,7 +10935,7 @@
         <v>659</v>
       </c>
       <c r="AA59" t="s">
-        <v>129</v>
+        <v>570</v>
       </c>
     </row>
     <row r="60">
@@ -10281,7 +10943,7 @@
         <v>291</v>
       </c>
       <c r="AA60" t="s">
-        <v>352</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61">
@@ -10289,7 +10951,7 @@
         <v>300</v>
       </c>
       <c r="AA61" t="s">
-        <v>564</v>
+        <v>352</v>
       </c>
     </row>
     <row r="62">
@@ -10297,7 +10959,7 @@
         <v>309</v>
       </c>
       <c r="AA62" t="s">
-        <v>130</v>
+        <v>564</v>
       </c>
     </row>
     <row r="63">
@@ -10305,7 +10967,7 @@
         <v>334</v>
       </c>
       <c r="AA63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64">
@@ -10313,7 +10975,7 @@
         <v>306</v>
       </c>
       <c r="AA64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
@@ -10321,7 +10983,7 @@
         <v>307</v>
       </c>
       <c r="AA65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66">
@@ -10329,7 +10991,7 @@
         <v>373</v>
       </c>
       <c r="AA66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67">
@@ -10337,7 +10999,7 @@
         <v>374</v>
       </c>
       <c r="AA67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68">
@@ -10345,7 +11007,7 @@
         <v>342</v>
       </c>
       <c r="AA68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69">
@@ -10353,7 +11015,7 @@
         <v>310</v>
       </c>
       <c r="AA69" t="s">
-        <v>504</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70">
@@ -10361,7 +11023,7 @@
         <v>266</v>
       </c>
       <c r="AA70" t="s">
-        <v>593</v>
+        <v>504</v>
       </c>
     </row>
     <row r="71">
@@ -10369,7 +11031,7 @@
         <v>646</v>
       </c>
       <c r="AA71" t="s">
-        <v>212</v>
+        <v>593</v>
       </c>
     </row>
     <row r="72">
@@ -10377,7 +11039,7 @@
         <v>311</v>
       </c>
       <c r="AA72" t="s">
-        <v>443</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73">
@@ -10385,7 +11047,7 @@
         <v>476</v>
       </c>
       <c r="AA73" t="s">
-        <v>509</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74">
@@ -10393,7 +11055,7 @@
         <v>301</v>
       </c>
       <c r="AA74" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
     </row>
     <row r="75">
@@ -10401,7 +11063,7 @@
         <v>477</v>
       </c>
       <c r="AA75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76">
@@ -10409,7 +11071,7 @@
         <v>259</v>
       </c>
       <c r="AA76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
@@ -10417,7 +11079,7 @@
         <v>628</v>
       </c>
       <c r="AA77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78">
@@ -10425,7 +11087,7 @@
         <v>341</v>
       </c>
       <c r="AA78" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79">
@@ -10433,7 +11095,7 @@
         <v>277</v>
       </c>
       <c r="AA79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80">
@@ -10441,7 +11103,7 @@
         <v>283</v>
       </c>
       <c r="AA80" t="s">
-        <v>535</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81">
@@ -10449,7 +11111,7 @@
         <v>288</v>
       </c>
       <c r="AA81" t="s">
-        <v>572</v>
+        <v>535</v>
       </c>
     </row>
     <row r="82">
@@ -10457,7 +11119,7 @@
         <v>483</v>
       </c>
       <c r="AA82" t="s">
-        <v>141</v>
+        <v>572</v>
       </c>
     </row>
     <row r="83">
@@ -10465,7 +11127,7 @@
         <v>329</v>
       </c>
       <c r="AA83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84">
@@ -10473,7 +11135,7 @@
         <v>267</v>
       </c>
       <c r="AA84" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85">
@@ -10481,7 +11143,7 @@
         <v>278</v>
       </c>
       <c r="AA85" t="s">
-        <v>615</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86">
@@ -10489,7 +11151,7 @@
         <v>284</v>
       </c>
       <c r="AA86" t="s">
-        <v>144</v>
+        <v>615</v>
       </c>
     </row>
     <row r="87">
@@ -10497,7 +11159,7 @@
         <v>273</v>
       </c>
       <c r="AA87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88">
@@ -10505,7 +11167,7 @@
         <v>647</v>
       </c>
       <c r="AA88" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89">
@@ -10513,7 +11175,7 @@
         <v>268</v>
       </c>
       <c r="AA89" t="s">
-        <v>604</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90">
@@ -10521,7 +11183,7 @@
         <v>285</v>
       </c>
       <c r="AA90" t="s">
-        <v>718</v>
+        <v>604</v>
       </c>
     </row>
     <row r="91">
@@ -10529,7 +11191,7 @@
         <v>269</v>
       </c>
       <c r="AA91" t="s">
-        <v>198</v>
+        <v>718</v>
       </c>
     </row>
     <row r="92">
@@ -10537,7 +11199,7 @@
         <v>270</v>
       </c>
       <c r="AA92" t="s">
-        <v>534</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93">
@@ -10545,7 +11207,7 @@
         <v>302</v>
       </c>
       <c r="AA93" t="s">
-        <v>199</v>
+        <v>534</v>
       </c>
     </row>
     <row r="94">
@@ -10553,7 +11215,7 @@
         <v>308</v>
       </c>
       <c r="AA94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95">
@@ -10561,7 +11223,7 @@
         <v>292</v>
       </c>
       <c r="AA95" t="s">
-        <v>665</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96">
@@ -10569,7 +11231,7 @@
         <v>337</v>
       </c>
       <c r="AA96" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="97">
@@ -10577,7 +11239,7 @@
         <v>274</v>
       </c>
       <c r="AA97" t="s">
-        <v>213</v>
+        <v>666</v>
       </c>
     </row>
     <row r="98">
@@ -10585,236 +11247,241 @@
         <v>275</v>
       </c>
       <c r="AA98" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99">
       <c r="AA99" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100">
       <c r="AA100" t="s">
-        <v>496</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101">
       <c r="AA101" t="s">
-        <v>716</v>
+        <v>496</v>
       </c>
     </row>
     <row r="102">
       <c r="AA102" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="103">
       <c r="AA103" t="s">
-        <v>503</v>
+        <v>717</v>
       </c>
     </row>
     <row r="104">
       <c r="AA104" t="s">
-        <v>202</v>
+        <v>503</v>
       </c>
     </row>
     <row r="105">
       <c r="AA105" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106">
       <c r="AA106" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107">
       <c r="AA107" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108">
       <c r="AA108" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="109">
       <c r="AA109" t="s">
-        <v>722</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110">
       <c r="AA110" t="s">
-        <v>206</v>
+        <v>722</v>
       </c>
     </row>
     <row r="111">
       <c r="AA111" t="s">
-        <v>626</v>
+        <v>206</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>684</v>
+        <v>626</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>629</v>
+        <v>684</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>147</v>
+        <v>629</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>630</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>437</v>
+        <v>630</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>148</v>
+        <v>437</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>723</v>
+        <v>149</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>150</v>
+        <v>723</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>724</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>152</v>
+        <v>724</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>725</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>158</v>
+        <v>725</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>510</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>161</v>
+        <v>749</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>663</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>162</v>
+        <v>663</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>726</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>166</v>
+        <v>726</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="AA145" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\nexial-core\src\test\resources\unittesting\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F127E59-0DB3-4973-998E-46F4B05FBB63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{8F127E59-0DB3-4973-998E-46F4B05FBB63}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="15990" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="validation" sheetId="2" r:id="rId2"/>
-    <sheet name="bad_jsonpath" sheetId="7" r:id="rId3"/>
-    <sheet name="json_compare" sheetId="8" r:id="rId4"/>
-    <sheet name="read_json" sheetId="9" r:id="rId5"/>
-    <sheet name="beautification" sheetId="10" r:id="rId6"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="validation" r:id="rId2" sheetId="2"/>
+    <sheet name="bad_jsonpath" r:id="rId3" sheetId="7"/>
+    <sheet name="json_compare" r:id="rId4" sheetId="8"/>
+    <sheet name="read_json" r:id="rId5" sheetId="9"/>
+    <sheet name="beautification" r:id="rId6" sheetId="10"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -33,7 +33,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
@@ -43,7 +43,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -51,15 +51,15 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="790">
   <si>
     <t>description</t>
   </si>
@@ -2330,12 +2330,172 @@
   <si>
     <t>uncheckAll(locator,waitMs)</t>
   </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>clearClipboard()</t>
+  </si>
+  <si>
+    <t>copyFromClipboard(var)</t>
+  </si>
+  <si>
+    <t>copyIntoClipboard(text)</t>
+  </si>
+  <si>
+    <t>macroFlex(macro,input,output)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2432,8 +2592,222 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="53">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2456,6 +2830,278 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -2499,174 +3145,276 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="78">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="11" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="12" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="13" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="7" fontId="14" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="10" fontId="16" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="13" fontId="17" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="19" fontId="20" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="22" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="25" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="13" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="28" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="29" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="25" fontId="30" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -2820,7 +3568,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2845,10 +3593,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2883,7 +3631,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2918,7 +3666,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -3012,21 +3760,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3043,7 +3791,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3095,26 +3843,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH151"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="18" width="8.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3194,25 +3942,28 @@
         <v>727</v>
       </c>
       <c r="AA1" t="s">
+        <v>737</v>
+      </c>
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>479</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>425</v>
       </c>
@@ -3292,25 +4043,28 @@
         <v>731</v>
       </c>
       <c r="AA2" t="s">
+        <v>745</v>
+      </c>
+      <c r="AB2" t="s">
         <v>96</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>169</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>174</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>181</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>496</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>562</v>
       </c>
@@ -3381,25 +4135,28 @@
         <v>732</v>
       </c>
       <c r="AA3" t="s">
+        <v>746</v>
+      </c>
+      <c r="AB3" t="s">
         <v>97</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>170</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>175</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>367</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>182</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>601</v>
       </c>
@@ -3467,25 +4224,28 @@
         <v>733</v>
       </c>
       <c r="AA4" t="s">
+        <v>747</v>
+      </c>
+      <c r="AB4" t="s">
         <v>710</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>171</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>176</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>182</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>497</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>675</v>
       </c>
@@ -3541,25 +4301,28 @@
         <v>362</v>
       </c>
       <c r="AA5" t="s">
+        <v>748</v>
+      </c>
+      <c r="AB5" t="s">
         <v>678</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>172</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>721</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>183</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>498</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3612,25 +4375,28 @@
         <v>364</v>
       </c>
       <c r="AA6" t="s">
+        <v>749</v>
+      </c>
+      <c r="AB6" t="s">
         <v>98</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>508</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>177</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>184</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>499</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -3674,25 +4440,28 @@
         <v>363</v>
       </c>
       <c r="AA7" t="s">
+        <v>750</v>
+      </c>
+      <c r="AB7" t="s">
         <v>99</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>509</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>178</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>185</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>500</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3736,25 +4505,28 @@
         <v>365</v>
       </c>
       <c r="AA8" t="s">
+        <v>751</v>
+      </c>
+      <c r="AB8" t="s">
         <v>100</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>173</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>179</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>186</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>501</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3795,19 +4567,22 @@
         <v>366</v>
       </c>
       <c r="AA9" t="s">
+        <v>752</v>
+      </c>
+      <c r="AB9" t="s">
         <v>207</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>180</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>187</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3839,19 +4614,22 @@
         <v>462</v>
       </c>
       <c r="AA10" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB10" t="s">
         <v>254</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>722</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>188</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>353</v>
       </c>
@@ -3877,19 +4655,22 @@
         <v>93</v>
       </c>
       <c r="S11" t="s">
-        <v>246</v>
+        <v>744</v>
       </c>
       <c r="AA11" t="s">
+        <v>754</v>
+      </c>
+      <c r="AB11" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>256</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3915,19 +4696,22 @@
         <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA12" t="s">
+        <v>755</v>
+      </c>
+      <c r="AB12" t="s">
         <v>101</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>189</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>330</v>
       </c>
@@ -3953,19 +4737,22 @@
         <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>714</v>
+        <v>247</v>
       </c>
       <c r="AA13" t="s">
+        <v>756</v>
+      </c>
+      <c r="AB13" t="s">
         <v>323</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>190</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3988,19 +4775,22 @@
         <v>95</v>
       </c>
       <c r="S14" t="s">
-        <v>252</v>
+        <v>714</v>
       </c>
       <c r="AA14" t="s">
+        <v>757</v>
+      </c>
+      <c r="AB14" t="s">
         <v>102</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>191</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>627</v>
       </c>
@@ -4023,19 +4813,22 @@
         <v>615</v>
       </c>
       <c r="S15" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AA15" t="s">
+        <v>758</v>
+      </c>
+      <c r="AB15" t="s">
         <v>734</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>192</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>592</v>
       </c>
@@ -4058,19 +4851,22 @@
         <v>616</v>
       </c>
       <c r="S16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA16" t="s">
+        <v>759</v>
+      </c>
+      <c r="AB16" t="s">
         <v>715</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>193</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -4087,19 +4883,22 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AA17" t="s">
+        <v>760</v>
+      </c>
+      <c r="AB17" t="s">
         <v>103</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>565</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -4115,19 +4914,25 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
+      <c r="S18" t="s">
+        <v>250</v>
+      </c>
       <c r="AA18" t="s">
+        <v>761</v>
+      </c>
+      <c r="AB18" t="s">
         <v>75</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>738</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -4136,18 +4941,21 @@
         <v>534</v>
       </c>
       <c r="AA19" t="s">
+        <v>762</v>
+      </c>
+      <c r="AB19" t="s">
         <v>617</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>739</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
@@ -4156,18 +4964,21 @@
         <v>83</v>
       </c>
       <c r="AA20" t="s">
+        <v>763</v>
+      </c>
+      <c r="AB20" t="s">
         <v>104</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>453</v>
       </c>
       <c r="F21" t="s">
-        <v>253</v>
+        <v>740</v>
       </c>
       <c r="H21" t="s">
         <v>294</v>
@@ -4176,18 +4987,21 @@
         <v>84</v>
       </c>
       <c r="AA21" t="s">
+        <v>764</v>
+      </c>
+      <c r="AB21" t="s">
         <v>105</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>477</v>
       </c>
       <c r="F22" t="s">
-        <v>653</v>
+        <v>60</v>
       </c>
       <c r="H22" t="s">
         <v>295</v>
@@ -4196,18 +5010,21 @@
         <v>681</v>
       </c>
       <c r="AA22" t="s">
+        <v>765</v>
+      </c>
+      <c r="AB22" t="s">
         <v>106</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>478</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
         <v>296</v>
@@ -4216,18 +5033,21 @@
         <v>571</v>
       </c>
       <c r="AA23" t="s">
+        <v>766</v>
+      </c>
+      <c r="AB23" t="s">
         <v>107</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>360</v>
       </c>
       <c r="F24" t="s">
-        <v>318</v>
+        <v>253</v>
       </c>
       <c r="H24" t="s">
         <v>287</v>
@@ -4236,18 +5056,21 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
+        <v>767</v>
+      </c>
+      <c r="AB24" t="s">
         <v>598</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>449</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>741</v>
       </c>
       <c r="H25" t="s">
         <v>276</v>
@@ -4256,947 +5079,1040 @@
         <v>445</v>
       </c>
       <c r="AA25" t="s">
+        <v>768</v>
+      </c>
+      <c r="AB25" t="s">
         <v>108</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>727</v>
       </c>
       <c r="F26" t="s">
-        <v>527</v>
+        <v>653</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>638</v>
+        <v>743</v>
       </c>
       <c r="AA26" t="s">
+        <v>769</v>
+      </c>
+      <c r="AB26" t="s">
         <v>657</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>737</v>
       </c>
       <c r="F27" t="s">
-        <v>223</v>
+        <v>62</v>
       </c>
       <c r="H27" t="s">
         <v>279</v>
       </c>
       <c r="L27" t="s">
-        <v>85</v>
+        <v>638</v>
       </c>
       <c r="AA27" t="s">
+        <v>770</v>
+      </c>
+      <c r="AB27" t="s">
         <v>109</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>318</v>
       </c>
       <c r="H28" t="s">
         <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>505</v>
+        <v>85</v>
       </c>
       <c r="AA28" t="s">
+        <v>771</v>
+      </c>
+      <c r="AB28" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>569</v>
+        <v>63</v>
       </c>
       <c r="H29" t="s">
         <v>280</v>
       </c>
       <c r="L29" t="s">
-        <v>44</v>
+        <v>505</v>
       </c>
       <c r="AA29" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB29" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>570</v>
+        <v>527</v>
       </c>
       <c r="H30" t="s">
         <v>281</v>
       </c>
       <c r="L30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA30" t="s">
+        <v>773</v>
+      </c>
+      <c r="AB30" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
-        <v>479</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>481</v>
+        <v>223</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
       </c>
+      <c r="L31" t="s">
+        <v>45</v>
+      </c>
       <c r="AA31" t="s">
+        <v>774</v>
+      </c>
+      <c r="AB31" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>479</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="H32" t="s">
         <v>272</v>
       </c>
       <c r="AA32" t="s">
+        <v>775</v>
+      </c>
+      <c r="AB32" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="33">
+      <c r="A33" t="s">
+        <v>225</v>
+      </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>569</v>
       </c>
       <c r="H33" t="s">
         <v>282</v>
       </c>
       <c r="AA33" t="s">
+        <v>776</v>
+      </c>
+      <c r="AB33" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="F34" t="s">
-        <v>66</v>
+        <v>570</v>
       </c>
       <c r="H34" t="s">
         <v>623</v>
       </c>
       <c r="AA34" t="s">
+        <v>777</v>
+      </c>
+      <c r="AB34" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="F35" t="s">
-        <v>67</v>
+        <v>481</v>
       </c>
       <c r="H35" t="s">
         <v>257</v>
       </c>
       <c r="AA35" t="s">
+        <v>778</v>
+      </c>
+      <c r="AB35" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="F36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H36" t="s">
         <v>327</v>
       </c>
       <c r="AA36" t="s">
+        <v>779</v>
+      </c>
+      <c r="AB36" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="37" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="F37" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H37" t="s">
         <v>304</v>
       </c>
       <c r="AA37" t="s">
+        <v>780</v>
+      </c>
+      <c r="AB37" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="F38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H38" t="s">
         <v>258</v>
       </c>
       <c r="AA38" t="s">
+        <v>781</v>
+      </c>
+      <c r="AB38" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="F39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H39" t="s">
         <v>305</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="40">
+      <c r="F40" t="s">
+        <v>68</v>
+      </c>
       <c r="H40" t="s">
         <v>264</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="41">
+      <c r="F41" t="s">
+        <v>69</v>
+      </c>
       <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="42" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="42">
+      <c r="F42" t="s">
+        <v>70</v>
+      </c>
       <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="43" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="43">
+      <c r="F43" t="s">
+        <v>71</v>
+      </c>
       <c r="H43" t="s">
         <v>654</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="44" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="44">
+      <c r="F44" t="s">
+        <v>742</v>
+      </c>
       <c r="H44" t="s">
         <v>286</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="45" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="H45" t="s">
         <v>297</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="H46" t="s">
         <v>298</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="H47" t="s">
         <v>340</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="H48" t="s">
         <v>339</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="H50" t="s">
         <v>317</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="H51" t="s">
         <v>336</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="52" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="H52" t="s">
         <v>371</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="H53" t="s">
         <v>299</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="H54" t="s">
         <v>359</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="55" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="H55" t="s">
         <v>328</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="H56" t="s">
         <v>265</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="H57" t="s">
         <v>289</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="H58" t="s">
         <v>290</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="59" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="H59" t="s">
         <v>655</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="60" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="H60" t="s">
         <v>291</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="H61" t="s">
         <v>300</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="62" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="H62" t="s">
         <v>309</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="63" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="H63" t="s">
         <v>334</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="H64" t="s">
         <v>306</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="H65" t="s">
         <v>307</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="H66" t="s">
         <v>372</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="H67" t="s">
         <v>373</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="H68" t="s">
         <v>342</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="H69" t="s">
         <v>310</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="H70" t="s">
         <v>266</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="71" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="H71" t="s">
         <v>642</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="72" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="H72" t="s">
         <v>311</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="73" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="H73" t="s">
         <v>475</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="74" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="H74" t="s">
         <v>301</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="75" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="H75" t="s">
         <v>476</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="76" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="H76" t="s">
         <v>259</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="H77" t="s">
         <v>624</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="78" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="H78" t="s">
         <v>341</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="79" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="H79" t="s">
         <v>277</v>
       </c>
-      <c r="AA79" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="80" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB79" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="H80" t="s">
         <v>283</v>
       </c>
-      <c r="AA80" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="81" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB80" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="H81" t="s">
         <v>288</v>
       </c>
-      <c r="AA81" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="82" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB81" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="H82" t="s">
         <v>482</v>
       </c>
-      <c r="AA82" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="83" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB82" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="H83" t="s">
         <v>329</v>
       </c>
-      <c r="AA83" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="84" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB83" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="H84" t="s">
         <v>267</v>
       </c>
-      <c r="AA84" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="85" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB84" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="H85" t="s">
         <v>278</v>
       </c>
-      <c r="AA85" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="86" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB85" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="H86" t="s">
         <v>284</v>
       </c>
-      <c r="AA86" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="87" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB86" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="H87" t="s">
         <v>273</v>
       </c>
-      <c r="AA87" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="88" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB87" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="H88" t="s">
         <v>643</v>
       </c>
-      <c r="AA88" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="89" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB88" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="H89" t="s">
         <v>268</v>
       </c>
-      <c r="AA89" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="90" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB89" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="H90" t="s">
         <v>285</v>
       </c>
-      <c r="AA90" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="91" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB90" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="H91" t="s">
         <v>269</v>
       </c>
-      <c r="AA91" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="92" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB91" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="H92" t="s">
         <v>270</v>
       </c>
-      <c r="AA92" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="93" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB92" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="H93" t="s">
         <v>302</v>
       </c>
-      <c r="AA93" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="94" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB93" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="H94" t="s">
         <v>308</v>
       </c>
-      <c r="AA94" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="95" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB94" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="H95" t="s">
         <v>292</v>
       </c>
-      <c r="AA95" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="96" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB95" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="H96" t="s">
         <v>337</v>
       </c>
-      <c r="AA96" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="97" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB96" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="H97" t="s">
         <v>274</v>
       </c>
-      <c r="AA97" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="98" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB97" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="H98" t="s">
         <v>275</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AB99" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="99" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA99" t="s">
+    <row r="100">
+      <c r="AB100" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="100" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA100" t="s">
+    <row r="101">
+      <c r="AB101" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA101" t="s">
+    <row r="102">
+      <c r="AB102" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="102" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA102" t="s">
+    <row r="103">
+      <c r="AB103" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="103" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA103" t="s">
+    <row r="104">
+      <c r="AB104" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="104" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA104" t="s">
+    <row r="105">
+      <c r="AB105" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="105" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA105" t="s">
+    <row r="106">
+      <c r="AB106" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA106" t="s">
+    <row r="107">
+      <c r="AB107" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="107" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA107" t="s">
+    <row r="108">
+      <c r="AB108" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="108" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA108" t="s">
+    <row r="109">
+      <c r="AB109" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="109" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA109" t="s">
+    <row r="110">
+      <c r="AB110" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="110" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA110" t="s">
+    <row r="111">
+      <c r="AB111" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="111" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA111" t="s">
+    <row r="112">
+      <c r="AB112" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="112" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA112" t="s">
+    <row r="113">
+      <c r="AB113" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="113" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA113" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="114" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA114" t="s">
+    <row r="114">
+      <c r="AB114" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AB115" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AB116" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="115" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AB117" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="116" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AB118" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="117" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AB119" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="118" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AB120" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AB121" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="120" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AB122" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="121" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AB123" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="122" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AB124" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="123" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AB125" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="124" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AB126" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="125" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AB127" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="126" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AB128" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="127" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AB129" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AB130" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="129" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AB131" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="130" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AB132" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="131" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AB133" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="132" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AB134" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="133" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AB135" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="134" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AB136" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="135" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AB137" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AB138" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="137" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AB139" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="138" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AB140" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="139" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AB141" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="140" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AB142" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="141" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA141" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="142" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA142" t="s">
+    <row r="143">
+      <c r="AB143" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="AB144" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="143" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AB145" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="144" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AB146" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="145" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AB147" t="s">
         <v>168</v>
       </c>
     </row>
+    <row r="148">
+      <c r="AB148" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AB149" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="AB150" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="AB151" t="s">
+        <v>789</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.125" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="46.125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="65.875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="47.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="17" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="19.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="17.125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="46.125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="65.875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="10" width="47.875" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="10" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="17.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -5227,7 +6143,7 @@
       <c r="N1" s="40"/>
       <c r="O1" s="41"/>
     </row>
-    <row r="2" spans="1:15" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="140.1" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
         <v>47</v>
       </c>
@@ -5248,7 +6164,7 @@
       <c r="N2" s="43"/>
       <c r="O2" s="43"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -5265,7 +6181,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>219</v>
       </c>
@@ -5310,7 +6226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>343</v>
       </c>
@@ -5337,7 +6253,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>346</v>
       </c>
@@ -5362,7 +6278,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>415</v>
       </c>
@@ -5391,7 +6307,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -5418,7 +6334,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13" t="s">
@@ -5441,7 +6357,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
@@ -5468,7 +6384,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
@@ -5491,7 +6407,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
@@ -5518,7 +6434,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13" t="s">
@@ -5543,7 +6459,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
@@ -5568,7 +6484,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13" t="s">
@@ -5593,7 +6509,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13" t="s">
@@ -5618,7 +6534,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13" t="s">
@@ -5645,7 +6561,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row ht="90" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>374</v>
       </c>
@@ -5672,7 +6588,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13" t="s">
@@ -5699,7 +6615,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13" t="s">
@@ -5726,7 +6642,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13" t="s">
@@ -5755,7 +6671,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row ht="90" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13" t="s">
@@ -5780,7 +6696,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13" t="s">
@@ -5807,7 +6723,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13" t="s">
@@ -5834,7 +6750,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13" t="s">
@@ -5863,7 +6779,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="95.1" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>545</v>
       </c>
@@ -5890,7 +6806,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13" t="s">
@@ -5917,7 +6833,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13" t="s">
@@ -5944,7 +6860,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13" t="s">
@@ -5973,7 +6889,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13" t="s">
@@ -6002,7 +6918,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>551</v>
       </c>
@@ -6029,7 +6945,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13" t="s">
@@ -6054,7 +6970,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13" t="s">
@@ -6081,7 +6997,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13" t="s">
@@ -6106,7 +7022,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13" t="s">
@@ -6131,7 +7047,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13" t="s">
@@ -6160,7 +7076,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -6177,7 +7093,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -6194,7 +7110,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -6211,7 +7127,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -6228,7 +7144,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -6245,7 +7161,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -6262,7 +7178,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -6279,7 +7195,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -6296,7 +7212,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -6313,7 +7229,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -6330,7 +7246,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -6347,7 +7263,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -6364,7 +7280,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -6381,7 +7297,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -6399,7 +7315,7 @@
       <c r="O50" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -6407,55 +7323,55 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="14" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="14" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="13" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="12" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{00000000-0002-0000-0100-000001000000}">
+  <dataValidations count="2" disablePrompts="1">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E030708B-B33F-D549-9D55-0B334D80E114}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E030708B-B33F-D549-9D55-0B334D80E114}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="57.125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="37" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.125" style="10" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="22.625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="57.125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="37.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="10" width="16.125" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="10" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -6486,7 +7402,7 @@
       <c r="N1" s="40"/>
       <c r="O1" s="41"/>
     </row>
-    <row r="2" spans="1:15" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="140.1" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
         <v>47</v>
       </c>
@@ -6507,7 +7423,7 @@
       <c r="N2" s="43"/>
       <c r="O2" s="43"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -6524,7 +7440,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>219</v>
       </c>
@@ -6569,7 +7485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>382</v>
       </c>
@@ -6596,7 +7512,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -6621,7 +7537,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
         <v>391</v>
@@ -6650,7 +7566,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>390</v>
       </c>
@@ -6681,7 +7597,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>393</v>
       </c>
@@ -6712,7 +7628,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>396</v>
       </c>
@@ -6741,7 +7657,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
@@ -6766,7 +7682,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
@@ -6791,7 +7707,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="5" t="s">
         <v>408</v>
@@ -6820,7 +7736,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="5" t="s">
         <v>409</v>
@@ -6849,7 +7765,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13" t="s">
@@ -6874,7 +7790,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="5" t="s">
         <v>410</v>
@@ -6903,7 +7819,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>416</v>
       </c>
@@ -6930,7 +7846,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13" t="s">
@@ -6955,7 +7871,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13" t="s">
@@ -6980,7 +7896,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13" t="s">
@@ -7005,7 +7921,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="5" t="s">
         <v>423</v>
@@ -7032,7 +7948,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="5" t="s">
         <v>424</v>
@@ -7059,7 +7975,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -7076,7 +7992,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -7093,7 +8009,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -7110,7 +8026,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -7127,7 +8043,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -7144,7 +8060,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -7161,7 +8077,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -7178,7 +8094,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -7195,7 +8111,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -7212,7 +8128,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -7229,7 +8145,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -7246,7 +8162,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -7263,7 +8179,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -7280,7 +8196,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -7297,7 +8213,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -7314,7 +8230,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -7331,7 +8247,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -7348,7 +8264,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -7365,7 +8281,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -7382,7 +8298,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -7399,7 +8315,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -7416,7 +8332,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -7433,7 +8349,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -7450,7 +8366,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -7467,7 +8383,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -7484,7 +8400,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -7501,7 +8417,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -7518,7 +8434,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -7536,7 +8452,7 @@
       <c r="O50" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -7544,58 +8460,58 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="11" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="11" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="10" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="9" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{AAA3CDEF-D5A9-D845-8473-C508CFFA69D4}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{AAA3CDEF-D5A9-D845-8473-C508CFFA69D4}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{2E747632-E3FB-1247-ABF8-2D2249F1AF6D}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{2E747632-E3FB-1247-ABF8-2D2249F1AF6D}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FBB10A-8429-A74F-BF32-B3F37BB88777}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FBB10A-8429-A74F-BF32-B3F37BB88777}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="66.625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="64.875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.5" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="15.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.875" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="16.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="11.625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="36.625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="66.625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="64.875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="10" width="25.5" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" style="10" width="15.875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="15.875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -7626,7 +8542,7 @@
       <c r="N1" s="40"/>
       <c r="O1" s="41"/>
     </row>
-    <row r="2" spans="1:15" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="140.1" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
         <v>47</v>
       </c>
@@ -7647,7 +8563,7 @@
       <c r="N2" s="43"/>
       <c r="O2" s="43"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -7664,7 +8580,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>219</v>
       </c>
@@ -7709,7 +8625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="270" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="270" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>510</v>
       </c>
@@ -7736,7 +8652,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -7763,7 +8679,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -7790,7 +8706,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -7817,7 +8733,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13" t="s">
@@ -7842,7 +8758,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
@@ -7869,7 +8785,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
@@ -7896,7 +8812,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
@@ -7921,7 +8837,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13" t="s">
@@ -7948,7 +8864,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
@@ -7975,7 +8891,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13" t="s">
@@ -8000,7 +8916,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13" t="s">
@@ -8027,7 +8943,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13" t="s">
@@ -8054,7 +8970,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13" t="s">
@@ -8079,7 +8995,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13" t="s">
@@ -8106,7 +9022,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13" t="s">
@@ -8133,7 +9049,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13" t="s">
@@ -8158,7 +9074,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13" t="s">
@@ -8185,7 +9101,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13" t="s">
@@ -8212,7 +9128,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13" t="s">
@@ -8237,7 +9153,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>663</v>
       </c>
@@ -8264,7 +9180,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13" t="s">
@@ -8289,7 +9205,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13" t="s">
@@ -8314,7 +9230,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13" t="s">
@@ -8339,7 +9255,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13" t="s">
@@ -8364,7 +9280,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13" t="s">
@@ -8389,7 +9305,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13" t="s">
@@ -8416,7 +9332,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -8433,7 +9349,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -8450,7 +9366,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -8467,7 +9383,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -8484,7 +9400,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -8501,7 +9417,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -8518,7 +9434,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -8535,7 +9451,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -8552,7 +9468,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -8569,7 +9485,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -8586,7 +9502,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -8603,7 +9519,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -8620,7 +9536,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -8637,7 +9553,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -8654,7 +9570,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -8671,7 +9587,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -8688,7 +9604,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -8705,7 +9621,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -8722,7 +9638,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -8740,7 +9656,7 @@
       <c r="O50" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -8748,57 +9664,57 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="8" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="8" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="7" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="6" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{31A7B5D0-DC1B-4C4E-99FC-A1E98A38312F}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{31A7B5D0-DC1B-4C4E-99FC-A1E98A38312F}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{CAC4453B-A8D1-CB43-AA11-03CB4157EB8F}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{CAC4453B-A8D1-CB43-AA11-03CB4157EB8F}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060D7543-C6E1-B948-BFC2-C5232B033220}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060D7543-C6E1-B948-BFC2-C5232B033220}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="41.375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="70.375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="64.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="15.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.875" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="28" width="20.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="11.375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="41.375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="70.375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="10" width="64.625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="10" width="26.375" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" style="10" width="15.875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="15.875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -8829,7 +9745,7 @@
       <c r="N1" s="40"/>
       <c r="O1" s="41"/>
     </row>
-    <row r="2" spans="1:15" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="140.1" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
         <v>538</v>
       </c>
@@ -8850,7 +9766,7 @@
       <c r="N2" s="43"/>
       <c r="O2" s="43"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -8867,7 +9783,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>219</v>
       </c>
@@ -8912,7 +9828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>535</v>
       </c>
@@ -8937,7 +9853,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -8964,7 +9880,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -8993,7 +9909,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -9016,7 +9932,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13" t="s">
@@ -9043,7 +9959,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13"/>
@@ -9060,7 +9976,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13"/>
@@ -9077,7 +9993,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13"/>
@@ -9094,7 +10010,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -9111,7 +10027,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -9127,7 +10043,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -9143,7 +10059,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -9160,7 +10076,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -9176,7 +10092,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -9193,7 +10109,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -9210,7 +10126,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -9227,7 +10143,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -9244,7 +10160,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -9261,7 +10177,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -9278,7 +10194,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -9295,7 +10211,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -9312,7 +10228,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -9329,7 +10245,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -9346,7 +10262,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -9363,7 +10279,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -9380,7 +10296,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -9397,7 +10313,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -9414,7 +10330,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -9431,7 +10347,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -9448,7 +10364,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -9465,7 +10381,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -9482,7 +10398,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -9499,7 +10415,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -9516,7 +10432,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -9533,7 +10449,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -9550,7 +10466,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -9567,7 +10483,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -9584,7 +10500,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -9601,7 +10517,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -9618,7 +10534,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -9635,7 +10551,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -9652,7 +10568,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -9669,7 +10585,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -9686,7 +10602,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -9703,7 +10619,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -9720,7 +10636,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -9738,7 +10654,7 @@
       <c r="O50" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -9746,55 +10662,55 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{99CC32D5-D999-5C4D-8CAB-0C5A28675CED}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{99CC32D5-D999-5C4D-8CAB-0C5A28675CED}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{B6CC9491-DC35-D24A-B630-34A73A286E97}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{B6CC9491-DC35-D24A-B630-34A73A286E97}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EEE9D7-76D6-8F49-9E37-A21CA95041B3}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EEE9D7-76D6-8F49-9E37-A21CA95041B3}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.875" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="25.375" style="10" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="15.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.875" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="27.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="25.875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="29.625" collapsed="true"/>
+    <col min="5" max="7" customWidth="true" style="10" width="25.375" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" style="10" width="15.875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="15.875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -9825,7 +10741,7 @@
       <c r="N1" s="40"/>
       <c r="O1" s="41"/>
     </row>
-    <row r="2" spans="1:15" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="140.1" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
         <v>538</v>
       </c>
@@ -9846,7 +10762,7 @@
       <c r="N2" s="43"/>
       <c r="O2" s="43"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -9863,7 +10779,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>219</v>
       </c>
@@ -9908,7 +10824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>574</v>
       </c>
@@ -9935,7 +10851,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -9960,7 +10876,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -9983,7 +10899,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>579</v>
       </c>
@@ -10010,7 +10926,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13" t="s">
@@ -10033,7 +10949,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="71.099999999999994" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="5" t="s">
         <v>582</v>
@@ -10060,7 +10976,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>585</v>
       </c>
@@ -10087,7 +11003,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
@@ -10112,7 +11028,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -10129,7 +11045,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -10145,7 +11061,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -10161,7 +11077,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -10178,7 +11094,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -10194,7 +11110,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -10211,7 +11127,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -10228,7 +11144,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -10245,7 +11161,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -10262,7 +11178,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -10279,7 +11195,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -10296,7 +11212,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -10313,7 +11229,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -10330,7 +11246,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -10347,7 +11263,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -10364,7 +11280,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -10381,7 +11297,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -10398,7 +11314,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -10415,7 +11331,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -10432,7 +11348,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -10449,7 +11365,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -10466,7 +11382,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -10483,7 +11399,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -10500,7 +11416,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -10517,7 +11433,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -10534,7 +11450,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -10551,7 +11467,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -10568,7 +11484,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -10585,7 +11501,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -10602,7 +11518,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -10619,7 +11535,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -10636,7 +11552,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -10653,7 +11569,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -10670,7 +11586,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -10687,7 +11603,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -10704,7 +11620,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -10721,7 +11637,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -10738,7 +11654,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -10756,7 +11672,7 @@
       <c r="O50" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -10764,25 +11680,25 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{BB92F67E-6A89-0D43-8A1E-8693772A208E}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{BB92F67E-6A89-0D43-8A1E-8693772A208E}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{A8C4CBFE-9EF1-A749-88BD-DF5DA26E212A}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{A8C4CBFE-9EF1-A749-88BD-DF5DA26E212A}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -25,13 +25,13 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$44</definedName>
+    <definedName name="base">'#system'!$F$2:$F$45</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
-    <definedName name="external">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -51,15 +51,15 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
-    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="792">
   <si>
     <t>description</t>
   </si>
@@ -2489,13 +2489,19 @@
   <si>
     <t>waitUntilVisible(locator,waitMs)</t>
   </si>
+  <si>
+    <t>assertMatch(text,regex)</t>
+  </si>
+  <si>
+    <t>openFile(filePath)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="65" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2806,8 +2812,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="53">
+  <fills count="77">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2830,6 +2943,142 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3150,7 +3399,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="95">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3358,55 +3607,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="25" fontId="30" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="31" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="34" fontId="33" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="37" fontId="34" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="40" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="37" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="37" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="40" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="52" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="40" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="64" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="67" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="64" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="76" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="64" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3851,7 +4151,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH151"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -3942,24 +4242,21 @@
         <v>727</v>
       </c>
       <c r="AA1" t="s">
-        <v>737</v>
+        <v>54</v>
       </c>
       <c r="AB1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE1" t="s">
-        <v>57</v>
+        <v>479</v>
       </c>
       <c r="AF1" t="s">
-        <v>479</v>
-      </c>
-      <c r="AG1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3992,7 +4289,7 @@
         <v>528</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>791</v>
       </c>
       <c r="K2" t="s">
         <v>725</v>
@@ -4043,24 +4340,21 @@
         <v>731</v>
       </c>
       <c r="AA2" t="s">
-        <v>745</v>
+        <v>96</v>
       </c>
       <c r="AB2" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="AC2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AD2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AE2" t="s">
-        <v>181</v>
+        <v>496</v>
       </c>
       <c r="AF2" t="s">
-        <v>496</v>
-      </c>
-      <c r="AG2" t="s">
         <v>606</v>
       </c>
     </row>
@@ -4090,7 +4384,7 @@
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>593</v>
+        <v>79</v>
       </c>
       <c r="K3" t="s">
         <v>355</v>
@@ -4135,24 +4429,21 @@
         <v>732</v>
       </c>
       <c r="AA3" t="s">
-        <v>746</v>
+        <v>97</v>
       </c>
       <c r="AB3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="AC3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AD3" t="s">
-        <v>175</v>
+        <v>367</v>
       </c>
       <c r="AE3" t="s">
-        <v>367</v>
+        <v>182</v>
       </c>
       <c r="AF3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4179,7 +4470,7 @@
         <v>529</v>
       </c>
       <c r="J4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="K4" t="s">
         <v>356</v>
@@ -4224,24 +4515,21 @@
         <v>733</v>
       </c>
       <c r="AA4" t="s">
-        <v>747</v>
+        <v>710</v>
       </c>
       <c r="AB4" t="s">
-        <v>710</v>
+        <v>171</v>
       </c>
       <c r="AC4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AD4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AE4" t="s">
-        <v>182</v>
+        <v>497</v>
       </c>
       <c r="AF4" t="s">
-        <v>497</v>
-      </c>
-      <c r="AG4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4268,7 +4556,7 @@
         <v>533</v>
       </c>
       <c r="J5" t="s">
-        <v>641</v>
+        <v>594</v>
       </c>
       <c r="K5" t="s">
         <v>357</v>
@@ -4301,24 +4589,21 @@
         <v>362</v>
       </c>
       <c r="AA5" t="s">
-        <v>748</v>
+        <v>678</v>
       </c>
       <c r="AB5" t="s">
-        <v>678</v>
+        <v>172</v>
       </c>
       <c r="AC5" t="s">
-        <v>172</v>
+        <v>721</v>
       </c>
       <c r="AD5" t="s">
-        <v>721</v>
+        <v>183</v>
       </c>
       <c r="AE5" t="s">
-        <v>183</v>
+        <v>498</v>
       </c>
       <c r="AF5" t="s">
-        <v>498</v>
-      </c>
-      <c r="AG5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4345,7 +4630,7 @@
         <v>526</v>
       </c>
       <c r="J6" t="s">
-        <v>708</v>
+        <v>641</v>
       </c>
       <c r="K6" t="s">
         <v>726</v>
@@ -4375,24 +4660,21 @@
         <v>364</v>
       </c>
       <c r="AA6" t="s">
-        <v>749</v>
+        <v>98</v>
       </c>
       <c r="AB6" t="s">
-        <v>98</v>
+        <v>508</v>
       </c>
       <c r="AC6" t="s">
-        <v>508</v>
+        <v>177</v>
       </c>
       <c r="AD6" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AE6" t="s">
-        <v>184</v>
+        <v>499</v>
       </c>
       <c r="AF6" t="s">
-        <v>499</v>
-      </c>
-      <c r="AG6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4412,6 +4694,9 @@
       <c r="I7" t="s">
         <v>525</v>
       </c>
+      <c r="J7" t="s">
+        <v>708</v>
+      </c>
       <c r="K7" t="s">
         <v>354</v>
       </c>
@@ -4440,24 +4725,21 @@
         <v>363</v>
       </c>
       <c r="AA7" t="s">
-        <v>750</v>
+        <v>99</v>
       </c>
       <c r="AB7" t="s">
-        <v>99</v>
+        <v>509</v>
       </c>
       <c r="AC7" t="s">
-        <v>509</v>
+        <v>178</v>
       </c>
       <c r="AD7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AE7" t="s">
-        <v>185</v>
+        <v>500</v>
       </c>
       <c r="AF7" t="s">
-        <v>500</v>
-      </c>
-      <c r="AG7" t="s">
         <v>647</v>
       </c>
     </row>
@@ -4505,24 +4787,21 @@
         <v>365</v>
       </c>
       <c r="AA8" t="s">
-        <v>751</v>
+        <v>100</v>
       </c>
       <c r="AB8" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="AC8" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AD8" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="AE8" t="s">
-        <v>186</v>
+        <v>501</v>
       </c>
       <c r="AF8" t="s">
-        <v>501</v>
-      </c>
-      <c r="AG8" t="s">
         <v>648</v>
       </c>
     </row>
@@ -4567,18 +4846,15 @@
         <v>366</v>
       </c>
       <c r="AA9" t="s">
-        <v>752</v>
-      </c>
-      <c r="AB9" t="s">
         <v>207</v>
       </c>
+      <c r="AC9" t="s">
+        <v>180</v>
+      </c>
       <c r="AD9" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE9" t="s">
         <v>187</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>649</v>
       </c>
     </row>
@@ -4614,18 +4890,15 @@
         <v>462</v>
       </c>
       <c r="AA10" t="s">
-        <v>753</v>
-      </c>
-      <c r="AB10" t="s">
         <v>254</v>
       </c>
+      <c r="AC10" t="s">
+        <v>722</v>
+      </c>
       <c r="AD10" t="s">
-        <v>722</v>
-      </c>
-      <c r="AE10" t="s">
         <v>188</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4634,7 +4907,7 @@
         <v>353</v>
       </c>
       <c r="F11" t="s">
-        <v>677</v>
+        <v>790</v>
       </c>
       <c r="H11" t="s">
         <v>358</v>
@@ -4658,15 +4931,12 @@
         <v>744</v>
       </c>
       <c r="AA11" t="s">
-        <v>754</v>
-      </c>
-      <c r="AB11" t="s">
         <v>255</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>256</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4675,7 +4945,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>316</v>
+        <v>677</v>
       </c>
       <c r="H12" t="s">
         <v>271</v>
@@ -4699,15 +4969,12 @@
         <v>246</v>
       </c>
       <c r="AA12" t="s">
-        <v>755</v>
-      </c>
-      <c r="AB12" t="s">
         <v>101</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>189</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4716,7 +4983,7 @@
         <v>330</v>
       </c>
       <c r="F13" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="H13" t="s">
         <v>260</v>
@@ -4740,15 +5007,12 @@
         <v>247</v>
       </c>
       <c r="AA13" t="s">
-        <v>756</v>
-      </c>
-      <c r="AB13" t="s">
         <v>323</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>190</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>590</v>
       </c>
     </row>
@@ -4757,7 +5021,7 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>338</v>
       </c>
       <c r="H14" t="s">
         <v>313</v>
@@ -4778,15 +5042,12 @@
         <v>714</v>
       </c>
       <c r="AA14" t="s">
-        <v>757</v>
-      </c>
-      <c r="AB14" t="s">
         <v>102</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>191</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>607</v>
       </c>
     </row>
@@ -4795,7 +5056,7 @@
         <v>627</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
         <v>261</v>
@@ -4816,15 +5077,12 @@
         <v>252</v>
       </c>
       <c r="AA15" t="s">
-        <v>758</v>
-      </c>
-      <c r="AB15" t="s">
         <v>734</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>192</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>608</v>
       </c>
     </row>
@@ -4833,7 +5091,7 @@
         <v>592</v>
       </c>
       <c r="F16" t="s">
-        <v>438</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
         <v>262</v>
@@ -4854,15 +5112,12 @@
         <v>248</v>
       </c>
       <c r="AA16" t="s">
-        <v>759</v>
-      </c>
-      <c r="AB16" t="s">
         <v>715</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>193</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>612</v>
       </c>
     </row>
@@ -4871,7 +5126,7 @@
         <v>194</v>
       </c>
       <c r="F17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H17" t="s">
         <v>314</v>
@@ -4886,15 +5141,12 @@
         <v>249</v>
       </c>
       <c r="AA17" t="s">
-        <v>760</v>
-      </c>
-      <c r="AB17" t="s">
         <v>103</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>565</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>613</v>
       </c>
     </row>
@@ -4903,7 +5155,7 @@
         <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>480</v>
+        <v>439</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
@@ -4918,12 +5170,9 @@
         <v>250</v>
       </c>
       <c r="AA18" t="s">
-        <v>761</v>
-      </c>
-      <c r="AB18" t="s">
         <v>75</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>591</v>
       </c>
     </row>
@@ -4932,7 +5181,7 @@
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>738</v>
+        <v>480</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -4941,12 +5190,9 @@
         <v>534</v>
       </c>
       <c r="AA19" t="s">
-        <v>762</v>
-      </c>
-      <c r="AB19" t="s">
         <v>617</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>609</v>
       </c>
     </row>
@@ -4955,7 +5201,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
@@ -4964,12 +5210,9 @@
         <v>83</v>
       </c>
       <c r="AA20" t="s">
-        <v>763</v>
-      </c>
-      <c r="AB20" t="s">
         <v>104</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>610</v>
       </c>
     </row>
@@ -4978,7 +5221,7 @@
         <v>453</v>
       </c>
       <c r="F21" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H21" t="s">
         <v>294</v>
@@ -4987,12 +5230,9 @@
         <v>84</v>
       </c>
       <c r="AA21" t="s">
-        <v>764</v>
-      </c>
-      <c r="AB21" t="s">
         <v>105</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>614</v>
       </c>
     </row>
@@ -5001,7 +5241,7 @@
         <v>477</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>740</v>
       </c>
       <c r="H22" t="s">
         <v>295</v>
@@ -5010,12 +5250,9 @@
         <v>681</v>
       </c>
       <c r="AA22" t="s">
-        <v>765</v>
-      </c>
-      <c r="AB22" t="s">
         <v>106</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5024,7 +5261,7 @@
         <v>478</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>296</v>
@@ -5033,12 +5270,9 @@
         <v>571</v>
       </c>
       <c r="AA23" t="s">
-        <v>766</v>
-      </c>
-      <c r="AB23" t="s">
         <v>107</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>650</v>
       </c>
     </row>
@@ -5047,7 +5281,7 @@
         <v>360</v>
       </c>
       <c r="F24" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
         <v>287</v>
@@ -5056,12 +5290,9 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>767</v>
-      </c>
-      <c r="AB24" t="s">
         <v>598</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5070,7 +5301,7 @@
         <v>449</v>
       </c>
       <c r="F25" t="s">
-        <v>741</v>
+        <v>253</v>
       </c>
       <c r="H25" t="s">
         <v>276</v>
@@ -5079,12 +5310,9 @@
         <v>445</v>
       </c>
       <c r="AA25" t="s">
-        <v>768</v>
-      </c>
-      <c r="AB25" t="s">
         <v>108</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>652</v>
       </c>
     </row>
@@ -5093,7 +5321,7 @@
         <v>727</v>
       </c>
       <c r="F26" t="s">
-        <v>653</v>
+        <v>741</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -5102,21 +5330,18 @@
         <v>743</v>
       </c>
       <c r="AA26" t="s">
-        <v>769</v>
-      </c>
-      <c r="AB26" t="s">
         <v>657</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>737</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>653</v>
       </c>
       <c r="H27" t="s">
         <v>279</v>
@@ -5125,21 +5350,18 @@
         <v>638</v>
       </c>
       <c r="AA27" t="s">
-        <v>770</v>
-      </c>
-      <c r="AB27" t="s">
         <v>109</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>318</v>
+        <v>62</v>
       </c>
       <c r="H28" t="s">
         <v>263</v>
@@ -5148,18 +5370,15 @@
         <v>85</v>
       </c>
       <c r="AA28" t="s">
-        <v>771</v>
-      </c>
-      <c r="AB28" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>318</v>
       </c>
       <c r="H29" t="s">
         <v>280</v>
@@ -5168,18 +5387,15 @@
         <v>505</v>
       </c>
       <c r="AA29" t="s">
-        <v>772</v>
-      </c>
-      <c r="AB29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>527</v>
+        <v>63</v>
       </c>
       <c r="H30" t="s">
         <v>281</v>
@@ -5188,18 +5404,15 @@
         <v>44</v>
       </c>
       <c r="AA30" t="s">
-        <v>773</v>
-      </c>
-      <c r="AB30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>479</v>
       </c>
       <c r="F31" t="s">
-        <v>223</v>
+        <v>527</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
@@ -5208,187 +5421,163 @@
         <v>45</v>
       </c>
       <c r="AA31" t="s">
-        <v>774</v>
-      </c>
-      <c r="AB31" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>479</v>
+        <v>225</v>
       </c>
       <c r="F32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H32" t="s">
         <v>272</v>
       </c>
       <c r="AA32" t="s">
-        <v>775</v>
-      </c>
-      <c r="AB32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>225</v>
-      </c>
       <c r="F33" t="s">
-        <v>569</v>
+        <v>224</v>
       </c>
       <c r="H33" t="s">
         <v>282</v>
       </c>
       <c r="AA33" t="s">
-        <v>776</v>
-      </c>
-      <c r="AB33" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H34" t="s">
         <v>623</v>
       </c>
       <c r="AA34" t="s">
-        <v>777</v>
-      </c>
-      <c r="AB34" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>481</v>
+        <v>570</v>
       </c>
       <c r="H35" t="s">
         <v>257</v>
       </c>
       <c r="AA35" t="s">
-        <v>778</v>
-      </c>
-      <c r="AB35" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>64</v>
+        <v>481</v>
       </c>
       <c r="H36" t="s">
         <v>327</v>
       </c>
       <c r="AA36" t="s">
-        <v>779</v>
-      </c>
-      <c r="AB36" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H37" t="s">
         <v>304</v>
       </c>
       <c r="AA37" t="s">
-        <v>780</v>
-      </c>
-      <c r="AB37" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H38" t="s">
         <v>258</v>
       </c>
       <c r="AA38" t="s">
-        <v>781</v>
-      </c>
-      <c r="AB38" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H39" t="s">
         <v>305</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AA39" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H40" t="s">
         <v>264</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H43" t="s">
         <v>654</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AA43" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>742</v>
+        <v>71</v>
       </c>
       <c r="H44" t="s">
         <v>286</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AA44" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="45">
+      <c r="F45" t="s">
+        <v>742</v>
+      </c>
       <c r="H45" t="s">
         <v>297</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5396,7 +5585,7 @@
       <c r="H46" t="s">
         <v>298</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AA46" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5404,7 +5593,7 @@
       <c r="H47" t="s">
         <v>340</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AA47" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5412,7 +5601,7 @@
       <c r="H48" t="s">
         <v>339</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AA48" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5420,7 +5609,7 @@
       <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AA49" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5428,7 +5617,7 @@
       <c r="H50" t="s">
         <v>317</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AA50" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5436,7 +5625,7 @@
       <c r="H51" t="s">
         <v>336</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AA51" t="s">
         <v>735</v>
       </c>
     </row>
@@ -5444,7 +5633,7 @@
       <c r="H52" t="s">
         <v>371</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AA52" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5452,7 +5641,7 @@
       <c r="H53" t="s">
         <v>299</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AA53" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5460,7 +5649,7 @@
       <c r="H54" t="s">
         <v>359</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AA54" t="s">
         <v>646</v>
       </c>
     </row>
@@ -5468,7 +5657,7 @@
       <c r="H55" t="s">
         <v>328</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AA55" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5476,7 +5665,7 @@
       <c r="H56" t="s">
         <v>265</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AA56" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5484,7 +5673,7 @@
       <c r="H57" t="s">
         <v>289</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AA57" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5492,7 +5681,7 @@
       <c r="H58" t="s">
         <v>290</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AA58" t="s">
         <v>599</v>
       </c>
     </row>
@@ -5500,7 +5689,7 @@
       <c r="H59" t="s">
         <v>655</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AA59" t="s">
         <v>567</v>
       </c>
     </row>
@@ -5508,7 +5697,7 @@
       <c r="H60" t="s">
         <v>291</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AA60" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5516,7 +5705,7 @@
       <c r="H61" t="s">
         <v>300</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AA61" t="s">
         <v>352</v>
       </c>
     </row>
@@ -5524,7 +5713,7 @@
       <c r="H62" t="s">
         <v>309</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AA62" t="s">
         <v>561</v>
       </c>
     </row>
@@ -5532,7 +5721,7 @@
       <c r="H63" t="s">
         <v>334</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AA63" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5540,7 +5729,7 @@
       <c r="H64" t="s">
         <v>306</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AA64" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5548,7 +5737,7 @@
       <c r="H65" t="s">
         <v>307</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AA65" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5556,7 +5745,7 @@
       <c r="H66" t="s">
         <v>372</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AA66" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5564,7 +5753,7 @@
       <c r="H67" t="s">
         <v>373</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AA67" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5572,7 +5761,7 @@
       <c r="H68" t="s">
         <v>342</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AA68" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5580,7 +5769,7 @@
       <c r="H69" t="s">
         <v>310</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AA69" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5588,7 +5777,7 @@
       <c r="H70" t="s">
         <v>266</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AA70" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5596,7 +5785,7 @@
       <c r="H71" t="s">
         <v>642</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AA71" t="s">
         <v>589</v>
       </c>
     </row>
@@ -5604,7 +5793,7 @@
       <c r="H72" t="s">
         <v>311</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AA72" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5612,7 +5801,7 @@
       <c r="H73" t="s">
         <v>475</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AA73" t="s">
         <v>442</v>
       </c>
     </row>
@@ -5620,7 +5809,7 @@
       <c r="H74" t="s">
         <v>301</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AA74" t="s">
         <v>507</v>
       </c>
     </row>
@@ -5628,7 +5817,7 @@
       <c r="H75" t="s">
         <v>476</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AA75" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5636,7 +5825,7 @@
       <c r="H76" t="s">
         <v>259</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AA76" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5644,7 +5833,7 @@
       <c r="H77" t="s">
         <v>624</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AA77" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5652,7 +5841,7 @@
       <c r="H78" t="s">
         <v>341</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AA78" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5660,7 +5849,7 @@
       <c r="H79" t="s">
         <v>277</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AA79" t="s">
         <v>782</v>
       </c>
     </row>
@@ -5668,7 +5857,7 @@
       <c r="H80" t="s">
         <v>283</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AA80" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5676,7 +5865,7 @@
       <c r="H81" t="s">
         <v>288</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AA81" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5684,7 +5873,7 @@
       <c r="H82" t="s">
         <v>482</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AA82" t="s">
         <v>532</v>
       </c>
     </row>
@@ -5692,7 +5881,7 @@
       <c r="H83" t="s">
         <v>329</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AA83" t="s">
         <v>568</v>
       </c>
     </row>
@@ -5700,7 +5889,7 @@
       <c r="H84" t="s">
         <v>267</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AA84" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5708,7 +5897,7 @@
       <c r="H85" t="s">
         <v>278</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AA85" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5716,7 +5905,7 @@
       <c r="H86" t="s">
         <v>284</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AA86" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5724,7 +5913,7 @@
       <c r="H87" t="s">
         <v>273</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AA87" t="s">
         <v>611</v>
       </c>
     </row>
@@ -5732,7 +5921,7 @@
       <c r="H88" t="s">
         <v>643</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AA88" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5740,7 +5929,7 @@
       <c r="H89" t="s">
         <v>268</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AA89" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5748,7 +5937,7 @@
       <c r="H90" t="s">
         <v>285</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AA90" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5756,7 +5945,7 @@
       <c r="H91" t="s">
         <v>269</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AA91" t="s">
         <v>600</v>
       </c>
     </row>
@@ -5764,7 +5953,7 @@
       <c r="H92" t="s">
         <v>270</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AA92" t="s">
         <v>713</v>
       </c>
     </row>
@@ -5772,7 +5961,7 @@
       <c r="H93" t="s">
         <v>302</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AA93" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5780,7 +5969,7 @@
       <c r="H94" t="s">
         <v>308</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AA94" t="s">
         <v>531</v>
       </c>
     </row>
@@ -5788,7 +5977,7 @@
       <c r="H95" t="s">
         <v>292</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AA95" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5796,7 +5985,7 @@
       <c r="H96" t="s">
         <v>337</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AA96" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5804,7 +5993,7 @@
       <c r="H97" t="s">
         <v>274</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AA97" t="s">
         <v>661</v>
       </c>
     </row>
@@ -5812,272 +6001,272 @@
       <c r="H98" t="s">
         <v>275</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AA98" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="99">
-      <c r="AB99" t="s">
+      <c r="AA99" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="100">
-      <c r="AB100" t="s">
+      <c r="AA100" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="101">
-      <c r="AB101" t="s">
+      <c r="AA101" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="102">
-      <c r="AB102" t="s">
+      <c r="AA102" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="103">
-      <c r="AB103" t="s">
+      <c r="AA103" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="104">
-      <c r="AB104" t="s">
+      <c r="AA104" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="105">
-      <c r="AB105" t="s">
+      <c r="AA105" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="106">
-      <c r="AB106" t="s">
+      <c r="AA106" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="107">
-      <c r="AB107" t="s">
+      <c r="AA107" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="108">
-      <c r="AB108" t="s">
+      <c r="AA108" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="109">
-      <c r="AB109" t="s">
+      <c r="AA109" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="110">
-      <c r="AB110" t="s">
+      <c r="AA110" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="111">
-      <c r="AB111" t="s">
+      <c r="AA111" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="112">
-      <c r="AB112" t="s">
+      <c r="AA112" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="113">
-      <c r="AB113" t="s">
+      <c r="AA113" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="114">
-      <c r="AB114" t="s">
+      <c r="AA114" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="115">
-      <c r="AB115" t="s">
+      <c r="AA115" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="116">
-      <c r="AB116" t="s">
+      <c r="AA116" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="117">
-      <c r="AB117" t="s">
+      <c r="AA117" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="118">
-      <c r="AB118" t="s">
+      <c r="AA118" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="119">
-      <c r="AB119" t="s">
+      <c r="AA119" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="120">
-      <c r="AB120" t="s">
+      <c r="AA120" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="121">
-      <c r="AB121" t="s">
+      <c r="AA121" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="122">
-      <c r="AB122" t="s">
+      <c r="AA122" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="123">
-      <c r="AB123" t="s">
+      <c r="AA123" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="124">
-      <c r="AB124" t="s">
+      <c r="AA124" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="125">
-      <c r="AB125" t="s">
+      <c r="AA125" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="126">
-      <c r="AB126" t="s">
+      <c r="AA126" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="127">
-      <c r="AB127" t="s">
+      <c r="AA127" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="128">
-      <c r="AB128" t="s">
+      <c r="AA128" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="129">
-      <c r="AB129" t="s">
+      <c r="AA129" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="130">
-      <c r="AB130" t="s">
+      <c r="AA130" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="131">
-      <c r="AB131" t="s">
+      <c r="AA131" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="132">
-      <c r="AB132" t="s">
+      <c r="AA132" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="133">
-      <c r="AB133" t="s">
+      <c r="AA133" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="134">
-      <c r="AB134" t="s">
+      <c r="AA134" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="135">
-      <c r="AB135" t="s">
+      <c r="AA135" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="136">
-      <c r="AB136" t="s">
+      <c r="AA136" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="137">
-      <c r="AB137" t="s">
+      <c r="AA137" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="138">
-      <c r="AB138" t="s">
+      <c r="AA138" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="139">
-      <c r="AB139" t="s">
+      <c r="AA139" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="140">
-      <c r="AB140" t="s">
+      <c r="AA140" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="141">
-      <c r="AB141" t="s">
+      <c r="AA141" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="142">
-      <c r="AB142" t="s">
+      <c r="AA142" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="143">
-      <c r="AB143" t="s">
+      <c r="AA143" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="144">
-      <c r="AB144" t="s">
+      <c r="AA144" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="145">
-      <c r="AB145" t="s">
+      <c r="AA145" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="146">
-      <c r="AB146" t="s">
+      <c r="AA146" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="147">
-      <c r="AB147" t="s">
+      <c r="AA147" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="148">
-      <c r="AB148" t="s">
+      <c r="AA148" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="149">
-      <c r="AB149" t="s">
+      <c r="AA149" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="150">
-      <c r="AB150" t="s">
+      <c r="AA150" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="151">
-      <c r="AB151" t="s">
+      <c r="AA151" t="s">
         <v>789</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4212" uniqueCount="792">
   <si>
     <t>description</t>
   </si>
@@ -2501,7 +2501,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="65" x14ac:knownFonts="1">
+  <fonts count="99" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2919,8 +2919,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="77">
+  <fills count="125">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2943,6 +3157,278 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3399,7 +3885,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="129">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3658,55 +4144,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="55" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="50" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="51" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="64" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="64" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="67" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="67" fontId="54" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="70" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="73" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="64" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="64" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="76" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="76" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="64" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="64" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="73" fontId="64" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="79" fontId="65" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="82" fontId="67" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="85" fontId="68" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="88" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="91" fontId="71" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="94" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="97" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="85" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="88" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="100" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="88" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="97" fontId="81" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="103" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="106" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="115" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="118" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="121" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="121" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -33,12 +33,12 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$31</definedName>
+    <definedName name="io">'#system'!$L$2:$L$32</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4212" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5422" uniqueCount="796">
   <si>
     <t>description</t>
   </si>
@@ -2495,13 +2495,25 @@
   <si>
     <t>openFile(filePath)</t>
   </si>
+  <si>
+    <t>checksum(var,file)</t>
+  </si>
+  <si>
+    <t>clearMail(var)</t>
+  </si>
+  <si>
+    <t>composeMail(var,action,value)</t>
+  </si>
+  <si>
+    <t>send(profile,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="99" x14ac:knownFonts="1">
+  <fonts count="133" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3133,8 +3145,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="125">
+  <fills count="173">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3157,6 +3383,278 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3885,7 +4383,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="163">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4246,55 +4744,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="97" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="103" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="103" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="106" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="106" fontId="84" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="109" fontId="85" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="112" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="115" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="115" fontId="88" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="118" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="118" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="121" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="121" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="109" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="112" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="124" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="112" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="121" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="121" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="127" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="130" fontId="101" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="133" fontId="102" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="136" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="139" fontId="105" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="142" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="145" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="133" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="136" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="148" fontId="113" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="136" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="145" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="154" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="157" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="160" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="169" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="157" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="160" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="172" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="160" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="169" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4898,7 +5498,7 @@
         <v>595</v>
       </c>
       <c r="Q2" t="s">
-        <v>484</v>
+        <v>793</v>
       </c>
       <c r="R2" t="s">
         <v>485</v>
@@ -4992,6 +5592,9 @@
       <c r="P3" t="s">
         <v>596</v>
       </c>
+      <c r="Q3" t="s">
+        <v>794</v>
+      </c>
       <c r="R3" t="s">
         <v>486</v>
       </c>
@@ -5078,6 +5681,9 @@
       <c r="P4" t="s">
         <v>597</v>
       </c>
+      <c r="Q4" t="s">
+        <v>795</v>
+      </c>
       <c r="R4" t="s">
         <v>26</v>
       </c>
@@ -5289,7 +5895,7 @@
         <v>354</v>
       </c>
       <c r="L7" t="s">
-        <v>72</v>
+        <v>792</v>
       </c>
       <c r="N7" t="s">
         <v>312</v>
@@ -5351,7 +5957,7 @@
         <v>644</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -5410,7 +6016,7 @@
         <v>326</v>
       </c>
       <c r="L9" t="s">
-        <v>619</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -5460,7 +6066,7 @@
         <v>723</v>
       </c>
       <c r="L10" t="s">
-        <v>80</v>
+        <v>619</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -5504,7 +6110,7 @@
         <v>724</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="N11" t="s">
         <v>572</v>
@@ -5542,7 +6148,7 @@
         <v>530</v>
       </c>
       <c r="L12" t="s">
-        <v>620</v>
+        <v>37</v>
       </c>
       <c r="N12" t="s">
         <v>645</v>
@@ -5580,7 +6186,7 @@
         <v>319</v>
       </c>
       <c r="L13" t="s">
-        <v>443</v>
+        <v>620</v>
       </c>
       <c r="N13" t="s">
         <v>506</v>
@@ -5618,7 +6224,7 @@
         <v>320</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>443</v>
       </c>
       <c r="N14" t="s">
         <v>573</v>
@@ -5653,7 +6259,7 @@
         <v>321</v>
       </c>
       <c r="L15" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -5688,7 +6294,7 @@
         <v>322</v>
       </c>
       <c r="L16" t="s">
-        <v>621</v>
+        <v>41</v>
       </c>
       <c r="N16" t="s">
         <v>656</v>
@@ -5720,7 +6326,7 @@
         <v>314</v>
       </c>
       <c r="L17" t="s">
-        <v>81</v>
+        <v>621</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -5749,7 +6355,7 @@
         <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -5775,7 +6381,7 @@
         <v>90</v>
       </c>
       <c r="L19" t="s">
-        <v>534</v>
+        <v>82</v>
       </c>
       <c r="AA19" t="s">
         <v>617</v>
@@ -5795,7 +6401,7 @@
         <v>293</v>
       </c>
       <c r="L20" t="s">
-        <v>83</v>
+        <v>534</v>
       </c>
       <c r="AA20" t="s">
         <v>104</v>
@@ -5815,7 +6421,7 @@
         <v>294</v>
       </c>
       <c r="L21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AA21" t="s">
         <v>105</v>
@@ -5835,7 +6441,7 @@
         <v>295</v>
       </c>
       <c r="L22" t="s">
-        <v>681</v>
+        <v>84</v>
       </c>
       <c r="AA22" t="s">
         <v>106</v>
@@ -5855,7 +6461,7 @@
         <v>296</v>
       </c>
       <c r="L23" t="s">
-        <v>571</v>
+        <v>681</v>
       </c>
       <c r="AA23" t="s">
         <v>107</v>
@@ -5875,7 +6481,7 @@
         <v>287</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>571</v>
       </c>
       <c r="AA24" t="s">
         <v>598</v>
@@ -5895,7 +6501,7 @@
         <v>276</v>
       </c>
       <c r="L25" t="s">
-        <v>445</v>
+        <v>43</v>
       </c>
       <c r="AA25" t="s">
         <v>108</v>
@@ -5915,7 +6521,7 @@
         <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>743</v>
+        <v>445</v>
       </c>
       <c r="AA26" t="s">
         <v>657</v>
@@ -5935,7 +6541,7 @@
         <v>279</v>
       </c>
       <c r="L27" t="s">
-        <v>638</v>
+        <v>743</v>
       </c>
       <c r="AA27" t="s">
         <v>109</v>
@@ -5955,7 +6561,7 @@
         <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>85</v>
+        <v>638</v>
       </c>
       <c r="AA28" t="s">
         <v>110</v>
@@ -5972,7 +6578,7 @@
         <v>280</v>
       </c>
       <c r="L29" t="s">
-        <v>505</v>
+        <v>85</v>
       </c>
       <c r="AA29" t="s">
         <v>111</v>
@@ -5989,7 +6595,7 @@
         <v>281</v>
       </c>
       <c r="L30" t="s">
-        <v>44</v>
+        <v>505</v>
       </c>
       <c r="AA30" t="s">
         <v>112</v>
@@ -6006,7 +6612,7 @@
         <v>214</v>
       </c>
       <c r="L31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA31" t="s">
         <v>324</v>
@@ -6021,6 +6627,9 @@
       </c>
       <c r="H32" t="s">
         <v>272</v>
+      </c>
+      <c r="L32" t="s">
+        <v>45</v>
       </c>
       <c r="AA32" t="s">
         <v>113</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -38,12 +38,12 @@
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5422" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6031" uniqueCount="802">
   <si>
     <t>description</t>
   </si>
@@ -2507,13 +2507,31 @@
   <si>
     <t>send(profile,var)</t>
   </si>
+  <si>
+    <t>clearComposed(var)</t>
+  </si>
+  <si>
+    <t>compose(var,config,value)</t>
+  </si>
+  <si>
+    <t>sendComposed(profile,var)</t>
+  </si>
+  <si>
+    <t>ocr(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>savePageCount(pdf,var)</t>
+  </si>
+  <si>
+    <t>split(pdf,saveTo)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="133" x14ac:knownFonts="1">
+  <fonts count="150" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3359,8 +3377,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="173">
+  <fills count="197">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3383,6 +3508,142 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -4383,7 +4644,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="180">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4846,55 +5107,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="145" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="151" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="154" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="154" fontId="118" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="157" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="157" fontId="119" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="160" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="160" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="163" fontId="122" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="166" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="169" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="169" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="157" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="157" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="160" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="160" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="172" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="172" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="160" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="160" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="169" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="169" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="175" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="181" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="184" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="187" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="190" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="193" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="181" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="184" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="196" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="184" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="193" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5498,7 +5810,7 @@
         <v>595</v>
       </c>
       <c r="Q2" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="R2" t="s">
         <v>485</v>
@@ -5593,7 +5905,7 @@
         <v>596</v>
       </c>
       <c r="Q3" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="R3" t="s">
         <v>486</v>
@@ -5682,7 +5994,7 @@
         <v>597</v>
       </c>
       <c r="Q4" t="s">
-        <v>795</v>
+        <v>484</v>
       </c>
       <c r="R4" t="s">
         <v>26</v>
@@ -5764,6 +6076,9 @@
       <c r="O5" t="s">
         <v>639</v>
       </c>
+      <c r="Q5" t="s">
+        <v>798</v>
+      </c>
       <c r="R5" t="s">
         <v>29</v>
       </c>
@@ -6198,7 +6513,7 @@
         <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>247</v>
+        <v>799</v>
       </c>
       <c r="AA13" t="s">
         <v>323</v>
@@ -6233,7 +6548,7 @@
         <v>95</v>
       </c>
       <c r="S14" t="s">
-        <v>714</v>
+        <v>247</v>
       </c>
       <c r="AA14" t="s">
         <v>102</v>
@@ -6268,7 +6583,7 @@
         <v>615</v>
       </c>
       <c r="S15" t="s">
-        <v>252</v>
+        <v>714</v>
       </c>
       <c r="AA15" t="s">
         <v>734</v>
@@ -6303,7 +6618,7 @@
         <v>616</v>
       </c>
       <c r="S16" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AA16" t="s">
         <v>715</v>
@@ -6332,7 +6647,7 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA17" t="s">
         <v>103</v>
@@ -6361,7 +6676,7 @@
         <v>42</v>
       </c>
       <c r="S18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AA18" t="s">
         <v>75</v>
@@ -6383,6 +6698,9 @@
       <c r="L19" t="s">
         <v>82</v>
       </c>
+      <c r="S19" t="s">
+        <v>800</v>
+      </c>
       <c r="AA19" t="s">
         <v>617</v>
       </c>
@@ -6403,6 +6721,9 @@
       <c r="L20" t="s">
         <v>534</v>
       </c>
+      <c r="S20" t="s">
+        <v>250</v>
+      </c>
       <c r="AA20" t="s">
         <v>104</v>
       </c>
@@ -6422,6 +6743,9 @@
       </c>
       <c r="L21" t="s">
         <v>83</v>
+      </c>
+      <c r="S21" t="s">
+        <v>801</v>
       </c>
       <c r="AA21" t="s">
         <v>105</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -25,12 +25,12 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$45</definedName>
+    <definedName name="base">'#system'!$F$2:$F$47</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$32</definedName>
@@ -51,15 +51,17 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$34</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
+    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
+    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
+    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
+    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -74,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6031" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6674" uniqueCount="839">
   <si>
     <t>description</t>
   </si>
@@ -2525,13 +2527,124 @@
   <si>
     <t>split(pdf,saveTo)</t>
   </si>
+  <si>
+    <t>webmail</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>assertVarsNotPresent(vars)</t>
+  </si>
+  <si>
+    <t>assertVarsPresent(vars)</t>
+  </si>
+  <si>
+    <t>check(name)</t>
+  </si>
+  <si>
+    <t>checkByLocator(locator)</t>
+  </si>
+  <si>
+    <t>clickMenuByLocator(locator,menu)</t>
+  </si>
+  <si>
+    <t>contextMenu(name,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>contextMenuByLocator(locator,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>doubleClick(name)</t>
+  </si>
+  <si>
+    <t>doubleClickByLocator(locator)</t>
+  </si>
+  <si>
+    <t>rightClickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>rightClickOffset(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAllTableRows(var,csv)</t>
+  </si>
+  <si>
+    <t>saveComboOptions(var,name)</t>
+  </si>
+  <si>
+    <t>saveComboOptionsByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>saveTableRows(var,contains,csv)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow,csv)</t>
+  </si>
+  <si>
+    <t>screenshot(name,file)</t>
+  </si>
+  <si>
+    <t>screenshotByLocator(locator,file)</t>
+  </si>
+  <si>
+    <t>uncheck(name)</t>
+  </si>
+  <si>
+    <t>uncheckByLocator(locator)</t>
+  </si>
+  <si>
+    <t>renameSheet(file,worksheet,newName)</t>
+  </si>
+  <si>
+    <t>xls2xlsx(xlsFile,xlsxFile)</t>
+  </si>
+  <si>
+    <t>assertLocation(search)</t>
+  </si>
+  <si>
+    <t>openInTab(name,url)</t>
+  </si>
+  <si>
+    <t>delete(profile,id)</t>
+  </si>
+  <si>
+    <t>read(var,profile,id)</t>
+  </si>
+  <si>
+    <t>search(var,profile,searchCriteria,duration)</t>
+  </si>
+  <si>
+    <t>assertContains(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotContain(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotReadOnly(file)</t>
+  </si>
+  <si>
+    <t>assertPassword(file,password)</t>
+  </si>
+  <si>
+    <t>assertReadOnly(file)</t>
+  </si>
+  <si>
+    <t>extractText(var,file)</t>
+  </si>
+  <si>
+    <t>readOnly(file,password)</t>
+  </si>
+  <si>
+    <t>removeProtection(file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="150" x14ac:knownFonts="1">
+  <fonts count="167" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3484,8 +3597,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="197">
+  <fills count="221">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3508,6 +3728,142 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -4644,7 +5000,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="197">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5207,6 +5563,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="149" fillId="193" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="199" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="202" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="205" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="208" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="211" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="214" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="217" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="205" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="208" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="220" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="208" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="217" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5651,7 +6058,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG151"/>
+  <dimension ref="A1:AI153"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5751,12 +6158,18 @@
         <v>56</v>
       </c>
       <c r="AD1" t="s">
+        <v>802</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>803</v>
+      </c>
+      <c r="AF1" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>479</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5849,12 +6262,18 @@
         <v>174</v>
       </c>
       <c r="AD2" t="s">
+        <v>828</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>831</v>
+      </c>
+      <c r="AF2" t="s">
         <v>181</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>496</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>606</v>
       </c>
     </row>
@@ -5941,12 +6360,18 @@
         <v>175</v>
       </c>
       <c r="AD3" t="s">
+        <v>829</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>832</v>
+      </c>
+      <c r="AF3" t="s">
         <v>367</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>182</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6030,12 +6455,18 @@
         <v>176</v>
       </c>
       <c r="AD4" t="s">
+        <v>830</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>833</v>
+      </c>
+      <c r="AF4" t="s">
         <v>182</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>497</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -6106,13 +6537,16 @@
       <c r="AC5" t="s">
         <v>721</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
+        <v>834</v>
+      </c>
+      <c r="AF5" t="s">
         <v>183</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>498</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6177,13 +6611,16 @@
       <c r="AC6" t="s">
         <v>177</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
+        <v>835</v>
+      </c>
+      <c r="AF6" t="s">
         <v>184</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>499</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6242,13 +6679,16 @@
       <c r="AC7" t="s">
         <v>178</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
+        <v>836</v>
+      </c>
+      <c r="AF7" t="s">
         <v>185</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>500</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>647</v>
       </c>
     </row>
@@ -6266,7 +6706,7 @@
         <v>369</v>
       </c>
       <c r="I8" t="s">
-        <v>325</v>
+        <v>824</v>
       </c>
       <c r="K8" t="s">
         <v>644</v>
@@ -6304,13 +6744,16 @@
       <c r="AC8" t="s">
         <v>179</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
+        <v>837</v>
+      </c>
+      <c r="AF8" t="s">
         <v>186</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>501</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AH8" t="s">
         <v>648</v>
       </c>
     </row>
@@ -6328,7 +6771,7 @@
         <v>370</v>
       </c>
       <c r="I9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -6360,10 +6803,13 @@
       <c r="AC9" t="s">
         <v>180</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
+        <v>838</v>
+      </c>
+      <c r="AF9" t="s">
         <v>187</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH9" t="s">
         <v>649</v>
       </c>
     </row>
@@ -6378,7 +6824,7 @@
         <v>303</v>
       </c>
       <c r="I10" t="s">
-        <v>723</v>
+        <v>326</v>
       </c>
       <c r="L10" t="s">
         <v>619</v>
@@ -6404,10 +6850,10 @@
       <c r="AC10" t="s">
         <v>722</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>188</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AH10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6422,7 +6868,7 @@
         <v>358</v>
       </c>
       <c r="I11" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L11" t="s">
         <v>80</v>
@@ -6442,10 +6888,10 @@
       <c r="AA11" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
         <v>256</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AH11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6460,7 +6906,7 @@
         <v>271</v>
       </c>
       <c r="I12" t="s">
-        <v>530</v>
+        <v>724</v>
       </c>
       <c r="L12" t="s">
         <v>37</v>
@@ -6480,10 +6926,10 @@
       <c r="AA12" t="s">
         <v>101</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>189</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AH12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6498,7 +6944,7 @@
         <v>260</v>
       </c>
       <c r="I13" t="s">
-        <v>319</v>
+        <v>530</v>
       </c>
       <c r="L13" t="s">
         <v>620</v>
@@ -6518,10 +6964,10 @@
       <c r="AA13" t="s">
         <v>323</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>190</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AH13" t="s">
         <v>590</v>
       </c>
     </row>
@@ -6536,7 +6982,7 @@
         <v>313</v>
       </c>
       <c r="I14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L14" t="s">
         <v>443</v>
@@ -6553,10 +6999,10 @@
       <c r="AA14" t="s">
         <v>102</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
         <v>191</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>607</v>
       </c>
     </row>
@@ -6571,7 +7017,7 @@
         <v>261</v>
       </c>
       <c r="I15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -6588,10 +7034,10 @@
       <c r="AA15" t="s">
         <v>734</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
         <v>192</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH15" t="s">
         <v>608</v>
       </c>
     </row>
@@ -6606,7 +7052,7 @@
         <v>262</v>
       </c>
       <c r="I16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L16" t="s">
         <v>41</v>
@@ -6623,10 +7069,10 @@
       <c r="AA16" t="s">
         <v>715</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AF16" t="s">
         <v>193</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AH16" t="s">
         <v>612</v>
       </c>
     </row>
@@ -6640,6 +7086,9 @@
       <c r="H17" t="s">
         <v>314</v>
       </c>
+      <c r="I17" t="s">
+        <v>322</v>
+      </c>
       <c r="L17" t="s">
         <v>621</v>
       </c>
@@ -6652,10 +7101,10 @@
       <c r="AA17" t="s">
         <v>103</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AF17" t="s">
         <v>565</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AH17" t="s">
         <v>613</v>
       </c>
     </row>
@@ -6669,6 +7118,9 @@
       <c r="H18" t="s">
         <v>89</v>
       </c>
+      <c r="I18" t="s">
+        <v>825</v>
+      </c>
       <c r="L18" t="s">
         <v>81</v>
       </c>
@@ -6681,7 +7133,7 @@
       <c r="AA18" t="s">
         <v>75</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AH18" t="s">
         <v>591</v>
       </c>
     </row>
@@ -6690,7 +7142,7 @@
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>480</v>
+        <v>804</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -6704,7 +7156,7 @@
       <c r="AA19" t="s">
         <v>617</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AH19" t="s">
         <v>609</v>
       </c>
     </row>
@@ -6713,7 +7165,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>738</v>
+        <v>805</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
@@ -6727,7 +7179,7 @@
       <c r="AA20" t="s">
         <v>104</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AH20" t="s">
         <v>610</v>
       </c>
     </row>
@@ -6736,7 +7188,7 @@
         <v>453</v>
       </c>
       <c r="F21" t="s">
-        <v>739</v>
+        <v>480</v>
       </c>
       <c r="H21" t="s">
         <v>294</v>
@@ -6750,7 +7202,7 @@
       <c r="AA21" t="s">
         <v>105</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AH21" t="s">
         <v>614</v>
       </c>
     </row>
@@ -6759,7 +7211,7 @@
         <v>477</v>
       </c>
       <c r="F22" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="H22" t="s">
         <v>295</v>
@@ -6770,7 +7222,7 @@
       <c r="AA22" t="s">
         <v>106</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AH22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6779,7 +7231,7 @@
         <v>478</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>739</v>
       </c>
       <c r="H23" t="s">
         <v>296</v>
@@ -6790,7 +7242,7 @@
       <c r="AA23" t="s">
         <v>107</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AH23" t="s">
         <v>650</v>
       </c>
     </row>
@@ -6799,7 +7251,7 @@
         <v>360</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>740</v>
       </c>
       <c r="H24" t="s">
         <v>287</v>
@@ -6810,7 +7262,7 @@
       <c r="AA24" t="s">
         <v>598</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AH24" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6819,7 +7271,7 @@
         <v>449</v>
       </c>
       <c r="F25" t="s">
-        <v>253</v>
+        <v>60</v>
       </c>
       <c r="H25" t="s">
         <v>276</v>
@@ -6830,7 +7282,7 @@
       <c r="AA25" t="s">
         <v>108</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH25" t="s">
         <v>652</v>
       </c>
     </row>
@@ -6839,18 +7291,18 @@
         <v>727</v>
       </c>
       <c r="F26" t="s">
-        <v>741</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
-        <v>76</v>
+        <v>806</v>
       </c>
       <c r="L26" t="s">
         <v>445</v>
       </c>
       <c r="AA26" t="s">
-        <v>657</v>
-      </c>
-      <c r="AF26" t="s">
+        <v>826</v>
+      </c>
+      <c r="AH26" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6859,18 +7311,18 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>653</v>
+        <v>253</v>
       </c>
       <c r="H27" t="s">
-        <v>279</v>
+        <v>807</v>
       </c>
       <c r="L27" t="s">
         <v>743</v>
       </c>
       <c r="AA27" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF27" t="s">
+        <v>657</v>
+      </c>
+      <c r="AH27" t="s">
         <v>235</v>
       </c>
     </row>
@@ -6879,16 +7331,16 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>741</v>
       </c>
       <c r="H28" t="s">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="L28" t="s">
         <v>638</v>
       </c>
       <c r="AA28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
@@ -6896,898 +7348,959 @@
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>318</v>
+        <v>653</v>
       </c>
       <c r="H29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L29" t="s">
         <v>85</v>
       </c>
       <c r="AA29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>802</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H30" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s">
         <v>505</v>
       </c>
       <c r="AA30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>479</v>
+        <v>803</v>
       </c>
       <c r="F31" t="s">
-        <v>527</v>
+        <v>318</v>
       </c>
       <c r="H31" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s">
         <v>44</v>
       </c>
       <c r="AA31" t="s">
-        <v>324</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>223</v>
+        <v>63</v>
       </c>
       <c r="H32" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s">
         <v>45</v>
       </c>
       <c r="AA32" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>479</v>
+      </c>
+      <c r="F33" t="s">
+        <v>527</v>
+      </c>
+      <c r="H33" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA33" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33">
-      <c r="F33" t="s">
-        <v>224</v>
-      </c>
-      <c r="H33" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA33" t="s">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>225</v>
+      </c>
+      <c r="F34" t="s">
+        <v>223</v>
+      </c>
+      <c r="H34" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA34" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" t="s">
-        <v>569</v>
-      </c>
-      <c r="H34" t="s">
-        <v>623</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>570</v>
+        <v>224</v>
       </c>
       <c r="H35" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="AA35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>481</v>
+        <v>569</v>
       </c>
       <c r="H36" t="s">
-        <v>327</v>
+        <v>623</v>
       </c>
       <c r="AA36" t="s">
-        <v>658</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>64</v>
+        <v>570</v>
       </c>
       <c r="H37" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="AA37" t="s">
-        <v>117</v>
+        <v>658</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>65</v>
+        <v>481</v>
       </c>
       <c r="H38" t="s">
-        <v>258</v>
+        <v>327</v>
       </c>
       <c r="AA38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AA39" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H40" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AA40" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H41" t="s">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="AA41" t="s">
-        <v>335</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H42" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="AA42" t="s">
-        <v>494</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H43" t="s">
-        <v>654</v>
+        <v>808</v>
       </c>
       <c r="AA43" t="s">
-        <v>679</v>
+        <v>494</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H44" t="s">
-        <v>286</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s">
-        <v>446</v>
+        <v>679</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H46" t="s">
+        <v>654</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" t="s">
         <v>742</v>
       </c>
-      <c r="H45" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="H46" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA46" t="s">
+      <c r="H47" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA47" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="H47" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="48">
       <c r="H48" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="AA48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
       <c r="H49" t="s">
-        <v>209</v>
+        <v>298</v>
       </c>
       <c r="AA49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50">
       <c r="H50" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="AA50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51">
       <c r="H51" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AA51" t="s">
-        <v>735</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52">
       <c r="H52" t="s">
-        <v>371</v>
+        <v>209</v>
       </c>
       <c r="AA52" t="s">
-        <v>211</v>
+        <v>735</v>
       </c>
     </row>
     <row r="53">
       <c r="H53" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="AA53" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54">
       <c r="H54" t="s">
-        <v>359</v>
+        <v>809</v>
       </c>
       <c r="AA54" t="s">
-        <v>646</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
       <c r="H55" t="s">
-        <v>328</v>
+        <v>810</v>
       </c>
       <c r="AA55" t="s">
-        <v>126</v>
+        <v>646</v>
       </c>
     </row>
     <row r="56">
       <c r="H56" t="s">
-        <v>265</v>
+        <v>811</v>
       </c>
       <c r="AA56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
       <c r="H57" t="s">
-        <v>289</v>
+        <v>812</v>
       </c>
       <c r="AA57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58">
       <c r="H58" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="AA58" t="s">
-        <v>599</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59">
       <c r="H59" t="s">
-        <v>655</v>
+        <v>371</v>
       </c>
       <c r="AA59" t="s">
-        <v>567</v>
+        <v>599</v>
       </c>
     </row>
     <row r="60">
       <c r="H60" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="AA60" t="s">
-        <v>129</v>
+        <v>567</v>
       </c>
     </row>
     <row r="61">
       <c r="H61" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="AA61" t="s">
-        <v>352</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62">
       <c r="H62" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="AA62" t="s">
-        <v>561</v>
+        <v>352</v>
       </c>
     </row>
     <row r="63">
       <c r="H63" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="AA63" t="s">
-        <v>130</v>
+        <v>561</v>
       </c>
     </row>
     <row r="64">
       <c r="H64" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="AA64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
       <c r="H65" t="s">
-        <v>307</v>
+        <v>655</v>
       </c>
       <c r="AA65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66">
       <c r="H66" t="s">
-        <v>372</v>
+        <v>291</v>
       </c>
       <c r="AA66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67">
       <c r="H67" t="s">
-        <v>373</v>
+        <v>813</v>
       </c>
       <c r="AA67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68">
       <c r="H68" t="s">
-        <v>342</v>
+        <v>814</v>
       </c>
       <c r="AA68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69">
       <c r="H69" t="s">
-        <v>310</v>
+        <v>815</v>
       </c>
       <c r="AA69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70">
       <c r="H70" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="AA70" t="s">
-        <v>503</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71">
       <c r="H71" t="s">
-        <v>642</v>
+        <v>816</v>
       </c>
       <c r="AA71" t="s">
-        <v>589</v>
+        <v>503</v>
       </c>
     </row>
     <row r="72">
       <c r="H72" t="s">
-        <v>311</v>
+        <v>817</v>
       </c>
       <c r="AA72" t="s">
-        <v>212</v>
+        <v>589</v>
       </c>
     </row>
     <row r="73">
       <c r="H73" t="s">
-        <v>475</v>
+        <v>334</v>
       </c>
       <c r="AA73" t="s">
-        <v>442</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74">
       <c r="H74" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="AA74" t="s">
-        <v>507</v>
+        <v>442</v>
       </c>
     </row>
     <row r="75">
       <c r="H75" t="s">
-        <v>476</v>
+        <v>307</v>
       </c>
       <c r="AA75" t="s">
-        <v>137</v>
+        <v>507</v>
       </c>
     </row>
     <row r="76">
       <c r="H76" t="s">
-        <v>259</v>
+        <v>372</v>
       </c>
       <c r="AA76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77">
       <c r="H77" t="s">
-        <v>624</v>
+        <v>373</v>
       </c>
       <c r="AA77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
       <c r="H78" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79">
       <c r="H79" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="AA79" t="s">
-        <v>782</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="AA80" t="s">
-        <v>195</v>
+        <v>782</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
-        <v>288</v>
+        <v>642</v>
       </c>
       <c r="AA81" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
-        <v>482</v>
+        <v>311</v>
       </c>
       <c r="AA82" t="s">
-        <v>532</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
-        <v>329</v>
+        <v>475</v>
       </c>
       <c r="AA83" t="s">
-        <v>568</v>
+        <v>532</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
-        <v>267</v>
+        <v>818</v>
       </c>
       <c r="AA84" t="s">
-        <v>141</v>
+        <v>568</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
-        <v>278</v>
+        <v>819</v>
       </c>
       <c r="AA85" t="s">
-        <v>142</v>
+        <v>827</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="AA86" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
-        <v>273</v>
+        <v>624</v>
       </c>
       <c r="AA87" t="s">
-        <v>611</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
-        <v>643</v>
+        <v>341</v>
       </c>
       <c r="AA88" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="AA89" t="s">
-        <v>145</v>
+        <v>611</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
-        <v>285</v>
+        <v>820</v>
       </c>
       <c r="AA90" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
-        <v>269</v>
+        <v>821</v>
       </c>
       <c r="AA91" t="s">
-        <v>600</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="AA92" t="s">
-        <v>713</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
-        <v>302</v>
+        <v>482</v>
       </c>
       <c r="AA93" t="s">
-        <v>198</v>
+        <v>600</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="AA94" t="s">
-        <v>531</v>
+        <v>713</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="AA95" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="AA96" t="s">
-        <v>200</v>
+        <v>531</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="AA97" t="s">
-        <v>661</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="H99" t="s">
+        <v>643</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="H100" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="H101" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="H102" t="s">
+        <v>822</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="H103" t="s">
+        <v>823</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="H104" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="H105" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="H106" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="H107" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="H108" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="H109" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="H110" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="H111" t="s">
         <v>275</v>
       </c>
-      <c r="AA98" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="AA99" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="AA100" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="AA101" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="AA102" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="AA103" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="AA104" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="AA105" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="AA106" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="AA107" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="AA108" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="AA109" t="s">
+      <c r="AA111" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="AA110" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="AA111" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>622</v>
+        <v>716</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>783</v>
+        <v>206</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>784</v>
+        <v>622</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>625</v>
+        <v>783</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>147</v>
+        <v>784</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>436</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>148</v>
+        <v>626</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>149</v>
+        <v>436</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>717</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>151</v>
+        <v>717</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>718</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>153</v>
+        <v>718</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>719</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>159</v>
+        <v>719</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>736</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>659</v>
+        <v>736</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>163</v>
+        <v>659</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>785</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
-        <v>720</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145">
       <c r="AA145" t="s">
-        <v>166</v>
+        <v>785</v>
       </c>
     </row>
     <row r="146">
       <c r="AA146" t="s">
-        <v>167</v>
+        <v>720</v>
       </c>
     </row>
     <row r="147">
       <c r="AA147" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148">
       <c r="AA148" t="s">
-        <v>786</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149">
       <c r="AA149" t="s">
-        <v>787</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150">
       <c r="AA150" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="151">
       <c r="AA151" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AA152" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="AA153" t="s">
         <v>789</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_json.xlsx
@@ -26,42 +26,45 @@
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="base">'#system'!$F$2:$F$47</definedName>
-    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
+    <definedName name="csv">'#system'!$H$2:$H$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
-    <definedName name="external">'#system'!$J$2:$J$7</definedName>
-    <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$32</definedName>
-    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
-    <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
-    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="desktop">'#system'!$I$2:$I$113</definedName>
+    <definedName name="excel">'#system'!$J$2:$J$18</definedName>
+    <definedName name="external">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$L$2:$L$8</definedName>
+    <definedName name="io">'#system'!$M$2:$M$33</definedName>
+    <definedName name="jms">'#system'!$O$2:$O$4</definedName>
+    <definedName name="json">'#system'!$P$2:$P$19</definedName>
+    <definedName name="localdb">'#system'!$Q$2:$Q$13</definedName>
+    <definedName name="macro">'#system'!$R$2:$R$4</definedName>
+    <definedName name="mail">'#system'!$S$2:$S$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
-    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
-    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
-    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
-    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
-    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$34</definedName>
+    <definedName name="number">'#system'!$U$2:$U$16</definedName>
+    <definedName name="pdf">'#system'!$V$2:$V$21</definedName>
+    <definedName name="rdbms">'#system'!$W$2:$W$9</definedName>
+    <definedName name="redis">'#system'!$X$2:$X$10</definedName>
+    <definedName name="sms">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="sound">'#system'!$Z$2:$Z$5</definedName>
+    <definedName name="ssh">'#system'!$AA$2:$AA$9</definedName>
+    <definedName name="step">'#system'!$AB$2:$AB$4</definedName>
+    <definedName name="step.inTime">'#system'!$AC$2:$AC$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$38</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
-    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
-    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
-    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
-    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
+    <definedName name="tn.5250">'#system'!$AD$2:$AD$44</definedName>
+    <definedName name="web">'#system'!$AE$2:$AE$160</definedName>
+    <definedName name="webalert">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="webcookie">'#system'!$AG$2:$AG$10</definedName>
+    <definedName name="ws">'#system'!$AJ$2:$AJ$20</definedName>
+    <definedName name="ws.async">'#system'!$AK$2:$AK$8</definedName>
+    <definedName name="xml">'#system'!$AL$2:$AL$27</definedName>
+    <definedName name="webmail">'#system'!$AH$2:$AH$6</definedName>
+    <definedName name="word">'#system'!$AI$2:$AI$9</definedName>
+    <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
+    <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
+    <definedName name="mobile">'#system'!$T$2:$T$51</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -76,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6674" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7455" uniqueCount="925">
   <si>
     <t>description</t>
   </si>
@@ -2638,13 +2641,271 @@
   <si>
     <t>removeProtection(file)</t>
   </si>
+  <si>
+    <t>browserstack</t>
+  </si>
+  <si>
+    <t>javaui</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>deleteApp(profile,appId,resultVar)</t>
+  </si>
+  <si>
+    <t>listBrowsers(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>listDevices(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>saveUploadApps(profile,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>updateSessionStatus(profile,status,reason,resultVar)</t>
+  </si>
+  <si>
+    <t>uploadApp(profile,app,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>focusFirstTableRow()</t>
+  </si>
+  <si>
+    <t>focusLastTableRow()</t>
+  </si>
+  <si>
+    <t>assertFileContent(file,match,asLines)</t>
+  </si>
+  <si>
+    <t>assertEditable(name)</t>
+  </si>
+  <si>
+    <t>assertPresence(name)</t>
+  </si>
+  <si>
+    <t>assertText(name,text)</t>
+  </si>
+  <si>
+    <t>clickMenu(menus)</t>
+  </si>
+  <si>
+    <t>startApp(profile)</t>
+  </si>
+  <si>
+    <t>startLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>startLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>stopApp(profile)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>typeText(name,text)</t>
+  </si>
+  <si>
+    <t>waitForWindowTitle(title)</t>
+  </si>
+  <si>
+    <t>sanitize(var,json)</t>
+  </si>
+  <si>
+    <t>assertAlertPresent(text)</t>
+  </si>
+  <si>
+    <t>assertAttribute(locator,attribute,text)</t>
+  </si>
+  <si>
+    <t>assertCount(locator,count)</t>
+  </si>
+  <si>
+    <t>assertElementNotVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertElementVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertLocked()</t>
+  </si>
+  <si>
+    <t>assertTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>back()</t>
+  </si>
+  <si>
+    <t>clearAlert(option)</t>
+  </si>
+  <si>
+    <t>clearNotification()</t>
+  </si>
+  <si>
+    <t>clickByDisplayText(text)</t>
+  </si>
+  <si>
+    <t>clickUntilNotFound(locator,waitMs,max)</t>
+  </si>
+  <si>
+    <t>closeApp()</t>
+  </si>
+  <si>
+    <t>copyToLocal(file,folder)</t>
+  </si>
+  <si>
+    <t>doubleClick(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>forward()</t>
+  </si>
+  <si>
+    <t>hideKeyboard()</t>
+  </si>
+  <si>
+    <t>home()</t>
+  </si>
+  <si>
+    <t>launchApp(app)</t>
+  </si>
+  <si>
+    <t>lock()</t>
+  </si>
+  <si>
+    <t>longClick(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>orientation(mode)</t>
+  </si>
+  <si>
+    <t>postScreenshot$nexial_core(target,locator)</t>
+  </si>
+  <si>
+    <t>recentApps()</t>
+  </si>
+  <si>
+    <t>saveAlertText(var)</t>
+  </si>
+  <si>
+    <t>saveAttributes(var,locator,attribute)</t>
+  </si>
+  <si>
+    <t>saveLockStatus(var)</t>
+  </si>
+  <si>
+    <t>scroll(locator,direction)</t>
+  </si>
+  <si>
+    <t>scrollUntilFound(scrollTarget,direction,searchFor,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>select(locator,item)</t>
+  </si>
+  <si>
+    <t>selectLocalFile(device,folder,filename)</t>
+  </si>
+  <si>
+    <t>sendSms(phone,message)</t>
+  </si>
+  <si>
+    <t>shake()</t>
+  </si>
+  <si>
+    <t>shutdown(profile)</t>
+  </si>
+  <si>
+    <t>slide(start,end)</t>
+  </si>
+  <si>
+    <t>type(locator,text)</t>
+  </si>
+  <si>
+    <t>unlock()</t>
+  </si>
+  <si>
+    <t>use(profile)</t>
+  </si>
+  <si>
+    <t>zoom(start1,end1,start2,end2)</t>
+  </si>
+  <si>
+    <t>compare$nexial_core(expects,actual,expectMatch,messagePrefix)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedColumns(matches,keystrokes)</t>
+  </si>
+  <si>
+    <t>waitUntilMessagePresent(message,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilProcessed(maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTextPresent(text,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTitlePresent(title,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementsEnabled(prefix)</t>
+  </si>
+  <si>
+    <t>assertElementsVisible(prefix)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsAbsent(locator,options)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsPresent(locator,options)</t>
+  </si>
+  <si>
+    <t>clickIfPresent(locator)</t>
+  </si>
+  <si>
+    <t>saveCssValue(var,locator,property)</t>
+  </si>
+  <si>
+    <t>selectDropdown(locator,optLocator,optText)</t>
+  </si>
+  <si>
+    <t>toast(message,duration,darkMode)</t>
+  </si>
+  <si>
+    <t>waitForElementTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>waitWhileElementNotPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>attachment(profile,id,attachment,saveTo)</t>
+  </si>
+  <si>
+    <t>attachments(profile,id,saveDir)</t>
+  </si>
+  <si>
+    <t>clearHeaders(headers)</t>
+  </si>
+  <si>
+    <t>graphql(url,body,var)</t>
+  </si>
+  <si>
+    <t>oauthProfile(var,profile)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="167" x14ac:knownFonts="1">
+  <fonts count="184" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3704,8 +3965,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="221">
+  <fills count="245">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3728,6 +4096,142 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -5000,7 +5504,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="214">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5514,106 +6018,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="169" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="175" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="175" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="178" fontId="135" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="181" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="181" fontId="136" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="184" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="184" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="187" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="187" fontId="139" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="190" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="190" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="193" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="193" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="181" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="181" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="184" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="184" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="196" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="196" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="184" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="184" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="193" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="193" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="199" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="199" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="202" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="202" fontId="152" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="205" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="205" fontId="153" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="208" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="208" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="155" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="211" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="211" fontId="156" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="214" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="214" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="217" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="217" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="205" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="205" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="208" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="208" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="220" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="220" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="208" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="208" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="217" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="217" fontId="166" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="223" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="226" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="229" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="235" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="238" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="241" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="229" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="244" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="241" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6058,7 +6613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI153"/>
+  <dimension ref="A1:AM160"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6089,87 +6644,99 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
+        <v>839</v>
+      </c>
+      <c r="H1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>353</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>840</v>
+      </c>
+      <c r="O1" t="s">
         <v>330</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>627</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>592</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>194</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>841</v>
+      </c>
+      <c r="U1" t="s">
         <v>52</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>237</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>53</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>453</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>477</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>478</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>360</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>449</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>727</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
+        <v>737</v>
+      </c>
+      <c r="AE1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>802</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>803</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>57</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>479</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6193,87 +6760,99 @@
         <v>58</v>
       </c>
       <c r="G2" t="s">
+        <v>842</v>
+      </c>
+      <c r="H2" t="s">
         <v>72</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>74</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>528</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>791</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>725</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>312</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>440</v>
+      </c>
+      <c r="O2" t="s">
         <v>437</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>483</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>628</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>595</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>796</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>864</v>
+      </c>
+      <c r="U2" t="s">
         <v>485</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>251</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>729</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>454</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>489</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>490</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>434</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>450</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>731</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
+        <v>745</v>
+      </c>
+      <c r="AE2" t="s">
         <v>96</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
         <v>169</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>174</v>
       </c>
-      <c r="AD2" t="s">
-        <v>828</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
+        <v>920</v>
+      </c>
+      <c r="AI2" t="s">
         <v>831</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AJ2" t="s">
         <v>181</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>496</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>606</v>
       </c>
     </row>
@@ -6294,84 +6873,96 @@
         <v>543</v>
       </c>
       <c r="G3" t="s">
+        <v>843</v>
+      </c>
+      <c r="H3" t="s">
         <v>368</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>88</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>49</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>79</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>355</v>
       </c>
-      <c r="L3" t="s">
-        <v>338</v>
-      </c>
       <c r="M3" t="s">
+        <v>850</v>
+      </c>
+      <c r="N3" t="s">
+        <v>851</v>
+      </c>
+      <c r="O3" t="s">
         <v>331</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>86</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>629</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>596</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>797</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
+        <v>865</v>
+      </c>
+      <c r="U3" t="s">
         <v>486</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>238</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>730</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>455</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>491</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>435</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>451</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
         <v>732</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
+        <v>746</v>
+      </c>
+      <c r="AE3" t="s">
         <v>97</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AF3" t="s">
         <v>170</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AG3" t="s">
         <v>175</v>
       </c>
-      <c r="AD3" t="s">
-        <v>829</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
+        <v>921</v>
+      </c>
+      <c r="AI3" t="s">
         <v>832</v>
       </c>
-      <c r="AF3" t="s">
-        <v>367</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="AJ3" t="s">
+        <v>922</v>
+      </c>
+      <c r="AK3" t="s">
         <v>182</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AL3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6389,84 +6980,96 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
+        <v>844</v>
+      </c>
+      <c r="H4" t="s">
         <v>73</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>440</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>529</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>593</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>356</v>
       </c>
-      <c r="L4" t="s">
-        <v>709</v>
-      </c>
       <c r="M4" t="s">
+        <v>338</v>
+      </c>
+      <c r="N4" t="s">
+        <v>441</v>
+      </c>
+      <c r="O4" t="s">
         <v>332</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>25</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>630</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>597</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>484</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
+        <v>866</v>
+      </c>
+      <c r="U4" t="s">
         <v>26</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>239</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>215</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>456</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>492</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>361</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
         <v>452</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
         <v>733</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
+        <v>747</v>
+      </c>
+      <c r="AE4" t="s">
         <v>710</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AF4" t="s">
         <v>171</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AG4" t="s">
         <v>176</v>
       </c>
-      <c r="AD4" t="s">
-        <v>830</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
+        <v>828</v>
+      </c>
+      <c r="AI4" t="s">
         <v>833</v>
       </c>
-      <c r="AF4" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AJ4" t="s">
+        <v>367</v>
+      </c>
+      <c r="AK4" t="s">
         <v>497</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AL4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -6484,69 +7087,84 @@
         <v>544</v>
       </c>
       <c r="G5" t="s">
+        <v>845</v>
+      </c>
+      <c r="H5" t="s">
         <v>504</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>660</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>533</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>594</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>357</v>
       </c>
-      <c r="L5" t="s">
-        <v>236</v>
+      <c r="M5" t="s">
+        <v>709</v>
       </c>
       <c r="N5" t="s">
+        <v>852</v>
+      </c>
+      <c r="P5" t="s">
         <v>87</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>639</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>798</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
+        <v>734</v>
+      </c>
+      <c r="U5" t="s">
         <v>29</v>
       </c>
-      <c r="S5" t="s">
+      <c r="V5" t="s">
         <v>240</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>216</v>
       </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
         <v>457</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Z5" t="s">
         <v>493</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>362</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
+        <v>748</v>
+      </c>
+      <c r="AE5" t="s">
         <v>678</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AF5" t="s">
         <v>172</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AG5" t="s">
         <v>721</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
+        <v>829</v>
+      </c>
+      <c r="AI5" t="s">
         <v>834</v>
       </c>
-      <c r="AF5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="AJ5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK5" t="s">
         <v>498</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AL5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6564,69 +7182,84 @@
         <v>27</v>
       </c>
       <c r="G6" t="s">
+        <v>846</v>
+      </c>
+      <c r="H6" t="s">
         <v>618</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>333</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>526</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>641</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>726</v>
       </c>
-      <c r="L6" t="s">
-        <v>564</v>
+      <c r="M6" t="s">
+        <v>236</v>
       </c>
       <c r="N6" t="s">
+        <v>853</v>
+      </c>
+      <c r="P6" t="s">
         <v>28</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>634</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
+        <v>715</v>
+      </c>
+      <c r="U6" t="s">
         <v>30</v>
       </c>
-      <c r="S6" t="s">
+      <c r="V6" t="s">
         <v>241</v>
       </c>
-      <c r="T6" t="s">
+      <c r="W6" t="s">
         <v>217</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>458</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AA6" t="s">
         <v>364</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
+        <v>749</v>
+      </c>
+      <c r="AE6" t="s">
         <v>98</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AF6" t="s">
         <v>508</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AG6" t="s">
         <v>177</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
+        <v>830</v>
+      </c>
+      <c r="AI6" t="s">
         <v>835</v>
       </c>
-      <c r="AF6" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG6" t="s">
+      <c r="AJ6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK6" t="s">
         <v>499</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AL6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>839</v>
       </c>
       <c r="B7" t="s">
         <v>431</v>
@@ -6634,67 +7267,79 @@
       <c r="F7" t="s">
         <v>222</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
+        <v>847</v>
+      </c>
+      <c r="I7" t="s">
         <v>441</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>525</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>708</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>354</v>
       </c>
-      <c r="L7" t="s">
-        <v>792</v>
+      <c r="M7" t="s">
+        <v>564</v>
       </c>
       <c r="N7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P7" t="s">
         <v>312</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>635</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
+        <v>103</v>
+      </c>
+      <c r="U7" t="s">
         <v>32</v>
       </c>
-      <c r="S7" t="s">
+      <c r="V7" t="s">
         <v>242</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>218</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" t="s">
         <v>459</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AA7" t="s">
         <v>363</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
+        <v>750</v>
+      </c>
+      <c r="AE7" t="s">
         <v>99</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AF7" t="s">
         <v>509</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AG7" t="s">
         <v>178</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AI7" t="s">
         <v>836</v>
       </c>
-      <c r="AF7" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG7" t="s">
+      <c r="AJ7" t="s">
+        <v>923</v>
+      </c>
+      <c r="AK7" t="s">
         <v>500</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AL7" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>432</v>
@@ -6702,64 +7347,73 @@
       <c r="F8" t="s">
         <v>315</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>369</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>824</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>644</v>
       </c>
-      <c r="L8" t="s">
-        <v>72</v>
+      <c r="M8" t="s">
+        <v>792</v>
       </c>
       <c r="N8" t="s">
+        <v>854</v>
+      </c>
+      <c r="P8" t="s">
         <v>33</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>636</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
+        <v>867</v>
+      </c>
+      <c r="U8" t="s">
         <v>91</v>
       </c>
-      <c r="S8" t="s">
+      <c r="V8" t="s">
         <v>243</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
         <v>444</v>
       </c>
-      <c r="U8" t="s">
+      <c r="X8" t="s">
         <v>460</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AA8" t="s">
         <v>365</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
+        <v>751</v>
+      </c>
+      <c r="AE8" t="s">
         <v>100</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AF8" t="s">
         <v>173</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AG8" t="s">
         <v>179</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AI8" t="s">
         <v>837</v>
       </c>
-      <c r="AF8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AJ8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK8" t="s">
         <v>501</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AL8" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>433</v>
@@ -6767,1541 +7421,1870 @@
       <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>370</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>325</v>
       </c>
-      <c r="L9" t="s">
-        <v>16</v>
+      <c r="M9" t="s">
+        <v>72</v>
       </c>
       <c r="N9" t="s">
+        <v>855</v>
+      </c>
+      <c r="P9" t="s">
         <v>34</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>640</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
+        <v>75</v>
+      </c>
+      <c r="U9" t="s">
         <v>92</v>
       </c>
-      <c r="S9" t="s">
+      <c r="V9" t="s">
         <v>244</v>
       </c>
-      <c r="T9" t="s">
+      <c r="W9" t="s">
         <v>488</v>
       </c>
-      <c r="U9" t="s">
+      <c r="X9" t="s">
         <v>461</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AA9" t="s">
         <v>366</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
+        <v>752</v>
+      </c>
+      <c r="AE9" t="s">
         <v>207</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AG9" t="s">
         <v>180</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AI9" t="s">
         <v>838</v>
       </c>
-      <c r="AF9" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="AJ9" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL9" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
         <v>312</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>303</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>326</v>
       </c>
-      <c r="L10" t="s">
-        <v>619</v>
+      <c r="M10" t="s">
+        <v>16</v>
       </c>
       <c r="N10" t="s">
+        <v>856</v>
+      </c>
+      <c r="P10" t="s">
         <v>35</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>631</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
+        <v>868</v>
+      </c>
+      <c r="U10" t="s">
         <v>487</v>
       </c>
-      <c r="S10" t="s">
+      <c r="V10" t="s">
         <v>245</v>
       </c>
-      <c r="U10" t="s">
+      <c r="X10" t="s">
         <v>462</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
+        <v>753</v>
+      </c>
+      <c r="AE10" t="s">
         <v>254</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AG10" t="s">
         <v>722</v>
       </c>
-      <c r="AF10" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH10" t="s">
+      <c r="AJ10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL10" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>353</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>790</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>358</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>723</v>
       </c>
-      <c r="L11" t="s">
-        <v>80</v>
+      <c r="M11" t="s">
+        <v>619</v>
       </c>
       <c r="N11" t="s">
+        <v>857</v>
+      </c>
+      <c r="P11" t="s">
         <v>572</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>632</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
+        <v>617</v>
+      </c>
+      <c r="U11" t="s">
         <v>93</v>
       </c>
-      <c r="S11" t="s">
+      <c r="V11" t="s">
         <v>744</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
+        <v>754</v>
+      </c>
+      <c r="AE11" t="s">
         <v>255</v>
       </c>
-      <c r="AF11" t="s">
-        <v>256</v>
-      </c>
-      <c r="AH11" t="s">
+      <c r="AJ11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>353</v>
       </c>
       <c r="F12" t="s">
         <v>677</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>271</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>724</v>
       </c>
-      <c r="L12" t="s">
-        <v>37</v>
+      <c r="M12" t="s">
+        <v>80</v>
       </c>
       <c r="N12" t="s">
+        <v>858</v>
+      </c>
+      <c r="P12" t="s">
         <v>645</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>728</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
+        <v>869</v>
+      </c>
+      <c r="U12" t="s">
         <v>40</v>
       </c>
-      <c r="S12" t="s">
+      <c r="V12" t="s">
         <v>246</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
+        <v>755</v>
+      </c>
+      <c r="AE12" t="s">
         <v>101</v>
       </c>
-      <c r="AF12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AH12" t="s">
+      <c r="AJ12" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL12" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>330</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
         <v>316</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>260</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>530</v>
       </c>
-      <c r="L13" t="s">
-        <v>620</v>
+      <c r="M13" t="s">
+        <v>37</v>
       </c>
       <c r="N13" t="s">
+        <v>859</v>
+      </c>
+      <c r="P13" t="s">
         <v>506</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>633</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
+        <v>870</v>
+      </c>
+      <c r="U13" t="s">
         <v>94</v>
       </c>
-      <c r="S13" t="s">
+      <c r="V13" t="s">
         <v>799</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AD13" t="s">
+        <v>756</v>
+      </c>
+      <c r="AE13" t="s">
         <v>323</v>
       </c>
-      <c r="AF13" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH13" t="s">
+      <c r="AJ13" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL13" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>840</v>
       </c>
       <c r="F14" t="s">
         <v>338</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>313</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>319</v>
       </c>
-      <c r="L14" t="s">
-        <v>443</v>
+      <c r="M14" t="s">
+        <v>620</v>
       </c>
       <c r="N14" t="s">
+        <v>860</v>
+      </c>
+      <c r="P14" t="s">
         <v>573</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
+        <v>871</v>
+      </c>
+      <c r="U14" t="s">
         <v>95</v>
       </c>
-      <c r="S14" t="s">
+      <c r="V14" t="s">
         <v>247</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AD14" t="s">
+        <v>757</v>
+      </c>
+      <c r="AE14" t="s">
         <v>102</v>
       </c>
-      <c r="AF14" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="AJ14" t="s">
+        <v>924</v>
+      </c>
+      <c r="AL14" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>627</v>
+        <v>330</v>
       </c>
       <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>261</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>320</v>
       </c>
-      <c r="L15" t="s">
-        <v>17</v>
+      <c r="M15" t="s">
+        <v>443</v>
       </c>
       <c r="N15" t="s">
-        <v>38</v>
-      </c>
-      <c r="R15" t="s">
+        <v>861</v>
+      </c>
+      <c r="P15" t="s">
+        <v>863</v>
+      </c>
+      <c r="T15" t="s">
+        <v>872</v>
+      </c>
+      <c r="U15" t="s">
         <v>615</v>
       </c>
-      <c r="S15" t="s">
+      <c r="V15" t="s">
         <v>714</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AD15" t="s">
+        <v>758</v>
+      </c>
+      <c r="AE15" t="s">
         <v>734</v>
       </c>
-      <c r="AF15" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AJ15" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL15" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>592</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
         <v>59</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>262</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>321</v>
       </c>
-      <c r="L16" t="s">
-        <v>41</v>
+      <c r="M16" t="s">
+        <v>17</v>
       </c>
       <c r="N16" t="s">
-        <v>656</v>
-      </c>
-      <c r="R16" t="s">
+        <v>862</v>
+      </c>
+      <c r="P16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16" t="s">
+        <v>873</v>
+      </c>
+      <c r="U16" t="s">
         <v>616</v>
       </c>
-      <c r="S16" t="s">
+      <c r="V16" t="s">
         <v>252</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AD16" t="s">
+        <v>759</v>
+      </c>
+      <c r="AE16" t="s">
         <v>715</v>
       </c>
-      <c r="AF16" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH16" t="s">
+      <c r="AJ16" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL16" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>627</v>
       </c>
       <c r="F17" t="s">
         <v>438</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>314</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>322</v>
       </c>
-      <c r="L17" t="s">
-        <v>621</v>
-      </c>
-      <c r="N17" t="s">
-        <v>39</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="M17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" t="s">
+        <v>656</v>
+      </c>
+      <c r="T17" t="s">
+        <v>77</v>
+      </c>
+      <c r="V17" t="s">
         <v>248</v>
       </c>
-      <c r="AA17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>565</v>
-      </c>
-      <c r="AH17" t="s">
+      <c r="AD17" t="s">
+        <v>760</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>909</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL17" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>592</v>
       </c>
       <c r="F18" t="s">
         <v>439</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>89</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>825</v>
       </c>
-      <c r="L18" t="s">
-        <v>81</v>
-      </c>
-      <c r="N18" t="s">
-        <v>42</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="M18" t="s">
+        <v>621</v>
+      </c>
+      <c r="P18" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" t="s">
+        <v>874</v>
+      </c>
+      <c r="V18" t="s">
         <v>249</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AD18" t="s">
+        <v>761</v>
+      </c>
+      <c r="AE18" t="s">
         <v>75</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AJ18" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL18" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="F19" t="s">
         <v>804</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>90</v>
       </c>
-      <c r="L19" t="s">
-        <v>82</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="M19" t="s">
+        <v>81</v>
+      </c>
+      <c r="P19" t="s">
+        <v>42</v>
+      </c>
+      <c r="T19" t="s">
+        <v>875</v>
+      </c>
+      <c r="V19" t="s">
         <v>800</v>
       </c>
-      <c r="AA19" t="s">
-        <v>617</v>
-      </c>
-      <c r="AH19" t="s">
+      <c r="AD19" t="s">
+        <v>762</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>910</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL19" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>841</v>
       </c>
       <c r="F20" t="s">
         <v>805</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>293</v>
       </c>
-      <c r="L20" t="s">
-        <v>534</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="M20" t="s">
+        <v>82</v>
+      </c>
+      <c r="T20" t="s">
+        <v>876</v>
+      </c>
+      <c r="V20" t="s">
         <v>250</v>
       </c>
-      <c r="AA20" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH20" t="s">
+      <c r="AD20" t="s">
+        <v>763</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>617</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>565</v>
+      </c>
+      <c r="AL20" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>453</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
         <v>480</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>294</v>
       </c>
-      <c r="L21" t="s">
-        <v>83</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="M21" t="s">
+        <v>534</v>
+      </c>
+      <c r="T21" t="s">
+        <v>877</v>
+      </c>
+      <c r="V21" t="s">
         <v>801</v>
       </c>
-      <c r="AA21" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH21" t="s">
+      <c r="AD21" t="s">
+        <v>764</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>911</v>
+      </c>
+      <c r="AL21" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>477</v>
+        <v>237</v>
       </c>
       <c r="F22" t="s">
         <v>738</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>295</v>
       </c>
-      <c r="L22" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH22" t="s">
+      <c r="M22" t="s">
+        <v>83</v>
+      </c>
+      <c r="T22" t="s">
+        <v>878</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>765</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL22" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>478</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
         <v>739</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>296</v>
       </c>
-      <c r="L23" t="s">
-        <v>681</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH23" t="s">
+      <c r="M23" t="s">
+        <v>84</v>
+      </c>
+      <c r="T23" t="s">
+        <v>879</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>903</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL23" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>360</v>
+        <v>453</v>
       </c>
       <c r="F24" t="s">
         <v>740</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>287</v>
       </c>
-      <c r="L24" t="s">
-        <v>571</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>598</v>
-      </c>
-      <c r="AH24" t="s">
+      <c r="M24" t="s">
+        <v>681</v>
+      </c>
+      <c r="T24" t="s">
+        <v>880</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>766</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL24" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="F25" t="s">
         <v>60</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>276</v>
       </c>
-      <c r="L25" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH25" t="s">
+      <c r="M25" t="s">
+        <v>571</v>
+      </c>
+      <c r="T25" t="s">
+        <v>881</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>767</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL25" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>727</v>
+        <v>478</v>
       </c>
       <c r="F26" t="s">
         <v>61</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>806</v>
       </c>
-      <c r="L26" t="s">
-        <v>445</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>826</v>
-      </c>
-      <c r="AH26" t="s">
+      <c r="M26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26" t="s">
+        <v>882</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>768</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>598</v>
+      </c>
+      <c r="AL26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>360</v>
       </c>
       <c r="F27" t="s">
         <v>253</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>807</v>
       </c>
-      <c r="L27" t="s">
-        <v>743</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>657</v>
-      </c>
-      <c r="AH27" t="s">
+      <c r="M27" t="s">
+        <v>445</v>
+      </c>
+      <c r="T27" t="s">
+        <v>883</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>769</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>449</v>
       </c>
       <c r="F28" t="s">
         <v>741</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>76</v>
       </c>
-      <c r="L28" t="s">
-        <v>638</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>109</v>
+      <c r="M28" t="s">
+        <v>743</v>
+      </c>
+      <c r="T28" t="s">
+        <v>884</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>770</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>727</v>
       </c>
       <c r="F29" t="s">
         <v>653</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>279</v>
       </c>
-      <c r="L29" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>110</v>
+      <c r="M29" t="s">
+        <v>638</v>
+      </c>
+      <c r="T29" t="s">
+        <v>885</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>771</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>802</v>
+        <v>737</v>
       </c>
       <c r="F30" t="s">
         <v>62</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>263</v>
       </c>
-      <c r="L30" t="s">
-        <v>505</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>111</v>
+      <c r="M30" t="s">
+        <v>85</v>
+      </c>
+      <c r="T30" t="s">
+        <v>886</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>772</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>803</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s">
         <v>318</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>280</v>
       </c>
-      <c r="L31" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>112</v>
+      <c r="M31" t="s">
+        <v>505</v>
+      </c>
+      <c r="T31" t="s">
+        <v>887</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>773</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
         <v>63</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>281</v>
       </c>
-      <c r="L32" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>324</v>
+      <c r="M32" t="s">
+        <v>44</v>
+      </c>
+      <c r="T32" t="s">
+        <v>888</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>774</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>479</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s">
         <v>527</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>214</v>
       </c>
-      <c r="AA33" t="s">
-        <v>113</v>
+      <c r="M33" t="s">
+        <v>45</v>
+      </c>
+      <c r="T33" t="s">
+        <v>889</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>775</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>802</v>
       </c>
       <c r="F34" t="s">
         <v>223</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>272</v>
       </c>
-      <c r="AA34" t="s">
-        <v>114</v>
+      <c r="T34" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>776</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="s">
+        <v>803</v>
+      </c>
       <c r="F35" t="s">
         <v>224</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>282</v>
       </c>
-      <c r="AA35" t="s">
-        <v>115</v>
+      <c r="T35" t="s">
+        <v>890</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>777</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
       <c r="F36" t="s">
         <v>569</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>623</v>
       </c>
-      <c r="AA36" t="s">
-        <v>116</v>
+      <c r="T36" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>778</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="s">
+        <v>479</v>
+      </c>
       <c r="F37" t="s">
         <v>570</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>257</v>
       </c>
-      <c r="AA37" t="s">
-        <v>658</v>
+      <c r="T37" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>779</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="s">
+        <v>225</v>
+      </c>
       <c r="F38" t="s">
         <v>481</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>327</v>
       </c>
-      <c r="AA38" t="s">
-        <v>117</v>
+      <c r="T38" t="s">
+        <v>680</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>904</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
         <v>64</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>304</v>
       </c>
-      <c r="AA39" t="s">
-        <v>118</v>
+      <c r="T39" t="s">
+        <v>891</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>780</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
         <v>65</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>258</v>
       </c>
-      <c r="AA40" t="s">
-        <v>208</v>
+      <c r="T40" t="s">
+        <v>892</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>781</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
         <v>66</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>305</v>
       </c>
-      <c r="AA41" t="s">
-        <v>119</v>
+      <c r="T41" t="s">
+        <v>893</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>905</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
         <v>67</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>264</v>
       </c>
-      <c r="AA42" t="s">
-        <v>335</v>
+      <c r="T42" t="s">
+        <v>894</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>906</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
         <v>68</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>808</v>
       </c>
-      <c r="AA43" t="s">
-        <v>494</v>
+      <c r="T43" t="s">
+        <v>895</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>907</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
         <v>69</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>78</v>
       </c>
-      <c r="AA44" t="s">
-        <v>679</v>
+      <c r="T44" t="s">
+        <v>896</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>908</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
         <v>70</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>210</v>
       </c>
-      <c r="AA45" t="s">
-        <v>446</v>
+      <c r="T45" t="s">
+        <v>897</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="46">
       <c r="F46" t="s">
         <v>71</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>654</v>
       </c>
-      <c r="AA46" t="s">
-        <v>120</v>
+      <c r="T46" t="s">
+        <v>898</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="47">
       <c r="F47" t="s">
         <v>742</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>286</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="T47" t="s">
+        <v>899</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="I48" t="s">
+        <v>297</v>
+      </c>
+      <c r="T48" t="s">
+        <v>900</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="I49" t="s">
+        <v>298</v>
+      </c>
+      <c r="T49" t="s">
+        <v>901</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="I50" t="s">
+        <v>340</v>
+      </c>
+      <c r="T50" t="s">
+        <v>785</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="I51" t="s">
+        <v>339</v>
+      </c>
+      <c r="T51" t="s">
+        <v>902</v>
+      </c>
+      <c r="AE51" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="48">
-      <c r="H48" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA48" t="s">
+    <row r="52">
+      <c r="I52" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE52" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49">
-      <c r="H49" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA49" t="s">
+    <row r="53">
+      <c r="I53" t="s">
+        <v>317</v>
+      </c>
+      <c r="AE53" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="50">
-      <c r="H50" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA50" t="s">
+    <row r="54">
+      <c r="I54" t="s">
+        <v>809</v>
+      </c>
+      <c r="AE54" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="51">
-      <c r="H51" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA51" t="s">
+    <row r="55">
+      <c r="I55" t="s">
+        <v>810</v>
+      </c>
+      <c r="AE55" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="52">
-      <c r="H52" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA52" t="s">
+    <row r="56">
+      <c r="I56" t="s">
+        <v>811</v>
+      </c>
+      <c r="AE56" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="53">
-      <c r="H53" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA53" t="s">
+    <row r="57">
+      <c r="I57" t="s">
+        <v>812</v>
+      </c>
+      <c r="AE57" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="54">
-      <c r="H54" t="s">
-        <v>809</v>
-      </c>
-      <c r="AA54" t="s">
+    <row r="58">
+      <c r="I58" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE58" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55">
-      <c r="H55" t="s">
-        <v>810</v>
-      </c>
-      <c r="AA55" t="s">
+    <row r="59">
+      <c r="I59" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE59" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="56">
-      <c r="H56" t="s">
-        <v>811</v>
-      </c>
-      <c r="AA56" t="s">
+    <row r="60">
+      <c r="I60" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE60" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="57">
-      <c r="H57" t="s">
-        <v>812</v>
-      </c>
-      <c r="AA57" t="s">
+    <row r="61">
+      <c r="I61" t="s">
+        <v>848</v>
+      </c>
+      <c r="AE61" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="58">
-      <c r="H58" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA58" t="s">
+    <row r="62">
+      <c r="I62" t="s">
+        <v>849</v>
+      </c>
+      <c r="AE62" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="59">
-      <c r="H59" t="s">
-        <v>371</v>
-      </c>
-      <c r="AA59" t="s">
+    <row r="63">
+      <c r="I63" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="I64" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE64" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="60">
-      <c r="H60" t="s">
-        <v>299</v>
-      </c>
-      <c r="AA60" t="s">
+    <row r="65">
+      <c r="I65" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE65" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="61">
-      <c r="H61" t="s">
-        <v>328</v>
-      </c>
-      <c r="AA61" t="s">
+    <row r="66">
+      <c r="I66" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE66" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="62">
-      <c r="H62" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA62" t="s">
+    <row r="67">
+      <c r="I67" t="s">
+        <v>655</v>
+      </c>
+      <c r="AE67" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="63">
-      <c r="H63" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA63" t="s">
+    <row r="68">
+      <c r="I68" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE68" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="64">
-      <c r="H64" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA64" t="s">
+    <row r="69">
+      <c r="I69" t="s">
+        <v>813</v>
+      </c>
+      <c r="AE69" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="65">
-      <c r="H65" t="s">
-        <v>655</v>
-      </c>
-      <c r="AA65" t="s">
+    <row r="70">
+      <c r="I70" t="s">
+        <v>814</v>
+      </c>
+      <c r="AE70" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="66">
-      <c r="H66" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA66" t="s">
+    <row r="71">
+      <c r="I71" t="s">
+        <v>815</v>
+      </c>
+      <c r="AE71" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="67">
-      <c r="H67" t="s">
-        <v>813</v>
-      </c>
-      <c r="AA67" t="s">
+    <row r="72">
+      <c r="I72" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE72" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68">
-      <c r="H68" t="s">
-        <v>814</v>
-      </c>
-      <c r="AA68" t="s">
+    <row r="73">
+      <c r="I73" t="s">
+        <v>816</v>
+      </c>
+      <c r="AE73" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69">
-      <c r="H69" t="s">
-        <v>815</v>
-      </c>
-      <c r="AA69" t="s">
+    <row r="74">
+      <c r="I74" t="s">
+        <v>817</v>
+      </c>
+      <c r="AE74" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="70">
-      <c r="H70" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA70" t="s">
+    <row r="75">
+      <c r="I75" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE75" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="71">
-      <c r="H71" t="s">
-        <v>816</v>
-      </c>
-      <c r="AA71" t="s">
+    <row r="76">
+      <c r="I76" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE76" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="72">
-      <c r="H72" t="s">
-        <v>817</v>
-      </c>
-      <c r="AA72" t="s">
+    <row r="77">
+      <c r="I77" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE77" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="73">
-      <c r="H73" t="s">
-        <v>334</v>
-      </c>
-      <c r="AA73" t="s">
+    <row r="78">
+      <c r="I78" t="s">
+        <v>372</v>
+      </c>
+      <c r="AE78" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="74">
-      <c r="H74" t="s">
-        <v>306</v>
-      </c>
-      <c r="AA74" t="s">
+    <row r="79">
+      <c r="I79" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE79" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="75">
-      <c r="H75" t="s">
-        <v>307</v>
-      </c>
-      <c r="AA75" t="s">
+    <row r="80">
+      <c r="I80" t="s">
+        <v>342</v>
+      </c>
+      <c r="AE80" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="76">
-      <c r="H76" t="s">
-        <v>372</v>
-      </c>
-      <c r="AA76" t="s">
+    <row r="81">
+      <c r="I81" t="s">
+        <v>310</v>
+      </c>
+      <c r="AE81" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="77">
-      <c r="H77" t="s">
-        <v>373</v>
-      </c>
-      <c r="AA77" t="s">
+    <row r="82">
+      <c r="I82" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE82" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="78">
-      <c r="H78" t="s">
-        <v>342</v>
-      </c>
-      <c r="AA78" t="s">
+    <row r="83">
+      <c r="I83" t="s">
+        <v>642</v>
+      </c>
+      <c r="AE83" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="79">
-      <c r="H79" t="s">
-        <v>310</v>
-      </c>
-      <c r="AA79" t="s">
+    <row r="84">
+      <c r="I84" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE84" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="80">
-      <c r="H80" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA80" t="s">
+    <row r="85">
+      <c r="I85" t="s">
+        <v>475</v>
+      </c>
+      <c r="AE85" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="81">
-      <c r="H81" t="s">
-        <v>642</v>
-      </c>
-      <c r="AA81" t="s">
+    <row r="86">
+      <c r="I86" t="s">
+        <v>818</v>
+      </c>
+      <c r="AE86" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="82">
-      <c r="H82" t="s">
-        <v>311</v>
-      </c>
-      <c r="AA82" t="s">
+    <row r="87">
+      <c r="I87" t="s">
+        <v>819</v>
+      </c>
+      <c r="AE87" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="83">
-      <c r="H83" t="s">
-        <v>475</v>
-      </c>
-      <c r="AA83" t="s">
+    <row r="88">
+      <c r="I88" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE88" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="84">
-      <c r="H84" t="s">
-        <v>818</v>
-      </c>
-      <c r="AA84" t="s">
+    <row r="89">
+      <c r="I89" t="s">
+        <v>624</v>
+      </c>
+      <c r="AE89" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="85">
-      <c r="H85" t="s">
-        <v>819</v>
-      </c>
-      <c r="AA85" t="s">
+    <row r="90">
+      <c r="I90" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE90" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="86">
-      <c r="H86" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA86" t="s">
+    <row r="91">
+      <c r="I91" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE91" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="87">
-      <c r="H87" t="s">
-        <v>624</v>
-      </c>
-      <c r="AA87" t="s">
+    <row r="92">
+      <c r="I92" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE92" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="88">
-      <c r="H88" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA88" t="s">
+    <row r="93">
+      <c r="I93" t="s">
+        <v>821</v>
+      </c>
+      <c r="AE93" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="89">
-      <c r="H89" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA89" t="s">
+    <row r="94">
+      <c r="I94" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE94" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="90">
-      <c r="H90" t="s">
-        <v>820</v>
-      </c>
-      <c r="AA90" t="s">
+    <row r="95">
+      <c r="I95" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE95" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="91">
-      <c r="H91" t="s">
-        <v>821</v>
-      </c>
-      <c r="AA91" t="s">
+    <row r="96">
+      <c r="I96" t="s">
+        <v>329</v>
+      </c>
+      <c r="AE96" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="92">
-      <c r="H92" t="s">
-        <v>288</v>
-      </c>
-      <c r="AA92" t="s">
+    <row r="97">
+      <c r="I97" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE97" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="93">
-      <c r="H93" t="s">
-        <v>482</v>
-      </c>
-      <c r="AA93" t="s">
+    <row r="98">
+      <c r="I98" t="s">
+        <v>278</v>
+      </c>
+      <c r="AE98" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="94">
-      <c r="H94" t="s">
-        <v>329</v>
-      </c>
-      <c r="AA94" t="s">
+    <row r="99">
+      <c r="I99" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE99" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="95">
-      <c r="H95" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA95" t="s">
+    <row r="100">
+      <c r="I100" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE100" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="96">
-      <c r="H96" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA96" t="s">
+    <row r="101">
+      <c r="I101" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="I102" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE102" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="97">
-      <c r="H97" t="s">
-        <v>284</v>
-      </c>
-      <c r="AA97" t="s">
+    <row r="103">
+      <c r="I103" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE103" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="98">
-      <c r="H98" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA98" t="s">
+    <row r="104">
+      <c r="I104" t="s">
+        <v>822</v>
+      </c>
+      <c r="AE104" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="99">
-      <c r="H99" t="s">
-        <v>643</v>
-      </c>
-      <c r="AA99" t="s">
+    <row r="105">
+      <c r="I105" t="s">
+        <v>823</v>
+      </c>
+      <c r="AE105" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="100">
-      <c r="H100" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA100" t="s">
+    <row r="106">
+      <c r="I106" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE106" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="101">
-      <c r="H101" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA101" t="s">
+    <row r="107">
+      <c r="I107" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE107" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="102">
-      <c r="H102" t="s">
-        <v>822</v>
-      </c>
-      <c r="AA102" t="s">
+    <row r="108">
+      <c r="I108" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE108" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="103">
-      <c r="H103" t="s">
-        <v>823</v>
-      </c>
-      <c r="AA103" t="s">
+    <row r="109">
+      <c r="I109" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE109" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="104">
-      <c r="H104" t="s">
-        <v>269</v>
-      </c>
-      <c r="AA104" t="s">
+    <row r="110">
+      <c r="I110" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE110" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="105">
-      <c r="H105" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA105" t="s">
+    <row r="111">
+      <c r="I111" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE111" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="106">
-      <c r="H106" t="s">
-        <v>302</v>
-      </c>
-      <c r="AA106" t="s">
+    <row r="112">
+      <c r="I112" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE112" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="107">
-      <c r="H107" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA107" t="s">
+    <row r="113">
+      <c r="I113" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE113" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="108">
-      <c r="H108" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA108" t="s">
+    <row r="114">
+      <c r="AE114" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="109">
-      <c r="H109" t="s">
-        <v>337</v>
-      </c>
-      <c r="AA109" t="s">
+    <row r="115">
+      <c r="AE115" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="110">
-      <c r="H110" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA110" t="s">
+    <row r="116">
+      <c r="AE116" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="111">
-      <c r="H111" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA111" t="s">
+    <row r="117">
+      <c r="AE117" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="118">
+      <c r="AE118" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
+    <row r="119">
+      <c r="AE119" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="114">
-      <c r="AA114" t="s">
+    <row r="120">
+      <c r="AE120" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="121">
+      <c r="AE121" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="122">
+      <c r="AE122" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="123">
+      <c r="AE123" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="AA119" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="124">
+      <c r="AE124" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="125">
+      <c r="AE125" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="126">
+      <c r="AE126" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="127">
+      <c r="AE127" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="128">
+      <c r="AE128" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="AE129" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="130">
+      <c r="AE130" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="131">
+      <c r="AE131" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="132">
+      <c r="AE132" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="133">
+      <c r="AE133" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="134">
+      <c r="AE134" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="135">
+      <c r="AE135" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="136">
+      <c r="AE136" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="137">
+      <c r="AE137" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="138">
+      <c r="AE138" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="139">
+      <c r="AE139" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="AE140" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="141">
+      <c r="AE141" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="142">
+      <c r="AE142" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="143">
+      <c r="AE143" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="144">
+      <c r="AE144" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="145">
+      <c r="AE145" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
+    <row r="146">
+      <c r="AE146" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="147">
+      <c r="AE147" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="148">
+      <c r="AE148" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="149">
+      <c r="AE149" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="150">
+      <c r="AE150" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="146">
-      <c r="AA146" t="s">
+    <row r="151">
+      <c r="AE151" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AE152" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="147">
-      <c r="AA147" t="s">
+    <row r="153">
+      <c r="AE153" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="148">
-      <c r="AA148" t="s">
+    <row r="154">
+      <c r="AE154" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="149">
-      <c r="AA149" t="s">
+    <row r="155">
+      <c r="AE155" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="150">
-      <c r="AA150" t="s">
+    <row r="156">
+      <c r="AE156" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="151">
-      <c r="AA151" t="s">
+    <row r="157">
+      <c r="AE157" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="152">
-      <c r="AA152" t="s">
+    <row r="158">
+      <c r="AE158" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="153">
-      <c r="AA153" t="s">
+    <row r="159">
+      <c r="AE159" t="s">
         <v>789</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="AE160" t="s">
+        <v>919</v>
       </c>
     </row>
   </sheetData>
